--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>141.4</v>
+        <v>139.8</v>
       </c>
       <c r="C2" t="n">
-        <v>141.4</v>
+        <v>143.4</v>
       </c>
       <c r="D2" t="n">
-        <v>141.4</v>
+        <v>143.4</v>
       </c>
       <c r="E2" t="n">
-        <v>141.4</v>
+        <v>139.8</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>9362.433999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>140.4716666666666</v>
+        <v>140.4483333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141.1</v>
+        <v>141.4</v>
       </c>
       <c r="C3" t="n">
-        <v>141.1</v>
+        <v>141.4</v>
       </c>
       <c r="D3" t="n">
-        <v>141.1</v>
+        <v>141.4</v>
       </c>
       <c r="E3" t="n">
-        <v>141.1</v>
+        <v>141.4</v>
       </c>
       <c r="F3" t="n">
-        <v>620.9281999999999</v>
+        <v>250</v>
       </c>
       <c r="G3" t="n">
-        <v>140.4916666666666</v>
+        <v>140.4716666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>139.8</v>
+        <v>141.1</v>
       </c>
       <c r="C4" t="n">
-        <v>142.4</v>
+        <v>141.1</v>
       </c>
       <c r="D4" t="n">
-        <v>142.4</v>
+        <v>141.1</v>
       </c>
       <c r="E4" t="n">
-        <v>135.6</v>
+        <v>141.1</v>
       </c>
       <c r="F4" t="n">
-        <v>10122.7757</v>
+        <v>620.9281999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5333333333333</v>
+        <v>140.4916666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139.3</v>
+        <v>139.8</v>
       </c>
       <c r="C5" t="n">
-        <v>139.3</v>
+        <v>142.4</v>
       </c>
       <c r="D5" t="n">
-        <v>139.3</v>
+        <v>142.4</v>
       </c>
       <c r="E5" t="n">
-        <v>139.3</v>
+        <v>135.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1750</v>
+        <v>10122.7757</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5233333333333</v>
+        <v>140.5333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139.7</v>
+        <v>139.3</v>
       </c>
       <c r="C6" t="n">
-        <v>139.7</v>
+        <v>139.3</v>
       </c>
       <c r="D6" t="n">
-        <v>139.7</v>
+        <v>139.3</v>
       </c>
       <c r="E6" t="n">
-        <v>139.7</v>
+        <v>139.3</v>
       </c>
       <c r="F6" t="n">
-        <v>215</v>
+        <v>1750</v>
       </c>
       <c r="G6" t="n">
-        <v>140.5366666666666</v>
+        <v>140.5233333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>136.1</v>
+        <v>139.7</v>
       </c>
       <c r="C7" t="n">
-        <v>136.1</v>
+        <v>139.7</v>
       </c>
       <c r="D7" t="n">
-        <v>136.1</v>
+        <v>139.7</v>
       </c>
       <c r="E7" t="n">
-        <v>136.1</v>
+        <v>139.7</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1482</v>
+        <v>215</v>
       </c>
       <c r="G7" t="n">
-        <v>140.49</v>
+        <v>140.5366666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>135.6</v>
+        <v>136.1</v>
       </c>
       <c r="C8" t="n">
-        <v>139.8</v>
+        <v>136.1</v>
       </c>
       <c r="D8" t="n">
-        <v>139.8</v>
+        <v>136.1</v>
       </c>
       <c r="E8" t="n">
-        <v>135.6</v>
+        <v>136.1</v>
       </c>
       <c r="F8" t="n">
-        <v>6037.2534</v>
+        <v>261.1482</v>
       </c>
       <c r="G8" t="n">
-        <v>140.505</v>
+        <v>140.49</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135.5</v>
+        <v>135.6</v>
       </c>
       <c r="C9" t="n">
         <v>139.8</v>
       </c>
       <c r="D9" t="n">
-        <v>140.8</v>
+        <v>139.8</v>
       </c>
       <c r="E9" t="n">
-        <v>135.5</v>
+        <v>135.6</v>
       </c>
       <c r="F9" t="n">
-        <v>6586.384</v>
+        <v>6037.2534</v>
       </c>
       <c r="G9" t="n">
-        <v>140.52</v>
+        <v>140.505</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="C10" t="n">
         <v>139.8</v>
       </c>
-      <c r="C10" t="n">
-        <v>142.4</v>
-      </c>
       <c r="D10" t="n">
-        <v>142.4</v>
+        <v>140.8</v>
       </c>
       <c r="E10" t="n">
-        <v>139.8</v>
+        <v>135.5</v>
       </c>
       <c r="F10" t="n">
-        <v>4459</v>
+        <v>6586.384</v>
       </c>
       <c r="G10" t="n">
-        <v>140.5783333333333</v>
+        <v>140.52</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138.2</v>
+        <v>139.8</v>
       </c>
       <c r="C11" t="n">
-        <v>138.2</v>
+        <v>142.4</v>
       </c>
       <c r="D11" t="n">
-        <v>138.2</v>
+        <v>142.4</v>
       </c>
       <c r="E11" t="n">
-        <v>138.2</v>
+        <v>139.8</v>
       </c>
       <c r="F11" t="n">
-        <v>387.9651</v>
+        <v>4459</v>
       </c>
       <c r="G11" t="n">
-        <v>140.5666666666666</v>
+        <v>140.5783333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141.4</v>
+        <v>138.2</v>
       </c>
       <c r="C12" t="n">
-        <v>142.4</v>
+        <v>138.2</v>
       </c>
       <c r="D12" t="n">
-        <v>142.4</v>
+        <v>138.2</v>
       </c>
       <c r="E12" t="n">
-        <v>141.4</v>
+        <v>138.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1138</v>
+        <v>387.9651</v>
       </c>
       <c r="G12" t="n">
-        <v>140.6066666666666</v>
+        <v>140.5666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137</v>
+        <v>141.4</v>
       </c>
       <c r="C13" t="n">
-        <v>137</v>
+        <v>142.4</v>
       </c>
       <c r="D13" t="n">
-        <v>137</v>
+        <v>142.4</v>
       </c>
       <c r="E13" t="n">
-        <v>137</v>
+        <v>141.4</v>
       </c>
       <c r="F13" t="n">
-        <v>568.0684</v>
+        <v>1138</v>
       </c>
       <c r="G13" t="n">
-        <v>140.5566666666666</v>
+        <v>140.6066666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" t="n">
-        <v>287.4627</v>
+        <v>568.0684</v>
       </c>
       <c r="G14" t="n">
-        <v>140.5233333333333</v>
+        <v>140.5566666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140.1</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" t="n">
-        <v>140.2</v>
+        <v>138</v>
       </c>
       <c r="E15" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" t="n">
-        <v>2161.01</v>
+        <v>287.4627</v>
       </c>
       <c r="G15" t="n">
         <v>140.5233333333333</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="C16" t="n">
         <v>140</v>
       </c>
       <c r="D16" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="E16" t="n">
         <v>140</v>
       </c>
-      <c r="E16" t="n">
-        <v>139</v>
-      </c>
       <c r="F16" t="n">
-        <v>1592.73</v>
+        <v>2161.01</v>
       </c>
       <c r="G16" t="n">
         <v>140.5233333333333</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>139.1</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="D17" t="n">
-        <v>139.1</v>
+        <v>140</v>
       </c>
       <c r="E17" t="n">
-        <v>138.1</v>
+        <v>139</v>
       </c>
       <c r="F17" t="n">
-        <v>2326.57</v>
+        <v>1592.73</v>
       </c>
       <c r="G17" t="n">
-        <v>140.4916666666666</v>
+        <v>140.5233333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>138.9</v>
+        <v>139.1</v>
       </c>
       <c r="C18" t="n">
-        <v>139.9</v>
+        <v>138.1</v>
       </c>
       <c r="D18" t="n">
-        <v>139.9</v>
+        <v>139.1</v>
       </c>
       <c r="E18" t="n">
-        <v>138.8</v>
+        <v>138.1</v>
       </c>
       <c r="F18" t="n">
-        <v>2250</v>
+        <v>2326.57</v>
       </c>
       <c r="G18" t="n">
-        <v>140.4283333333333</v>
+        <v>140.4916666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="C19" t="n">
-        <v>138.1</v>
+        <v>139.9</v>
       </c>
       <c r="D19" t="n">
-        <v>138.1</v>
+        <v>139.9</v>
       </c>
       <c r="E19" t="n">
-        <v>138.1</v>
+        <v>138.8</v>
       </c>
       <c r="F19" t="n">
-        <v>663.3952</v>
+        <v>2250</v>
       </c>
       <c r="G19" t="n">
-        <v>140.3566666666666</v>
+        <v>140.4283333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>138.1</v>
       </c>
       <c r="C20" t="n">
-        <v>138</v>
+        <v>138.1</v>
       </c>
       <c r="D20" t="n">
         <v>138.1</v>
       </c>
       <c r="E20" t="n">
-        <v>138</v>
+        <v>138.1</v>
       </c>
       <c r="F20" t="n">
-        <v>19719.7641</v>
+        <v>663.3952</v>
       </c>
       <c r="G20" t="n">
-        <v>140.2616666666666</v>
+        <v>140.3566666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="C21" t="n">
         <v>138</v>
       </c>
-      <c r="C21" t="n">
-        <v>138.6</v>
-      </c>
       <c r="D21" t="n">
-        <v>138.6</v>
+        <v>138.1</v>
       </c>
       <c r="E21" t="n">
         <v>138</v>
       </c>
       <c r="F21" t="n">
-        <v>791.7917</v>
+        <v>19719.7641</v>
       </c>
       <c r="G21" t="n">
-        <v>140.1549999999999</v>
+        <v>140.2616666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>138</v>
       </c>
       <c r="C22" t="n">
-        <v>138</v>
+        <v>138.6</v>
       </c>
       <c r="D22" t="n">
-        <v>138</v>
+        <v>138.6</v>
       </c>
       <c r="E22" t="n">
         <v>138</v>
       </c>
       <c r="F22" t="n">
-        <v>646.0684</v>
+        <v>791.7917</v>
       </c>
       <c r="G22" t="n">
-        <v>140.0883333333333</v>
+        <v>140.1549999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>138</v>
       </c>
       <c r="F23" t="n">
-        <v>189.3627</v>
+        <v>646.0684</v>
       </c>
       <c r="G23" t="n">
-        <v>140.045</v>
+        <v>140.0883333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>139.9</v>
+        <v>138</v>
       </c>
       <c r="C24" t="n">
-        <v>142.2</v>
+        <v>138</v>
       </c>
       <c r="D24" t="n">
-        <v>142.2</v>
+        <v>138</v>
       </c>
       <c r="E24" t="n">
-        <v>139.9</v>
+        <v>138</v>
       </c>
       <c r="F24" t="n">
-        <v>856.6769</v>
+        <v>189.3627</v>
       </c>
       <c r="G24" t="n">
-        <v>140.0299999999999</v>
+        <v>140.045</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>141.1</v>
+        <v>139.9</v>
       </c>
       <c r="C25" t="n">
-        <v>141.1</v>
+        <v>142.2</v>
       </c>
       <c r="D25" t="n">
-        <v>141.1</v>
+        <v>142.2</v>
       </c>
       <c r="E25" t="n">
-        <v>141.1</v>
+        <v>139.9</v>
       </c>
       <c r="F25" t="n">
-        <v>1250</v>
+        <v>856.6769</v>
       </c>
       <c r="G25" t="n">
-        <v>139.9949999999999</v>
+        <v>140.0299999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>139</v>
+        <v>141.1</v>
       </c>
       <c r="C26" t="n">
-        <v>139</v>
+        <v>141.1</v>
       </c>
       <c r="D26" t="n">
-        <v>139</v>
+        <v>141.1</v>
       </c>
       <c r="E26" t="n">
-        <v>139</v>
+        <v>141.1</v>
       </c>
       <c r="F26" t="n">
-        <v>928.9556</v>
+        <v>1250</v>
       </c>
       <c r="G26" t="n">
-        <v>140.0599999999999</v>
+        <v>139.9949999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="D27" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="E27" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" t="n">
-        <v>2696.6505</v>
+        <v>928.9556</v>
       </c>
       <c r="G27" t="n">
-        <v>140.0283333333333</v>
+        <v>140.0599999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="C28" t="n">
         <v>141.3</v>
@@ -1352,13 +1352,13 @@
         <v>141.3</v>
       </c>
       <c r="E28" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>2696.6505</v>
       </c>
       <c r="G28" t="n">
-        <v>139.9666666666666</v>
+        <v>140.0283333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>141.3</v>
       </c>
       <c r="C29" t="n">
-        <v>139.1</v>
+        <v>141.3</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3</v>
+        <v>141.3</v>
       </c>
       <c r="E29" t="n">
-        <v>139.1</v>
+        <v>141.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1816.0803</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>139.9849999999999</v>
+        <v>139.9666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>141.3</v>
       </c>
       <c r="C30" t="n">
-        <v>141.3</v>
+        <v>139.1</v>
       </c>
       <c r="D30" t="n">
-        <v>141.3</v>
+        <v>142.3</v>
       </c>
       <c r="E30" t="n">
-        <v>141.3</v>
+        <v>139.1</v>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>1816.0803</v>
       </c>
       <c r="G30" t="n">
-        <v>140.0399999999999</v>
+        <v>139.9849999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>141.3</v>
       </c>
       <c r="C31" t="n">
-        <v>142.3</v>
+        <v>141.3</v>
       </c>
       <c r="D31" t="n">
-        <v>142.3</v>
+        <v>141.3</v>
       </c>
       <c r="E31" t="n">
         <v>141.3</v>
       </c>
       <c r="F31" t="n">
-        <v>8428.125</v>
+        <v>500</v>
       </c>
       <c r="G31" t="n">
-        <v>140.1116666666666</v>
+        <v>140.0399999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="C32" t="n">
         <v>142.3</v>
       </c>
-      <c r="C32" t="n">
-        <v>142.4</v>
-      </c>
       <c r="D32" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="E32" t="n">
-        <v>142.3</v>
+        <v>141.3</v>
       </c>
       <c r="F32" t="n">
-        <v>13771.5814</v>
+        <v>8428.125</v>
       </c>
       <c r="G32" t="n">
-        <v>140.1349999999999</v>
+        <v>140.1116666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="C33" t="n">
         <v>142.4</v>
@@ -1527,13 +1527,13 @@
         <v>142.4</v>
       </c>
       <c r="E33" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>13771.5814</v>
       </c>
       <c r="G33" t="n">
-        <v>140.1433333333332</v>
+        <v>140.1349999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>142.4</v>
       </c>
       <c r="F34" t="n">
-        <v>11051.2282</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>140.1983333333332</v>
+        <v>140.1433333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>142.4</v>
       </c>
       <c r="F35" t="n">
-        <v>800.4399</v>
+        <v>11051.2282</v>
       </c>
       <c r="G35" t="n">
-        <v>140.2399999999999</v>
+        <v>140.1983333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>142.4</v>
       </c>
       <c r="C36" t="n">
-        <v>148.4</v>
+        <v>142.4</v>
       </c>
       <c r="D36" t="n">
-        <v>148.4</v>
+        <v>142.4</v>
       </c>
       <c r="E36" t="n">
         <v>142.4</v>
       </c>
       <c r="F36" t="n">
-        <v>16705.8373</v>
+        <v>800.4399</v>
       </c>
       <c r="G36" t="n">
-        <v>140.3499999999999</v>
+        <v>140.2399999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>145</v>
+        <v>142.4</v>
       </c>
       <c r="C37" t="n">
-        <v>143</v>
+        <v>148.4</v>
       </c>
       <c r="D37" t="n">
-        <v>145</v>
+        <v>148.4</v>
       </c>
       <c r="E37" t="n">
-        <v>138.1</v>
+        <v>142.4</v>
       </c>
       <c r="F37" t="n">
-        <v>6571.1729</v>
+        <v>16705.8373</v>
       </c>
       <c r="G37" t="n">
-        <v>140.3999999999999</v>
+        <v>140.3499999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E38" t="n">
-        <v>144</v>
+        <v>138.1</v>
       </c>
       <c r="F38" t="n">
-        <v>549.3252</v>
+        <v>6571.1729</v>
       </c>
       <c r="G38" t="n">
-        <v>140.4383333333332</v>
+        <v>140.3999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>144</v>
       </c>
       <c r="C39" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E39" t="n">
         <v>144</v>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>549.3252</v>
       </c>
       <c r="G39" t="n">
-        <v>140.5883333333332</v>
+        <v>140.4383333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" t="n">
-        <v>144.7</v>
+        <v>146</v>
       </c>
       <c r="D40" t="n">
-        <v>144.7</v>
+        <v>146</v>
       </c>
       <c r="E40" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F40" t="n">
-        <v>2745.452</v>
+        <v>500</v>
       </c>
       <c r="G40" t="n">
-        <v>140.6349999999999</v>
+        <v>140.5883333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>143</v>
+      </c>
+      <c r="C41" t="n">
         <v>144.7</v>
       </c>
-      <c r="C41" t="n">
-        <v>145.7</v>
-      </c>
       <c r="D41" t="n">
-        <v>145.7</v>
+        <v>144.7</v>
       </c>
       <c r="E41" t="n">
-        <v>144.7</v>
+        <v>143</v>
       </c>
       <c r="F41" t="n">
-        <v>1412.3558</v>
+        <v>2745.452</v>
       </c>
       <c r="G41" t="n">
-        <v>140.6983333333332</v>
+        <v>140.6349999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>145</v>
+        <v>144.7</v>
       </c>
       <c r="C42" t="n">
-        <v>145.9</v>
+        <v>145.7</v>
       </c>
       <c r="D42" t="n">
-        <v>145.9</v>
+        <v>145.7</v>
       </c>
       <c r="E42" t="n">
-        <v>145</v>
+        <v>144.7</v>
       </c>
       <c r="F42" t="n">
-        <v>500</v>
+        <v>1412.3558</v>
       </c>
       <c r="G42" t="n">
-        <v>140.7466666666666</v>
+        <v>140.6983333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>145</v>
       </c>
       <c r="F43" t="n">
-        <v>1306.6161</v>
+        <v>500</v>
       </c>
       <c r="G43" t="n">
-        <v>140.8766666666666</v>
+        <v>140.7466666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="D44" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="E44" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" t="n">
-        <v>573</v>
+        <v>1306.6161</v>
       </c>
       <c r="G44" t="n">
-        <v>140.9633333333332</v>
+        <v>140.8766666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>146</v>
       </c>
       <c r="F45" t="n">
-        <v>13474.8231</v>
+        <v>573</v>
       </c>
       <c r="G45" t="n">
-        <v>140.9866666666666</v>
+        <v>140.9633333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>145.9</v>
+        <v>146</v>
       </c>
       <c r="C46" t="n">
         <v>146</v>
@@ -1982,13 +1982,13 @@
         <v>146</v>
       </c>
       <c r="E46" t="n">
-        <v>145.9</v>
+        <v>146</v>
       </c>
       <c r="F46" t="n">
-        <v>672.0431</v>
+        <v>13474.8231</v>
       </c>
       <c r="G46" t="n">
-        <v>141.0199999999999</v>
+        <v>140.9866666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="C47" t="n">
         <v>146</v>
@@ -2017,13 +2017,13 @@
         <v>146</v>
       </c>
       <c r="E47" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="F47" t="n">
-        <v>475.537</v>
+        <v>672.0431</v>
       </c>
       <c r="G47" t="n">
-        <v>141.1033333333332</v>
+        <v>141.0199999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>144.1</v>
+        <v>146</v>
       </c>
       <c r="C48" t="n">
-        <v>144.1</v>
+        <v>146</v>
       </c>
       <c r="D48" t="n">
-        <v>144.1</v>
+        <v>146</v>
       </c>
       <c r="E48" t="n">
-        <v>144.1</v>
+        <v>146</v>
       </c>
       <c r="F48" t="n">
-        <v>1497.0356</v>
+        <v>475.537</v>
       </c>
       <c r="G48" t="n">
-        <v>141.2199999999999</v>
+        <v>141.1033333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>146</v>
+        <v>144.1</v>
       </c>
       <c r="C49" t="n">
-        <v>146</v>
+        <v>144.1</v>
       </c>
       <c r="D49" t="n">
-        <v>146</v>
+        <v>144.1</v>
       </c>
       <c r="E49" t="n">
-        <v>146</v>
+        <v>144.1</v>
       </c>
       <c r="F49" t="n">
-        <v>68.7533</v>
+        <v>1497.0356</v>
       </c>
       <c r="G49" t="n">
         <v>141.2199999999999</v>
@@ -2125,10 +2125,10 @@
         <v>146</v>
       </c>
       <c r="F50" t="n">
-        <v>181.212</v>
+        <v>68.7533</v>
       </c>
       <c r="G50" t="n">
-        <v>141.3349999999999</v>
+        <v>141.2199999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>146</v>
       </c>
       <c r="F51" t="n">
-        <v>398.502</v>
+        <v>181.212</v>
       </c>
       <c r="G51" t="n">
-        <v>141.5166666666665</v>
+        <v>141.3349999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>146</v>
       </c>
       <c r="F52" t="n">
-        <v>210</v>
+        <v>398.502</v>
       </c>
       <c r="G52" t="n">
-        <v>141.5549999999999</v>
+        <v>141.5166666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>146</v>
       </c>
       <c r="F53" t="n">
-        <v>12300.165</v>
+        <v>210</v>
       </c>
       <c r="G53" t="n">
-        <v>141.6883333333332</v>
+        <v>141.5549999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>146</v>
       </c>
       <c r="C54" t="n">
-        <v>145.2</v>
+        <v>146</v>
       </c>
       <c r="D54" t="n">
-        <v>148.8</v>
+        <v>146</v>
       </c>
       <c r="E54" t="n">
-        <v>145.2</v>
+        <v>146</v>
       </c>
       <c r="F54" t="n">
-        <v>11137.208</v>
+        <v>12300.165</v>
       </c>
       <c r="G54" t="n">
-        <v>141.7649999999999</v>
+        <v>141.6883333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>146</v>
       </c>
       <c r="C55" t="n">
-        <v>146</v>
+        <v>145.2</v>
       </c>
       <c r="D55" t="n">
-        <v>146</v>
+        <v>148.8</v>
       </c>
       <c r="E55" t="n">
-        <v>146</v>
+        <v>145.2</v>
       </c>
       <c r="F55" t="n">
-        <v>528.1299</v>
+        <v>11137.208</v>
       </c>
       <c r="G55" t="n">
-        <v>141.9449999999999</v>
+        <v>141.7649999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>145.3</v>
+        <v>146</v>
       </c>
       <c r="C56" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="D56" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="E56" t="n">
-        <v>145.3</v>
+        <v>146</v>
       </c>
       <c r="F56" t="n">
-        <v>5281.5369</v>
+        <v>528.1299</v>
       </c>
       <c r="G56" t="n">
-        <v>142.0249999999998</v>
+        <v>141.9449999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>146.9</v>
+        <v>145.3</v>
       </c>
       <c r="C57" t="n">
         <v>146.9</v>
@@ -2367,13 +2367,13 @@
         <v>146.9</v>
       </c>
       <c r="E57" t="n">
-        <v>146.9</v>
+        <v>145.3</v>
       </c>
       <c r="F57" t="n">
-        <v>664.127</v>
+        <v>5281.5369</v>
       </c>
       <c r="G57" t="n">
-        <v>142.1899999999999</v>
+        <v>142.0249999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>145</v>
+        <v>146.9</v>
       </c>
       <c r="C58" t="n">
         <v>146.9</v>
@@ -2402,13 +2402,13 @@
         <v>146.9</v>
       </c>
       <c r="E58" t="n">
-        <v>145</v>
+        <v>146.9</v>
       </c>
       <c r="F58" t="n">
-        <v>1087.5068</v>
+        <v>664.127</v>
       </c>
       <c r="G58" t="n">
-        <v>142.3216666666665</v>
+        <v>142.1899999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>145</v>
+      </c>
+      <c r="C59" t="n">
         <v>146.9</v>
       </c>
-      <c r="C59" t="n">
-        <v>151.3</v>
-      </c>
       <c r="D59" t="n">
-        <v>151.3</v>
+        <v>146.9</v>
       </c>
       <c r="E59" t="n">
-        <v>146.9</v>
+        <v>145</v>
       </c>
       <c r="F59" t="n">
-        <v>19162.6568</v>
+        <v>1087.5068</v>
       </c>
       <c r="G59" t="n">
-        <v>142.5266666666665</v>
+        <v>142.3216666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>151.3</v>
+        <v>146.9</v>
       </c>
       <c r="C60" t="n">
         <v>151.3</v>
@@ -2472,13 +2472,13 @@
         <v>151.3</v>
       </c>
       <c r="E60" t="n">
-        <v>151.3</v>
+        <v>146.9</v>
       </c>
       <c r="F60" t="n">
-        <v>498.9789</v>
+        <v>19162.6568</v>
       </c>
       <c r="G60" t="n">
-        <v>142.7183333333332</v>
+        <v>142.5266666666665</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>151.3</v>
       </c>
       <c r="C61" t="n">
-        <v>151.8</v>
+        <v>151.3</v>
       </c>
       <c r="D61" t="n">
-        <v>151.8</v>
+        <v>151.3</v>
       </c>
       <c r="E61" t="n">
         <v>151.3</v>
       </c>
       <c r="F61" t="n">
-        <v>2129</v>
+        <v>498.9789</v>
       </c>
       <c r="G61" t="n">
-        <v>142.8583333333331</v>
+        <v>142.7183333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>151.8</v>
+        <v>151.3</v>
       </c>
       <c r="C62" t="n">
         <v>151.8</v>
@@ -2542,13 +2542,13 @@
         <v>151.8</v>
       </c>
       <c r="E62" t="n">
-        <v>151.8</v>
+        <v>151.3</v>
       </c>
       <c r="F62" t="n">
-        <v>72.63549999999999</v>
+        <v>2129</v>
       </c>
       <c r="G62" t="n">
-        <v>143.0316666666665</v>
+        <v>142.8583333333331</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>151.9</v>
+        <v>151.8</v>
       </c>
       <c r="C63" t="n">
         <v>151.8</v>
       </c>
       <c r="D63" t="n">
-        <v>155</v>
+        <v>151.8</v>
       </c>
       <c r="E63" t="n">
         <v>151.8</v>
       </c>
       <c r="F63" t="n">
-        <v>6859.8678</v>
+        <v>72.63549999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>143.2099999999998</v>
+        <v>143.0316666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>154.2</v>
+        <v>151.9</v>
       </c>
       <c r="C64" t="n">
-        <v>155</v>
+        <v>151.8</v>
       </c>
       <c r="D64" t="n">
         <v>155</v>
       </c>
       <c r="E64" t="n">
-        <v>154.1</v>
+        <v>151.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2501.5612</v>
+        <v>6859.8678</v>
       </c>
       <c r="G64" t="n">
-        <v>143.4199999999998</v>
+        <v>143.2099999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>155</v>
+        <v>154.2</v>
       </c>
       <c r="C65" t="n">
         <v>155</v>
@@ -2647,13 +2647,13 @@
         <v>155</v>
       </c>
       <c r="E65" t="n">
-        <v>155</v>
+        <v>154.1</v>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>2501.5612</v>
       </c>
       <c r="G65" t="n">
-        <v>143.6816666666665</v>
+        <v>143.4199999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>155</v>
       </c>
       <c r="F66" t="n">
-        <v>2743.0748</v>
+        <v>250</v>
       </c>
       <c r="G66" t="n">
-        <v>143.9366666666665</v>
+        <v>143.6816666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="C67" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="D67" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="E67" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="F67" t="n">
-        <v>65</v>
+        <v>2743.0748</v>
       </c>
       <c r="G67" t="n">
-        <v>144.2499999999998</v>
+        <v>143.9366666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>154.9</v>
       </c>
       <c r="F68" t="n">
-        <v>631.7403</v>
+        <v>65</v>
       </c>
       <c r="G68" t="n">
-        <v>144.5016666666665</v>
+        <v>144.2499999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>156</v>
+        <v>154.9</v>
       </c>
       <c r="C69" t="n">
-        <v>157</v>
+        <v>154.9</v>
       </c>
       <c r="D69" t="n">
-        <v>157</v>
+        <v>154.9</v>
       </c>
       <c r="E69" t="n">
-        <v>156</v>
+        <v>154.9</v>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>631.7403</v>
       </c>
       <c r="G69" t="n">
-        <v>144.7883333333331</v>
+        <v>144.5016666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>156</v>
       </c>
       <c r="C70" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="D70" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="E70" t="n">
         <v>156</v>
       </c>
       <c r="F70" t="n">
-        <v>1416.6719</v>
+        <v>250</v>
       </c>
       <c r="G70" t="n">
-        <v>145.0299999999998</v>
+        <v>144.7883333333331</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,28 +2848,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>154.1</v>
+        <v>156</v>
       </c>
       <c r="C71" t="n">
-        <v>154.1</v>
+        <v>156.9</v>
       </c>
       <c r="D71" t="n">
-        <v>154.1</v>
+        <v>156.9</v>
       </c>
       <c r="E71" t="n">
-        <v>154.1</v>
+        <v>156</v>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>1416.6719</v>
       </c>
       <c r="G71" t="n">
-        <v>145.2949999999998</v>
+        <v>145.0299999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>152.3</v>
+        <v>154.1</v>
       </c>
       <c r="C72" t="n">
-        <v>152.3</v>
+        <v>154.1</v>
       </c>
       <c r="D72" t="n">
-        <v>152.3</v>
+        <v>154.1</v>
       </c>
       <c r="E72" t="n">
-        <v>152.3</v>
+        <v>154.1</v>
       </c>
       <c r="F72" t="n">
-        <v>212.502</v>
+        <v>80</v>
       </c>
       <c r="G72" t="n">
-        <v>145.4599999999998</v>
+        <v>145.2949999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>147.2</v>
+        <v>152.3</v>
       </c>
       <c r="C73" t="n">
-        <v>151.6</v>
+        <v>152.3</v>
       </c>
       <c r="D73" t="n">
-        <v>151.6</v>
+        <v>152.3</v>
       </c>
       <c r="E73" t="n">
-        <v>146.2</v>
+        <v>152.3</v>
       </c>
       <c r="F73" t="n">
-        <v>3987.5915</v>
+        <v>212.502</v>
       </c>
       <c r="G73" t="n">
-        <v>145.7033333333331</v>
+        <v>145.4599999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>151.1</v>
+        <v>147.2</v>
       </c>
       <c r="C74" t="n">
-        <v>151</v>
+        <v>151.6</v>
       </c>
       <c r="D74" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="E74" t="n">
-        <v>150</v>
+        <v>146.2</v>
       </c>
       <c r="F74" t="n">
-        <v>1020</v>
+        <v>3987.5915</v>
       </c>
       <c r="G74" t="n">
-        <v>145.9199999999998</v>
+        <v>145.7033333333331</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>152</v>
+        <v>151.1</v>
       </c>
       <c r="C75" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D75" t="n">
         <v>152</v>
       </c>
       <c r="E75" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F75" t="n">
-        <v>509.1069</v>
+        <v>1020</v>
       </c>
       <c r="G75" t="n">
-        <v>146.0699999999998</v>
+        <v>145.9199999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>152</v>
       </c>
       <c r="C76" t="n">
-        <v>147.3</v>
+        <v>149</v>
       </c>
       <c r="D76" t="n">
         <v>152</v>
       </c>
       <c r="E76" t="n">
-        <v>147.3</v>
+        <v>149</v>
       </c>
       <c r="F76" t="n">
-        <v>2905.811</v>
+        <v>509.1069</v>
       </c>
       <c r="G76" t="n">
-        <v>146.1916666666665</v>
+        <v>146.0699999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>148.3</v>
+        <v>152</v>
       </c>
       <c r="C77" t="n">
-        <v>154</v>
+        <v>147.3</v>
       </c>
       <c r="D77" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E77" t="n">
-        <v>147</v>
+        <v>147.3</v>
       </c>
       <c r="F77" t="n">
-        <v>3626.4642</v>
+        <v>2905.811</v>
       </c>
       <c r="G77" t="n">
-        <v>146.4566666666665</v>
+        <v>146.1916666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>152</v>
+        <v>148.3</v>
       </c>
       <c r="C78" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D78" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E78" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F78" t="n">
-        <v>750</v>
+        <v>3626.4642</v>
       </c>
       <c r="G78" t="n">
-        <v>146.6583333333331</v>
+        <v>146.4566666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>151.9</v>
+        <v>152</v>
       </c>
       <c r="C79" t="n">
-        <v>151.9</v>
+        <v>152</v>
       </c>
       <c r="D79" t="n">
-        <v>151.9</v>
+        <v>152</v>
       </c>
       <c r="E79" t="n">
-        <v>151.9</v>
+        <v>152</v>
       </c>
       <c r="F79" t="n">
-        <v>256</v>
+        <v>750</v>
       </c>
       <c r="G79" t="n">
-        <v>146.8883333333331</v>
+        <v>146.6583333333331</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="C80" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="D80" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="E80" t="n">
-        <v>151.6</v>
+        <v>151.9</v>
       </c>
       <c r="F80" t="n">
-        <v>237.9924</v>
+        <v>256</v>
       </c>
       <c r="G80" t="n">
-        <v>147.1149999999998</v>
+        <v>146.8883333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>151</v>
+        <v>151.6</v>
       </c>
       <c r="C81" t="n">
-        <v>150</v>
+        <v>151.6</v>
       </c>
       <c r="D81" t="n">
-        <v>151</v>
+        <v>151.6</v>
       </c>
       <c r="E81" t="n">
-        <v>150</v>
+        <v>151.6</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>237.9924</v>
       </c>
       <c r="G81" t="n">
-        <v>147.3049999999998</v>
+        <v>147.1149999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>147.7</v>
+        <v>151</v>
       </c>
       <c r="C82" t="n">
-        <v>147.7</v>
+        <v>150</v>
       </c>
       <c r="D82" t="n">
-        <v>147.7</v>
+        <v>151</v>
       </c>
       <c r="E82" t="n">
-        <v>147.7</v>
+        <v>150</v>
       </c>
       <c r="F82" t="n">
-        <v>1140.07</v>
+        <v>500</v>
       </c>
       <c r="G82" t="n">
-        <v>147.4666666666664</v>
+        <v>147.3049999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>145.7</v>
+        <v>147.7</v>
       </c>
       <c r="C83" t="n">
-        <v>146.7</v>
+        <v>147.7</v>
       </c>
       <c r="D83" t="n">
-        <v>146.7</v>
+        <v>147.7</v>
       </c>
       <c r="E83" t="n">
-        <v>145.7</v>
+        <v>147.7</v>
       </c>
       <c r="F83" t="n">
-        <v>850</v>
+        <v>1140.07</v>
       </c>
       <c r="G83" t="n">
-        <v>147.6116666666665</v>
+        <v>147.4666666666664</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>144.2</v>
+        <v>145.7</v>
       </c>
       <c r="C84" t="n">
-        <v>144</v>
+        <v>146.7</v>
       </c>
       <c r="D84" t="n">
-        <v>144.2</v>
+        <v>146.7</v>
       </c>
       <c r="E84" t="n">
-        <v>144</v>
+        <v>145.7</v>
       </c>
       <c r="F84" t="n">
-        <v>55.8635</v>
+        <v>850</v>
       </c>
       <c r="G84" t="n">
-        <v>147.6416666666665</v>
+        <v>147.6116666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>142.9</v>
+        <v>144.2</v>
       </c>
       <c r="C85" t="n">
-        <v>142.9</v>
+        <v>144</v>
       </c>
       <c r="D85" t="n">
-        <v>142.9</v>
+        <v>144.2</v>
       </c>
       <c r="E85" t="n">
-        <v>142.9</v>
+        <v>144</v>
       </c>
       <c r="F85" t="n">
-        <v>40.2217</v>
+        <v>55.8635</v>
       </c>
       <c r="G85" t="n">
-        <v>147.6716666666665</v>
+        <v>147.6416666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="C86" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="D86" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="E86" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="F86" t="n">
-        <v>1043.9848</v>
+        <v>40.2217</v>
       </c>
       <c r="G86" t="n">
-        <v>147.7549999999998</v>
+        <v>147.6716666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="C87" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D87" t="n">
-        <v>149.9</v>
+        <v>144</v>
       </c>
       <c r="E87" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="F87" t="n">
-        <v>7156.51</v>
+        <v>1043.9848</v>
       </c>
       <c r="G87" t="n">
-        <v>147.8333333333331</v>
+        <v>147.7549999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>146.1</v>
+        <v>141.1</v>
       </c>
       <c r="C88" t="n">
-        <v>144.1</v>
+        <v>146</v>
       </c>
       <c r="D88" t="n">
-        <v>146.1</v>
+        <v>149.9</v>
       </c>
       <c r="E88" t="n">
-        <v>144</v>
+        <v>141.1</v>
       </c>
       <c r="F88" t="n">
-        <v>568.283</v>
+        <v>7156.51</v>
       </c>
       <c r="G88" t="n">
-        <v>147.8799999999998</v>
+        <v>147.8333333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,32 +3478,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>145.9</v>
+        <v>146.1</v>
       </c>
       <c r="C89" t="n">
-        <v>146.5</v>
+        <v>144.1</v>
       </c>
       <c r="D89" t="n">
-        <v>146.5</v>
+        <v>146.1</v>
       </c>
       <c r="E89" t="n">
-        <v>145.9</v>
+        <v>144</v>
       </c>
       <c r="F89" t="n">
-        <v>690</v>
+        <v>568.283</v>
       </c>
       <c r="G89" t="n">
-        <v>148.0033333333331</v>
+        <v>147.8799999999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3519,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>145.4</v>
+        <v>145.9</v>
       </c>
       <c r="C90" t="n">
-        <v>145.4</v>
+        <v>146.5</v>
       </c>
       <c r="D90" t="n">
-        <v>145.4</v>
+        <v>146.5</v>
       </c>
       <c r="E90" t="n">
-        <v>145.4</v>
+        <v>145.9</v>
       </c>
       <c r="F90" t="n">
-        <v>13.5302</v>
+        <v>690</v>
       </c>
       <c r="G90" t="n">
-        <v>148.0716666666665</v>
+        <v>148.0033333333331</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3544,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3570,10 @@
         <v>145.4</v>
       </c>
       <c r="F91" t="n">
-        <v>1320.7198</v>
+        <v>13.5302</v>
       </c>
       <c r="G91" t="n">
-        <v>148.1233333333331</v>
+        <v>148.0716666666665</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3583,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3597,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>145.1</v>
+        <v>145.4</v>
       </c>
       <c r="C92" t="n">
-        <v>145.1</v>
+        <v>145.4</v>
       </c>
       <c r="D92" t="n">
-        <v>145.1</v>
+        <v>145.4</v>
       </c>
       <c r="E92" t="n">
-        <v>145.1</v>
+        <v>145.4</v>
       </c>
       <c r="F92" t="n">
-        <v>1334.25</v>
+        <v>1320.7198</v>
       </c>
       <c r="G92" t="n">
-        <v>148.1683333333332</v>
+        <v>148.1233333333331</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3622,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>145.4</v>
+        <v>145.1</v>
       </c>
       <c r="C93" t="n">
-        <v>147.3</v>
+        <v>145.1</v>
       </c>
       <c r="D93" t="n">
-        <v>147.3</v>
+        <v>145.1</v>
       </c>
       <c r="E93" t="n">
-        <v>145.4</v>
+        <v>145.1</v>
       </c>
       <c r="F93" t="n">
-        <v>3545.555</v>
+        <v>1334.25</v>
       </c>
       <c r="G93" t="n">
-        <v>148.2499999999998</v>
+        <v>148.1683333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3661,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,7 +3675,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>147.3</v>
+        <v>145.4</v>
       </c>
       <c r="C94" t="n">
         <v>147.3</v>
@@ -3662,13 +3684,13 @@
         <v>147.3</v>
       </c>
       <c r="E94" t="n">
-        <v>147.3</v>
+        <v>145.4</v>
       </c>
       <c r="F94" t="n">
-        <v>291.832</v>
+        <v>3545.555</v>
       </c>
       <c r="G94" t="n">
-        <v>148.3316666666665</v>
+        <v>148.2499999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3700,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,36 +3714,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>150</v>
+        <v>147.3</v>
       </c>
       <c r="C95" t="n">
-        <v>150</v>
+        <v>147.3</v>
       </c>
       <c r="D95" t="n">
-        <v>150</v>
+        <v>147.3</v>
       </c>
       <c r="E95" t="n">
-        <v>150</v>
+        <v>147.3</v>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>291.832</v>
       </c>
       <c r="G95" t="n">
-        <v>148.4583333333331</v>
+        <v>148.3316666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3727,38 +3753,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="C96" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="D96" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="E96" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G96" t="n">
-        <v>148.4866666666665</v>
+        <v>148.4583333333331</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>150</v>
-      </c>
-      <c r="K96" t="n">
-        <v>147.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3770,38 +3792,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="C97" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="D97" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="E97" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="F97" t="n">
         <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>148.6033333333332</v>
+        <v>148.4866666666665</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="K97" t="n">
-        <v>147.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3825,24 +3843,24 @@
         <v>150</v>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>148.7033333333332</v>
+        <v>148.6033333333332</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>150</v>
-      </c>
-      <c r="K98" t="n">
-        <v>150</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3864,26 +3882,22 @@
         <v>150</v>
       </c>
       <c r="F99" t="n">
-        <v>4569.5329</v>
+        <v>250</v>
       </c>
       <c r="G99" t="n">
-        <v>148.7699999999998</v>
+        <v>148.7033333333332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>150</v>
-      </c>
-      <c r="K99" t="n">
-        <v>150</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3898,35 +3912,31 @@
         <v>150</v>
       </c>
       <c r="C100" t="n">
-        <v>150.9</v>
+        <v>150</v>
       </c>
       <c r="D100" t="n">
-        <v>150.9</v>
+        <v>150</v>
       </c>
       <c r="E100" t="n">
         <v>150</v>
       </c>
       <c r="F100" t="n">
-        <v>3810</v>
+        <v>4569.5329</v>
       </c>
       <c r="G100" t="n">
-        <v>148.8733333333331</v>
+        <v>148.7699999999998</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>150</v>
-      </c>
-      <c r="K100" t="n">
-        <v>150</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -3941,32 +3951,28 @@
         <v>150</v>
       </c>
       <c r="C101" t="n">
-        <v>150</v>
+        <v>150.9</v>
       </c>
       <c r="D101" t="n">
-        <v>150</v>
+        <v>150.9</v>
       </c>
       <c r="E101" t="n">
         <v>150</v>
       </c>
       <c r="F101" t="n">
-        <v>66.34</v>
+        <v>3810</v>
       </c>
       <c r="G101" t="n">
-        <v>148.9449999999998</v>
+        <v>148.8733333333331</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="K101" t="n">
-        <v>150</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,35 +3987,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="C102" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="D102" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="E102" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>66.34</v>
       </c>
       <c r="G102" t="n">
-        <v>149.0216666666665</v>
+        <v>148.9449999999998</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>150</v>
-      </c>
-      <c r="K102" t="n">
-        <v>150</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,35 +4026,31 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="C103" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="D103" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="E103" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1068</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>149.0899999999998</v>
+        <v>149.0216666666665</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>150</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4067,35 +4065,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C104" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D104" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E104" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F104" t="n">
-        <v>346.234</v>
+        <v>0.1068</v>
       </c>
       <c r="G104" t="n">
-        <v>149.1233333333331</v>
+        <v>149.0899999999998</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>150</v>
-      </c>
-      <c r="K104" t="n">
-        <v>150</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,32 +4107,28 @@
         <v>148</v>
       </c>
       <c r="C105" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D105" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E105" t="n">
         <v>148</v>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>346.234</v>
       </c>
       <c r="G105" t="n">
-        <v>149.1733333333331</v>
+        <v>149.1233333333331</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>148</v>
-      </c>
-      <c r="K105" t="n">
-        <v>150</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,22 +4143,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C106" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D106" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E106" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F106" t="n">
-        <v>96.23399999999999</v>
+        <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>149.1899999999998</v>
+        <v>149.1733333333331</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4177,9 +4167,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>150</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,22 +4182,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="C107" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="D107" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="E107" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="F107" t="n">
-        <v>213.515</v>
+        <v>96.23399999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>149.1916666666665</v>
+        <v>149.1899999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4218,9 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>150</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,22 +4221,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>146</v>
+        <v>146.1</v>
       </c>
       <c r="C108" t="n">
-        <v>146</v>
+        <v>146.1</v>
       </c>
       <c r="D108" t="n">
-        <v>146</v>
+        <v>146.1</v>
       </c>
       <c r="E108" t="n">
-        <v>146</v>
+        <v>146.1</v>
       </c>
       <c r="F108" t="n">
-        <v>96.23399999999999</v>
+        <v>213.515</v>
       </c>
       <c r="G108" t="n">
-        <v>149.2233333333332</v>
+        <v>149.1916666666665</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4259,9 +4245,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>150</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,35 +4260,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>146.2</v>
+        <v>146</v>
       </c>
       <c r="C109" t="n">
-        <v>146.2</v>
+        <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>146.2</v>
+        <v>146</v>
       </c>
       <c r="E109" t="n">
-        <v>146.2</v>
+        <v>146</v>
       </c>
       <c r="F109" t="n">
-        <v>6.9825</v>
+        <v>96.23399999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>149.2266666666665</v>
+        <v>149.2233333333332</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>146</v>
-      </c>
-      <c r="K109" t="n">
-        <v>150</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,35 +4299,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>148.8</v>
+        <v>146.2</v>
       </c>
       <c r="C110" t="n">
-        <v>149.8</v>
+        <v>146.2</v>
       </c>
       <c r="D110" t="n">
-        <v>149.8</v>
+        <v>146.2</v>
       </c>
       <c r="E110" t="n">
-        <v>148.8</v>
+        <v>146.2</v>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>6.9825</v>
       </c>
       <c r="G110" t="n">
-        <v>149.2899999999998</v>
+        <v>149.2266666666665</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>150</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,35 +4338,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>147</v>
+        <v>148.8</v>
       </c>
       <c r="C111" t="n">
-        <v>147</v>
+        <v>149.8</v>
       </c>
       <c r="D111" t="n">
-        <v>147</v>
+        <v>149.8</v>
       </c>
       <c r="E111" t="n">
-        <v>147</v>
+        <v>148.8</v>
       </c>
       <c r="F111" t="n">
-        <v>14.7902</v>
+        <v>250</v>
       </c>
       <c r="G111" t="n">
-        <v>149.3066666666665</v>
+        <v>149.2899999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="K111" t="n">
-        <v>150</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,22 +4377,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>146.6</v>
+        <v>147</v>
       </c>
       <c r="C112" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="D112" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="E112" t="n">
-        <v>146.6</v>
+        <v>147</v>
       </c>
       <c r="F112" t="n">
-        <v>1510</v>
+        <v>14.7902</v>
       </c>
       <c r="G112" t="n">
-        <v>149.3416666666665</v>
+        <v>149.3066666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4429,9 +4401,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>150</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,22 +4416,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>146.1</v>
+        <v>146.6</v>
       </c>
       <c r="C113" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D113" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E113" t="n">
-        <v>146.1</v>
+        <v>146.6</v>
       </c>
       <c r="F113" t="n">
-        <v>3831.83</v>
+        <v>1510</v>
       </c>
       <c r="G113" t="n">
-        <v>149.3916666666665</v>
+        <v>149.3416666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,9 +4440,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>150</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,6 +4450,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>149</v>
+      </c>
+      <c r="D114" t="n">
+        <v>149</v>
+      </c>
+      <c r="E114" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3831.83</v>
+      </c>
+      <c r="G114" t="n">
+        <v>149.3916666666665</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9362.433999999999</v>
       </c>
       <c r="G2" t="n">
+        <v>139.74</v>
+      </c>
+      <c r="H2" t="n">
         <v>140.4483333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>250</v>
       </c>
       <c r="G3" t="n">
+        <v>139.7666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>140.4716666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>620.9281999999999</v>
       </c>
       <c r="G4" t="n">
+        <v>140.0333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>140.4916666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>10122.7757</v>
       </c>
       <c r="G5" t="n">
+        <v>139.7933333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>140.5333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,29 @@
         <v>1750</v>
       </c>
       <c r="G6" t="n">
+        <v>139.8066666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>140.5233333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>215</v>
       </c>
       <c r="G7" t="n">
+        <v>140.1133333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>140.5366666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>261.1482</v>
       </c>
       <c r="G8" t="n">
+        <v>139.6066666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>140.49</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,29 @@
         <v>6037.2534</v>
       </c>
       <c r="G9" t="n">
+        <v>139.7266666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>140.505</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +803,29 @@
         <v>6586.384</v>
       </c>
       <c r="G10" t="n">
+        <v>139.6733333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>140.52</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +849,29 @@
         <v>4459</v>
       </c>
       <c r="G11" t="n">
+        <v>140.1533333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>140.5783333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +895,29 @@
         <v>387.9651</v>
       </c>
       <c r="G12" t="n">
+        <v>139.8933333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>140.5666666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +941,29 @@
         <v>1138</v>
       </c>
       <c r="G13" t="n">
+        <v>140.2533333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>140.6066666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +987,29 @@
         <v>568.0684</v>
       </c>
       <c r="G14" t="n">
+        <v>140.1200000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>140.5566666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1033,29 @@
         <v>287.4627</v>
       </c>
       <c r="G15" t="n">
+        <v>140.0533333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>140.5233333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>137</v>
+      </c>
+      <c r="L15" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1079,27 @@
         <v>2161.01</v>
       </c>
       <c r="G16" t="n">
+        <v>140.0666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>140.5233333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1123,29 @@
         <v>1592.73</v>
       </c>
       <c r="G17" t="n">
+        <v>139.8400000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>140.5233333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L17" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1169,27 @@
         <v>2326.57</v>
       </c>
       <c r="G18" t="n">
+        <v>139.62</v>
+      </c>
+      <c r="H18" t="n">
         <v>140.4916666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1213,27 @@
         <v>2250</v>
       </c>
       <c r="G19" t="n">
+        <v>139.54</v>
+      </c>
+      <c r="H19" t="n">
         <v>140.4283333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1257,27 @@
         <v>663.3952</v>
       </c>
       <c r="G20" t="n">
+        <v>139.2533333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>140.3566666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1301,27 @@
         <v>19719.7641</v>
       </c>
       <c r="G21" t="n">
+        <v>139.1666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>140.2616666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1345,27 @@
         <v>791.7917</v>
       </c>
       <c r="G22" t="n">
+        <v>139.0933333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>140.1549999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1389,27 @@
         <v>646.0684</v>
       </c>
       <c r="G23" t="n">
+        <v>139.2200000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>140.0883333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1433,27 @@
         <v>189.3627</v>
       </c>
       <c r="G24" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="H24" t="n">
         <v>140.045</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1477,27 @@
         <v>856.6769</v>
       </c>
       <c r="G25" t="n">
+        <v>139.26</v>
+      </c>
+      <c r="H25" t="n">
         <v>140.0299999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1521,27 @@
         <v>1250</v>
       </c>
       <c r="G26" t="n">
+        <v>139.1733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>139.9949999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1565,27 @@
         <v>928.9556</v>
       </c>
       <c r="G27" t="n">
+        <v>139.2266666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>140.0599999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1609,27 @@
         <v>2696.6505</v>
       </c>
       <c r="G28" t="n">
+        <v>139.1533333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>140.0283333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1653,29 @@
         <v>8</v>
       </c>
       <c r="G29" t="n">
+        <v>139.44</v>
+      </c>
+      <c r="H29" t="n">
         <v>139.9666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1699,29 @@
         <v>1816.0803</v>
       </c>
       <c r="G30" t="n">
+        <v>139.5133333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>139.9849999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1745,27 @@
         <v>500</v>
       </c>
       <c r="G31" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>140.0399999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1789,29 @@
         <v>8428.125</v>
       </c>
       <c r="G32" t="n">
+        <v>139.7533333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>140.1116666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1835,27 @@
         <v>13771.5814</v>
       </c>
       <c r="G33" t="n">
+        <v>140.04</v>
+      </c>
+      <c r="H33" t="n">
         <v>140.1349999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1879,27 @@
         <v>5000</v>
       </c>
       <c r="G34" t="n">
+        <v>140.2066666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>140.1433333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1923,27 @@
         <v>11051.2282</v>
       </c>
       <c r="G35" t="n">
+        <v>140.4933333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>140.1983333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1967,27 @@
         <v>800.4399</v>
       </c>
       <c r="G36" t="n">
+        <v>140.7866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>140.2399999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2011,27 @@
         <v>16705.8373</v>
       </c>
       <c r="G37" t="n">
+        <v>141.4400000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>140.3499999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2055,27 @@
         <v>6571.1729</v>
       </c>
       <c r="G38" t="n">
+        <v>141.7733333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>140.3999999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2099,27 @@
         <v>549.3252</v>
       </c>
       <c r="G39" t="n">
+        <v>142.1733333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>140.4383333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2143,27 @@
         <v>500</v>
       </c>
       <c r="G40" t="n">
+        <v>142.4266666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>140.5883333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2187,27 @@
         <v>2745.452</v>
       </c>
       <c r="G41" t="n">
+        <v>142.6666666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>140.6349999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2231,27 @@
         <v>1412.3558</v>
       </c>
       <c r="G42" t="n">
+        <v>143.1133333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>140.6983333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2275,27 @@
         <v>500</v>
       </c>
       <c r="G43" t="n">
+        <v>143.4200000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>140.7466666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2319,27 @@
         <v>1306.6161</v>
       </c>
       <c r="G44" t="n">
+        <v>143.7266666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>140.8766666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2363,27 @@
         <v>573</v>
       </c>
       <c r="G45" t="n">
+        <v>144.1866666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>140.9633333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2407,27 @@
         <v>13474.8231</v>
       </c>
       <c r="G46" t="n">
+        <v>144.5000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>140.9866666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2451,27 @@
         <v>672.0431</v>
       </c>
       <c r="G47" t="n">
+        <v>144.7466666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>141.0199999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2495,27 @@
         <v>475.537</v>
       </c>
       <c r="G48" t="n">
+        <v>144.9866666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>141.1033333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2539,27 @@
         <v>1497.0356</v>
       </c>
       <c r="G49" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="H49" t="n">
         <v>141.2199999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2583,29 @@
         <v>68.7533</v>
       </c>
       <c r="G50" t="n">
+        <v>145.34</v>
+      </c>
+      <c r="H50" t="n">
         <v>141.2199999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2629,27 @@
         <v>181.212</v>
       </c>
       <c r="G51" t="n">
+        <v>145.58</v>
+      </c>
+      <c r="H51" t="n">
         <v>141.3349999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2673,27 @@
         <v>398.502</v>
       </c>
       <c r="G52" t="n">
+        <v>145.42</v>
+      </c>
+      <c r="H52" t="n">
         <v>141.5166666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2717,27 @@
         <v>210</v>
       </c>
       <c r="G53" t="n">
+        <v>145.62</v>
+      </c>
+      <c r="H53" t="n">
         <v>141.5549999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2761,27 @@
         <v>12300.165</v>
       </c>
       <c r="G54" t="n">
+        <v>145.7533333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>141.6883333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2805,27 @@
         <v>11137.208</v>
       </c>
       <c r="G55" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="H55" t="n">
         <v>141.7649999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2849,27 @@
         <v>528.1299</v>
       </c>
       <c r="G56" t="n">
+        <v>145.7866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>141.9449999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2893,27 @@
         <v>5281.5369</v>
       </c>
       <c r="G57" t="n">
+        <v>145.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>142.0249999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2937,27 @@
         <v>664.127</v>
       </c>
       <c r="G58" t="n">
+        <v>145.9333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>142.1899999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2981,27 @@
         <v>1087.5068</v>
       </c>
       <c r="G59" t="n">
+        <v>146</v>
+      </c>
+      <c r="H59" t="n">
         <v>142.3216666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3025,27 @@
         <v>19162.6568</v>
       </c>
       <c r="G60" t="n">
+        <v>146.3533333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>142.5266666666665</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3069,27 @@
         <v>498.9789</v>
       </c>
       <c r="G61" t="n">
+        <v>146.7066666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>142.7183333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3113,27 @@
         <v>2129</v>
       </c>
       <c r="G62" t="n">
+        <v>147.0933333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>142.8583333333331</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3157,27 @@
         <v>72.63549999999999</v>
       </c>
       <c r="G63" t="n">
+        <v>147.4800000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>143.0316666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3201,27 @@
         <v>6859.8678</v>
       </c>
       <c r="G64" t="n">
+        <v>147.9933333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>143.2099999999998</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3245,27 @@
         <v>2501.5612</v>
       </c>
       <c r="G65" t="n">
+        <v>148.5933333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>143.4199999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3289,27 @@
         <v>250</v>
       </c>
       <c r="G66" t="n">
+        <v>149.1933333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>143.6816666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3333,27 @@
         <v>2743.0748</v>
       </c>
       <c r="G67" t="n">
+        <v>149.7933333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>143.9366666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3377,27 @@
         <v>65</v>
       </c>
       <c r="G68" t="n">
+        <v>150.3866666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>144.2499999999998</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3421,27 @@
         <v>631.7403</v>
       </c>
       <c r="G69" t="n">
+        <v>150.9800000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>144.5016666666665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,19 +3465,28 @@
         <v>250</v>
       </c>
       <c r="G70" t="n">
+        <v>151.7666666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>144.7883333333331</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
+      <c r="L70" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1.089839609483961</v>
       </c>
     </row>
     <row r="71">
@@ -2863,18 +3509,21 @@
         <v>1416.6719</v>
       </c>
       <c r="G71" t="n">
+        <v>152.4933333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>145.0299999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3547,21 @@
         <v>80</v>
       </c>
       <c r="G72" t="n">
+        <v>152.9733333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>145.2949999999998</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3585,21 @@
         <v>212.502</v>
       </c>
       <c r="G73" t="n">
+        <v>153.3333333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>145.4599999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3623,21 @@
         <v>3987.5915</v>
       </c>
       <c r="G74" t="n">
+        <v>153.6466666666668</v>
+      </c>
+      <c r="H74" t="n">
         <v>145.7033333333331</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3661,21 @@
         <v>1020</v>
       </c>
       <c r="G75" t="n">
+        <v>153.6266666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>145.9199999999998</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3699,21 @@
         <v>509.1069</v>
       </c>
       <c r="G76" t="n">
+        <v>153.4733333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>146.0699999999998</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3737,21 @@
         <v>2905.811</v>
       </c>
       <c r="G77" t="n">
+        <v>153.1733333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>146.1916666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3775,21 @@
         <v>3626.4642</v>
       </c>
       <c r="G78" t="n">
+        <v>153.3200000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>146.4566666666665</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3813,21 @@
         <v>750</v>
       </c>
       <c r="G79" t="n">
+        <v>153.3333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>146.6583333333331</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3851,21 @@
         <v>256</v>
       </c>
       <c r="G80" t="n">
+        <v>153.1266666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>146.8883333333331</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3889,21 @@
         <v>237.9924</v>
       </c>
       <c r="G81" t="n">
+        <v>152.9000000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>147.1149999999998</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3927,21 @@
         <v>500</v>
       </c>
       <c r="G82" t="n">
+        <v>152.5666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>147.3049999999998</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3965,21 @@
         <v>1140.07</v>
       </c>
       <c r="G83" t="n">
+        <v>152.0866666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>147.4666666666664</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4003,21 @@
         <v>850</v>
       </c>
       <c r="G84" t="n">
+        <v>151.54</v>
+      </c>
+      <c r="H84" t="n">
         <v>147.6116666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4041,21 @@
         <v>55.8635</v>
       </c>
       <c r="G85" t="n">
+        <v>150.6733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>147.6416666666665</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4079,21 @@
         <v>40.2217</v>
       </c>
       <c r="G86" t="n">
+        <v>149.74</v>
+      </c>
+      <c r="H86" t="n">
         <v>147.6716666666665</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4117,21 @@
         <v>1043.9848</v>
       </c>
       <c r="G87" t="n">
+        <v>149.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>147.7549999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4155,21 @@
         <v>7156.51</v>
       </c>
       <c r="G88" t="n">
+        <v>148.6466666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>147.8333333333331</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,24 +4193,21 @@
         <v>568.283</v>
       </c>
       <c r="G89" t="n">
+        <v>148.1466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>147.8799999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,22 +4231,21 @@
         <v>690</v>
       </c>
       <c r="G90" t="n">
+        <v>147.8466666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>148.0033333333331</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,22 +4269,21 @@
         <v>13.5302</v>
       </c>
       <c r="G91" t="n">
+        <v>147.6066666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>148.0716666666665</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,22 +4307,21 @@
         <v>1320.7198</v>
       </c>
       <c r="G92" t="n">
+        <v>147.48</v>
+      </c>
+      <c r="H92" t="n">
         <v>148.1233333333331</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,22 +4345,21 @@
         <v>1334.25</v>
       </c>
       <c r="G93" t="n">
+        <v>146.8866666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>148.1683333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,22 +4383,21 @@
         <v>3545.555</v>
       </c>
       <c r="G94" t="n">
+        <v>146.5733333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>148.2499999999998</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3729,22 +4421,21 @@
         <v>291.832</v>
       </c>
       <c r="G95" t="n">
+        <v>146.2666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>148.3316666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,22 +4459,21 @@
         <v>500</v>
       </c>
       <c r="G96" t="n">
+        <v>146.16</v>
+      </c>
+      <c r="H96" t="n">
         <v>148.4583333333331</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,22 +4497,21 @@
         <v>1000</v>
       </c>
       <c r="G97" t="n">
+        <v>146.1666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>148.4866666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,22 +4535,21 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
+        <v>146.3200000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>148.6033333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,22 +4573,21 @@
         <v>250</v>
       </c>
       <c r="G99" t="n">
+        <v>146.54</v>
+      </c>
+      <c r="H99" t="n">
         <v>148.7033333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,22 +4611,21 @@
         <v>4569.5329</v>
       </c>
       <c r="G100" t="n">
+        <v>146.9400000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>148.7699999999998</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,22 +4649,21 @@
         <v>3810</v>
       </c>
       <c r="G101" t="n">
+        <v>147.4733333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>148.8733333333331</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,22 +4687,21 @@
         <v>66.34</v>
       </c>
       <c r="G102" t="n">
+        <v>147.8733333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>148.9449999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4041,22 +4725,21 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
+        <v>148.1733333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>149.0216666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,22 +4763,21 @@
         <v>0.1068</v>
       </c>
       <c r="G104" t="n">
+        <v>148.5666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>149.0899999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,22 +4801,21 @@
         <v>346.234</v>
       </c>
       <c r="G105" t="n">
+        <v>148.6666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>149.1233333333331</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,22 +4839,21 @@
         <v>500</v>
       </c>
       <c r="G106" t="n">
+        <v>148.9066666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>149.1733333333331</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4197,22 +4877,21 @@
         <v>96.23399999999999</v>
       </c>
       <c r="G107" t="n">
+        <v>149.0133333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>149.1899999999998</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,22 +4915,21 @@
         <v>213.515</v>
       </c>
       <c r="G108" t="n">
+        <v>149.08</v>
+      </c>
+      <c r="H108" t="n">
         <v>149.1916666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,22 +4953,21 @@
         <v>96.23399999999999</v>
       </c>
       <c r="G109" t="n">
+        <v>148.9933333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>149.2233333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,22 +4991,21 @@
         <v>6.9825</v>
       </c>
       <c r="G110" t="n">
+        <v>148.92</v>
+      </c>
+      <c r="H110" t="n">
         <v>149.2266666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,22 +5029,21 @@
         <v>250</v>
       </c>
       <c r="G111" t="n">
+        <v>148.9066666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>149.2899999999998</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,22 +5067,21 @@
         <v>14.7902</v>
       </c>
       <c r="G112" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="H112" t="n">
         <v>149.3066666666665</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,22 +5105,21 @@
         <v>1510</v>
       </c>
       <c r="G113" t="n">
+        <v>148.5733333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>149.3416666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,22 +5143,401 @@
         <v>3831.83</v>
       </c>
       <c r="G114" t="n">
+        <v>148.5066666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>149.3916666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>148</v>
+      </c>
+      <c r="D115" t="n">
+        <v>149</v>
+      </c>
+      <c r="E115" t="n">
+        <v>146</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5669.7648</v>
+      </c>
+      <c r="G115" t="n">
+        <v>148.3733333333334</v>
+      </c>
+      <c r="H115" t="n">
+        <v>149.4383333333331</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>147</v>
+      </c>
+      <c r="C116" t="n">
+        <v>147</v>
+      </c>
+      <c r="D116" t="n">
+        <v>147</v>
+      </c>
+      <c r="E116" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2010.5488</v>
+      </c>
+      <c r="G116" t="n">
+        <v>148.1133333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>149.4549999999998</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1916.6719</v>
+      </c>
+      <c r="G117" t="n">
+        <v>148</v>
+      </c>
+      <c r="H117" t="n">
+        <v>149.4783333333331</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>148</v>
+      </c>
+      <c r="C118" t="n">
+        <v>147</v>
+      </c>
+      <c r="D118" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3339.9963</v>
+      </c>
+      <c r="G118" t="n">
+        <v>147.7666666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>149.4799999999998</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>147</v>
+      </c>
+      <c r="C119" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1740.4784</v>
+      </c>
+      <c r="G119" t="n">
+        <v>147.6133333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>149.4933333333332</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>378.212</v>
+      </c>
+      <c r="G120" t="n">
+        <v>147.5933333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>149.4333333333332</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="G121" t="n">
+        <v>147.5066666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>149.3733333333332</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>149</v>
+      </c>
+      <c r="C122" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>149</v>
+      </c>
+      <c r="F122" t="n">
+        <v>421.12</v>
+      </c>
+      <c r="G122" t="n">
+        <v>147.6466666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>149.3283333333332</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3831.338</v>
+      </c>
+      <c r="G123" t="n">
+        <v>147.78</v>
+      </c>
+      <c r="H123" t="n">
+        <v>149.2666666666666</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>909.181</v>
+      </c>
+      <c r="G124" t="n">
+        <v>147.92</v>
+      </c>
+      <c r="H124" t="n">
+        <v>149.2049999999999</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>139.8</v>
+        <v>136.2</v>
       </c>
       <c r="C2" t="n">
-        <v>143.4</v>
+        <v>141</v>
       </c>
       <c r="D2" t="n">
-        <v>143.4</v>
+        <v>151.3</v>
       </c>
       <c r="E2" t="n">
-        <v>139.8</v>
+        <v>136.2</v>
       </c>
       <c r="F2" t="n">
-        <v>9362.433999999999</v>
+        <v>14904.7974</v>
       </c>
       <c r="G2" t="n">
-        <v>139.74</v>
+        <v>54871.35639999999</v>
       </c>
       <c r="H2" t="n">
-        <v>140.4483333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141.4</v>
+        <v>141.9</v>
       </c>
       <c r="C3" t="n">
-        <v>141.4</v>
+        <v>141.9</v>
       </c>
       <c r="D3" t="n">
-        <v>141.4</v>
+        <v>141.9</v>
       </c>
       <c r="E3" t="n">
-        <v>141.4</v>
+        <v>141.9</v>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="G3" t="n">
-        <v>139.7666666666667</v>
+        <v>55471.35639999999</v>
       </c>
       <c r="H3" t="n">
-        <v>140.4716666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>141.1</v>
+        <v>143.2</v>
       </c>
       <c r="C4" t="n">
-        <v>141.1</v>
+        <v>139.1</v>
       </c>
       <c r="D4" t="n">
-        <v>141.1</v>
+        <v>143.2</v>
       </c>
       <c r="E4" t="n">
-        <v>141.1</v>
+        <v>138.1</v>
       </c>
       <c r="F4" t="n">
-        <v>620.9281999999999</v>
+        <v>703.309</v>
       </c>
       <c r="G4" t="n">
-        <v>140.0333333333333</v>
+        <v>54768.04739999999</v>
       </c>
       <c r="H4" t="n">
-        <v>140.4916666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="C5" t="n">
-        <v>142.4</v>
+        <v>139.9</v>
       </c>
       <c r="D5" t="n">
-        <v>142.4</v>
+        <v>139.9</v>
       </c>
       <c r="E5" t="n">
-        <v>135.6</v>
+        <v>139.9</v>
       </c>
       <c r="F5" t="n">
-        <v>10122.7757</v>
+        <v>314.049</v>
       </c>
       <c r="G5" t="n">
-        <v>139.7933333333334</v>
+        <v>55082.09639999999</v>
       </c>
       <c r="H5" t="n">
-        <v>140.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139.3</v>
+        <v>139.9</v>
       </c>
       <c r="C6" t="n">
-        <v>139.3</v>
+        <v>141.8</v>
       </c>
       <c r="D6" t="n">
-        <v>139.3</v>
+        <v>141.8</v>
       </c>
       <c r="E6" t="n">
-        <v>139.3</v>
+        <v>139.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1750</v>
+        <v>7109.338</v>
       </c>
       <c r="G6" t="n">
-        <v>139.8066666666667</v>
+        <v>62191.43439999998</v>
       </c>
       <c r="H6" t="n">
-        <v>140.5233333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139.7</v>
+        <v>135.2</v>
       </c>
       <c r="C7" t="n">
-        <v>139.7</v>
+        <v>140</v>
       </c>
       <c r="D7" t="n">
-        <v>139.7</v>
+        <v>141</v>
       </c>
       <c r="E7" t="n">
-        <v>139.7</v>
+        <v>134.2</v>
       </c>
       <c r="F7" t="n">
-        <v>215</v>
+        <v>8959.034900000001</v>
       </c>
       <c r="G7" t="n">
-        <v>140.1133333333333</v>
+        <v>53232.39949999998</v>
       </c>
       <c r="H7" t="n">
-        <v>140.5366666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>136.1</v>
+        <v>138</v>
       </c>
       <c r="C8" t="n">
-        <v>136.1</v>
+        <v>141.7</v>
       </c>
       <c r="D8" t="n">
-        <v>136.1</v>
+        <v>141.7</v>
       </c>
       <c r="E8" t="n">
-        <v>136.1</v>
+        <v>137</v>
       </c>
       <c r="F8" t="n">
-        <v>261.1482</v>
+        <v>14074.7718</v>
       </c>
       <c r="G8" t="n">
-        <v>139.6066666666667</v>
+        <v>67307.17129999999</v>
       </c>
       <c r="H8" t="n">
-        <v>140.49</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135.6</v>
+        <v>137</v>
       </c>
       <c r="C9" t="n">
-        <v>139.8</v>
+        <v>137</v>
       </c>
       <c r="D9" t="n">
-        <v>139.8</v>
+        <v>137</v>
       </c>
       <c r="E9" t="n">
-        <v>135.6</v>
+        <v>137</v>
       </c>
       <c r="F9" t="n">
-        <v>6037.2534</v>
+        <v>42.4803</v>
       </c>
       <c r="G9" t="n">
-        <v>139.7266666666667</v>
+        <v>67264.69099999999</v>
       </c>
       <c r="H9" t="n">
-        <v>140.505</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>136.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -788,44 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135.5</v>
+        <v>141.9</v>
       </c>
       <c r="C10" t="n">
-        <v>139.8</v>
+        <v>141.9</v>
       </c>
       <c r="D10" t="n">
-        <v>140.8</v>
+        <v>141.9</v>
       </c>
       <c r="E10" t="n">
-        <v>135.5</v>
+        <v>141.9</v>
       </c>
       <c r="F10" t="n">
-        <v>6586.384</v>
+        <v>381.6539</v>
       </c>
       <c r="G10" t="n">
-        <v>139.6733333333334</v>
+        <v>67646.3449</v>
       </c>
       <c r="H10" t="n">
-        <v>140.52</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,44 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139.8</v>
+        <v>141.9</v>
       </c>
       <c r="C11" t="n">
-        <v>142.4</v>
+        <v>141.9</v>
       </c>
       <c r="D11" t="n">
-        <v>142.4</v>
+        <v>141.9</v>
       </c>
       <c r="E11" t="n">
-        <v>139.8</v>
+        <v>141.9</v>
       </c>
       <c r="F11" t="n">
-        <v>4459</v>
+        <v>11.1391</v>
       </c>
       <c r="G11" t="n">
-        <v>140.1533333333334</v>
+        <v>67646.3449</v>
       </c>
       <c r="H11" t="n">
-        <v>140.5783333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -880,44 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138.2</v>
+        <v>136.1</v>
       </c>
       <c r="C12" t="n">
-        <v>138.2</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>138.2</v>
+        <v>143</v>
       </c>
       <c r="E12" t="n">
-        <v>138.2</v>
+        <v>136.1</v>
       </c>
       <c r="F12" t="n">
-        <v>387.9651</v>
+        <v>2866.4781</v>
       </c>
       <c r="G12" t="n">
-        <v>139.8933333333334</v>
+        <v>70512.82299999999</v>
       </c>
       <c r="H12" t="n">
-        <v>140.5666666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -926,44 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141.4</v>
+        <v>138.1</v>
       </c>
       <c r="C13" t="n">
-        <v>142.4</v>
+        <v>138.1</v>
       </c>
       <c r="D13" t="n">
-        <v>142.4</v>
+        <v>138.1</v>
       </c>
       <c r="E13" t="n">
-        <v>141.4</v>
+        <v>138.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1138</v>
+        <v>333.1391</v>
       </c>
       <c r="G13" t="n">
-        <v>140.2533333333334</v>
+        <v>70179.68389999999</v>
       </c>
       <c r="H13" t="n">
-        <v>140.6066666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -972,44 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137</v>
+        <v>140.8</v>
       </c>
       <c r="C14" t="n">
-        <v>137</v>
+        <v>140.8</v>
       </c>
       <c r="D14" t="n">
-        <v>137</v>
+        <v>140.8</v>
       </c>
       <c r="E14" t="n">
-        <v>137</v>
+        <v>140.8</v>
       </c>
       <c r="F14" t="n">
-        <v>568.0684</v>
+        <v>325.7569</v>
       </c>
       <c r="G14" t="n">
-        <v>140.1200000000001</v>
+        <v>70505.44079999998</v>
       </c>
       <c r="H14" t="n">
-        <v>140.5566666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1018,44 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
-        <v>138</v>
+        <v>144.6</v>
       </c>
       <c r="D15" t="n">
-        <v>138</v>
+        <v>144.6</v>
       </c>
       <c r="E15" t="n">
-        <v>138</v>
+        <v>132.7</v>
       </c>
       <c r="F15" t="n">
-        <v>287.4627</v>
+        <v>21491.0812</v>
       </c>
       <c r="G15" t="n">
-        <v>140.0533333333334</v>
+        <v>91996.52199999998</v>
       </c>
       <c r="H15" t="n">
-        <v>140.5233333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>137</v>
-      </c>
-      <c r="L15" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1064,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140.1</v>
+        <v>136.1</v>
       </c>
       <c r="C16" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D16" t="n">
-        <v>140.2</v>
+        <v>144.1</v>
       </c>
       <c r="E16" t="n">
-        <v>140</v>
+        <v>132.4</v>
       </c>
       <c r="F16" t="n">
-        <v>2161.01</v>
+        <v>38000.9492</v>
       </c>
       <c r="G16" t="n">
-        <v>140.0666666666667</v>
+        <v>53995.57279999998</v>
       </c>
       <c r="H16" t="n">
-        <v>140.5233333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1108,44 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F17" t="n">
-        <v>1592.73</v>
+        <v>843.58</v>
       </c>
       <c r="G17" t="n">
-        <v>139.8400000000001</v>
+        <v>53151.99279999998</v>
       </c>
       <c r="H17" t="n">
-        <v>140.5233333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L17" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>139.1</v>
+        <v>137.1</v>
       </c>
       <c r="C18" t="n">
-        <v>138.1</v>
+        <v>137.1</v>
       </c>
       <c r="D18" t="n">
-        <v>139.1</v>
+        <v>137.1</v>
       </c>
       <c r="E18" t="n">
-        <v>138.1</v>
+        <v>137.1</v>
       </c>
       <c r="F18" t="n">
-        <v>2326.57</v>
+        <v>121.776</v>
       </c>
       <c r="G18" t="n">
-        <v>139.62</v>
+        <v>53030.21679999998</v>
       </c>
       <c r="H18" t="n">
-        <v>140.4916666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>138.9</v>
+        <v>136.7</v>
       </c>
       <c r="C19" t="n">
-        <v>139.9</v>
+        <v>146</v>
       </c>
       <c r="D19" t="n">
-        <v>139.9</v>
+        <v>146</v>
       </c>
       <c r="E19" t="n">
-        <v>138.8</v>
+        <v>136.7</v>
       </c>
       <c r="F19" t="n">
-        <v>2250</v>
+        <v>36325.554</v>
       </c>
       <c r="G19" t="n">
-        <v>139.54</v>
+        <v>89355.77079999997</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4283333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1242,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>138.1</v>
+        <v>139.1</v>
       </c>
       <c r="C20" t="n">
-        <v>138.1</v>
+        <v>139.1</v>
       </c>
       <c r="D20" t="n">
-        <v>138.1</v>
+        <v>139.1</v>
       </c>
       <c r="E20" t="n">
-        <v>138.1</v>
+        <v>139.1</v>
       </c>
       <c r="F20" t="n">
-        <v>663.3952</v>
+        <v>459.584</v>
       </c>
       <c r="G20" t="n">
-        <v>139.2533333333334</v>
+        <v>88896.18679999997</v>
       </c>
       <c r="H20" t="n">
-        <v>140.3566666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>138.1</v>
+        <v>135.1</v>
       </c>
       <c r="C21" t="n">
-        <v>138</v>
+        <v>135.1</v>
       </c>
       <c r="D21" t="n">
-        <v>138.1</v>
+        <v>135.1</v>
       </c>
       <c r="E21" t="n">
-        <v>138</v>
+        <v>135.1</v>
       </c>
       <c r="F21" t="n">
-        <v>19719.7641</v>
+        <v>90.4109</v>
       </c>
       <c r="G21" t="n">
-        <v>139.1666666666667</v>
+        <v>88805.77589999996</v>
       </c>
       <c r="H21" t="n">
-        <v>140.2616666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>138</v>
+        <v>137.1</v>
       </c>
       <c r="C22" t="n">
-        <v>138.6</v>
+        <v>143.7</v>
       </c>
       <c r="D22" t="n">
-        <v>138.6</v>
+        <v>143.7</v>
       </c>
       <c r="E22" t="n">
-        <v>138</v>
+        <v>136.1</v>
       </c>
       <c r="F22" t="n">
-        <v>791.7917</v>
+        <v>6152.4859</v>
       </c>
       <c r="G22" t="n">
-        <v>139.0933333333334</v>
+        <v>94958.26179999996</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1549999999999</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,30 +1180,21 @@
         <v>138</v>
       </c>
       <c r="F23" t="n">
-        <v>646.0684</v>
+        <v>554.0168</v>
       </c>
       <c r="G23" t="n">
-        <v>139.2200000000001</v>
+        <v>94404.24499999997</v>
       </c>
       <c r="H23" t="n">
-        <v>140.0883333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>138</v>
+        <v>134.1</v>
       </c>
       <c r="C24" t="n">
-        <v>138</v>
+        <v>140.6</v>
       </c>
       <c r="D24" t="n">
-        <v>138</v>
+        <v>140.6</v>
       </c>
       <c r="E24" t="n">
-        <v>138</v>
+        <v>134.1</v>
       </c>
       <c r="F24" t="n">
-        <v>189.3627</v>
+        <v>22550.4375</v>
       </c>
       <c r="G24" t="n">
-        <v>139.1</v>
+        <v>116954.6825</v>
       </c>
       <c r="H24" t="n">
-        <v>140.045</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,42 +1238,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>139.9</v>
+        <v>135.2</v>
       </c>
       <c r="C25" t="n">
-        <v>142.2</v>
+        <v>135.2</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2</v>
+        <v>135.2</v>
       </c>
       <c r="E25" t="n">
-        <v>139.9</v>
+        <v>135.2</v>
       </c>
       <c r="F25" t="n">
-        <v>856.6769</v>
+        <v>716.925</v>
       </c>
       <c r="G25" t="n">
-        <v>139.26</v>
+        <v>116237.7575</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0299999999999</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,42 +1277,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>141.1</v>
+        <v>135.2</v>
       </c>
       <c r="C26" t="n">
-        <v>141.1</v>
+        <v>142.1</v>
       </c>
       <c r="D26" t="n">
-        <v>141.1</v>
+        <v>142.1</v>
       </c>
       <c r="E26" t="n">
-        <v>141.1</v>
+        <v>133.3</v>
       </c>
       <c r="F26" t="n">
-        <v>1250</v>
+        <v>23177.7824</v>
       </c>
       <c r="G26" t="n">
-        <v>139.1733333333333</v>
+        <v>139415.5399</v>
       </c>
       <c r="H26" t="n">
-        <v>139.9949999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1550,42 +1318,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F27" t="n">
-        <v>928.9556</v>
+        <v>629</v>
       </c>
       <c r="G27" t="n">
-        <v>139.2266666666667</v>
+        <v>138786.5399</v>
       </c>
       <c r="H27" t="n">
-        <v>140.0599999999999</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,42 +1361,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="D28" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="E28" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" t="n">
-        <v>2696.6505</v>
+        <v>538.242</v>
       </c>
       <c r="G28" t="n">
-        <v>139.1533333333333</v>
+        <v>139324.7819</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0283333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,44 +1402,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>141.3</v>
+        <v>136.2</v>
       </c>
       <c r="C29" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="D29" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="E29" t="n">
-        <v>141.3</v>
+        <v>135.6</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>6155.4234</v>
       </c>
       <c r="G29" t="n">
-        <v>139.44</v>
+        <v>139324.7819</v>
       </c>
       <c r="H29" t="n">
-        <v>139.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1684,44 +1443,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>141.3</v>
+        <v>138.8</v>
       </c>
       <c r="C30" t="n">
-        <v>139.1</v>
+        <v>139.8</v>
       </c>
       <c r="D30" t="n">
-        <v>142.3</v>
+        <v>139.8</v>
       </c>
       <c r="E30" t="n">
-        <v>139.1</v>
+        <v>138.8</v>
       </c>
       <c r="F30" t="n">
-        <v>1816.0803</v>
+        <v>2083.212</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5133333333333</v>
+        <v>141407.9939</v>
       </c>
       <c r="H30" t="n">
-        <v>139.9849999999999</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="K30" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,42 +1486,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>141.3</v>
+        <v>139.8</v>
       </c>
       <c r="C31" t="n">
-        <v>141.3</v>
+        <v>143.4</v>
       </c>
       <c r="D31" t="n">
-        <v>141.3</v>
+        <v>143.4</v>
       </c>
       <c r="E31" t="n">
-        <v>141.3</v>
+        <v>139.8</v>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>9362.433999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>139.6</v>
+        <v>150770.4279</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0399999999999</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,44 +1529,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>141.3</v>
+        <v>141.4</v>
       </c>
       <c r="C32" t="n">
-        <v>142.3</v>
+        <v>141.4</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3</v>
+        <v>141.4</v>
       </c>
       <c r="E32" t="n">
-        <v>141.3</v>
+        <v>141.4</v>
       </c>
       <c r="F32" t="n">
-        <v>8428.125</v>
+        <v>250</v>
       </c>
       <c r="G32" t="n">
-        <v>139.7533333333334</v>
+        <v>150520.4279</v>
       </c>
       <c r="H32" t="n">
-        <v>140.1116666666666</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>143.4</v>
       </c>
       <c r="K32" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,42 +1572,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>142.3</v>
+        <v>141.1</v>
       </c>
       <c r="C33" t="n">
-        <v>142.4</v>
+        <v>141.1</v>
       </c>
       <c r="D33" t="n">
-        <v>142.4</v>
+        <v>141.1</v>
       </c>
       <c r="E33" t="n">
-        <v>142.3</v>
+        <v>141.1</v>
       </c>
       <c r="F33" t="n">
-        <v>13771.5814</v>
+        <v>620.9281999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>140.04</v>
+        <v>149899.4997</v>
       </c>
       <c r="H33" t="n">
-        <v>140.1349999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="C34" t="n">
         <v>142.4</v>
@@ -1873,33 +1622,30 @@
         <v>142.4</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4</v>
+        <v>135.6</v>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>10122.7757</v>
       </c>
       <c r="G34" t="n">
-        <v>140.2066666666667</v>
+        <v>160022.2754</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1433333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,42 +1654,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G35" t="n">
+        <v>158272.2754</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>142.4</v>
       </c>
-      <c r="C35" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>11051.2282</v>
-      </c>
-      <c r="G35" t="n">
-        <v>140.4933333333334</v>
-      </c>
-      <c r="H35" t="n">
-        <v>140.1983333333332</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="K35" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,42 +1697,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>142.4</v>
+        <v>139.7</v>
       </c>
       <c r="C36" t="n">
-        <v>142.4</v>
+        <v>139.7</v>
       </c>
       <c r="D36" t="n">
-        <v>142.4</v>
+        <v>139.7</v>
       </c>
       <c r="E36" t="n">
-        <v>142.4</v>
+        <v>139.7</v>
       </c>
       <c r="F36" t="n">
-        <v>800.4399</v>
+        <v>215</v>
       </c>
       <c r="G36" t="n">
-        <v>140.7866666666667</v>
+        <v>158487.2754</v>
       </c>
       <c r="H36" t="n">
-        <v>140.2399999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,42 +1738,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>142.4</v>
+        <v>136.1</v>
       </c>
       <c r="C37" t="n">
-        <v>148.4</v>
+        <v>136.1</v>
       </c>
       <c r="D37" t="n">
-        <v>148.4</v>
+        <v>136.1</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4</v>
+        <v>136.1</v>
       </c>
       <c r="F37" t="n">
-        <v>16705.8373</v>
+        <v>261.1482</v>
       </c>
       <c r="G37" t="n">
-        <v>141.4400000000001</v>
+        <v>158226.1272</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,42 +1779,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>145</v>
+        <v>135.6</v>
       </c>
       <c r="C38" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="D38" t="n">
-        <v>145</v>
+        <v>139.8</v>
       </c>
       <c r="E38" t="n">
-        <v>138.1</v>
+        <v>135.6</v>
       </c>
       <c r="F38" t="n">
-        <v>6571.1729</v>
+        <v>6037.2534</v>
       </c>
       <c r="G38" t="n">
-        <v>141.7733333333334</v>
+        <v>164263.3806</v>
       </c>
       <c r="H38" t="n">
-        <v>140.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,42 +1820,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>144</v>
+        <v>135.5</v>
       </c>
       <c r="C39" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="D39" t="n">
-        <v>144</v>
+        <v>140.8</v>
       </c>
       <c r="E39" t="n">
-        <v>144</v>
+        <v>135.5</v>
       </c>
       <c r="F39" t="n">
-        <v>549.3252</v>
+        <v>6586.384</v>
       </c>
       <c r="G39" t="n">
-        <v>142.1733333333334</v>
+        <v>164263.3806</v>
       </c>
       <c r="H39" t="n">
-        <v>140.4383333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,42 +1861,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="C40" t="n">
-        <v>146</v>
+        <v>142.4</v>
       </c>
       <c r="D40" t="n">
-        <v>146</v>
+        <v>142.4</v>
       </c>
       <c r="E40" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>4459</v>
       </c>
       <c r="G40" t="n">
-        <v>142.4266666666668</v>
+        <v>168722.3806</v>
       </c>
       <c r="H40" t="n">
-        <v>140.5883333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2172,42 +1902,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>143</v>
+        <v>138.2</v>
       </c>
       <c r="C41" t="n">
-        <v>144.7</v>
+        <v>138.2</v>
       </c>
       <c r="D41" t="n">
-        <v>144.7</v>
+        <v>138.2</v>
       </c>
       <c r="E41" t="n">
-        <v>143</v>
+        <v>138.2</v>
       </c>
       <c r="F41" t="n">
-        <v>2745.452</v>
+        <v>387.9651</v>
       </c>
       <c r="G41" t="n">
-        <v>142.6666666666668</v>
+        <v>168334.4155</v>
       </c>
       <c r="H41" t="n">
-        <v>140.6349999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,42 +1943,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>144.7</v>
+        <v>141.4</v>
       </c>
       <c r="C42" t="n">
-        <v>145.7</v>
+        <v>142.4</v>
       </c>
       <c r="D42" t="n">
-        <v>145.7</v>
+        <v>142.4</v>
       </c>
       <c r="E42" t="n">
-        <v>144.7</v>
+        <v>141.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1412.3558</v>
+        <v>1138</v>
       </c>
       <c r="G42" t="n">
-        <v>143.1133333333334</v>
+        <v>169472.4155</v>
       </c>
       <c r="H42" t="n">
-        <v>140.6983333333332</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,42 +1984,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C43" t="n">
-        <v>145.9</v>
+        <v>137</v>
       </c>
       <c r="D43" t="n">
-        <v>145.9</v>
+        <v>137</v>
       </c>
       <c r="E43" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>568.0684</v>
       </c>
       <c r="G43" t="n">
-        <v>143.4200000000001</v>
+        <v>168904.3471</v>
       </c>
       <c r="H43" t="n">
-        <v>140.7466666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,42 +2025,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C44" t="n">
-        <v>145.9</v>
+        <v>138</v>
       </c>
       <c r="D44" t="n">
-        <v>145.9</v>
+        <v>138</v>
       </c>
       <c r="E44" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F44" t="n">
-        <v>1306.6161</v>
+        <v>287.4627</v>
       </c>
       <c r="G44" t="n">
-        <v>143.7266666666667</v>
+        <v>169191.8098</v>
       </c>
       <c r="H44" t="n">
-        <v>140.8766666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2348,42 +2066,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>146</v>
+        <v>140.1</v>
       </c>
       <c r="C45" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D45" t="n">
-        <v>146</v>
+        <v>140.2</v>
       </c>
       <c r="E45" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F45" t="n">
-        <v>573</v>
+        <v>2161.01</v>
       </c>
       <c r="G45" t="n">
-        <v>144.1866666666668</v>
+        <v>171352.8198</v>
       </c>
       <c r="H45" t="n">
-        <v>140.9633333333332</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,42 +2107,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C46" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D46" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E46" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F46" t="n">
-        <v>13474.8231</v>
+        <v>1592.73</v>
       </c>
       <c r="G46" t="n">
-        <v>144.5000000000001</v>
+        <v>171352.8198</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9866666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,42 +2148,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>145.9</v>
+        <v>139.1</v>
       </c>
       <c r="C47" t="n">
-        <v>146</v>
+        <v>138.1</v>
       </c>
       <c r="D47" t="n">
-        <v>146</v>
+        <v>139.1</v>
       </c>
       <c r="E47" t="n">
-        <v>145.9</v>
+        <v>138.1</v>
       </c>
       <c r="F47" t="n">
-        <v>672.0431</v>
+        <v>2326.57</v>
       </c>
       <c r="G47" t="n">
-        <v>144.7466666666667</v>
+        <v>169026.2498</v>
       </c>
       <c r="H47" t="n">
-        <v>141.0199999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2480,42 +2189,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>146</v>
+        <v>138.9</v>
       </c>
       <c r="C48" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="D48" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="E48" t="n">
-        <v>146</v>
+        <v>138.8</v>
       </c>
       <c r="F48" t="n">
-        <v>475.537</v>
+        <v>2250</v>
       </c>
       <c r="G48" t="n">
-        <v>144.9866666666667</v>
+        <v>171276.2498</v>
       </c>
       <c r="H48" t="n">
-        <v>141.1033333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2524,42 +2230,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>144.1</v>
+        <v>138.1</v>
       </c>
       <c r="C49" t="n">
-        <v>144.1</v>
+        <v>138.1</v>
       </c>
       <c r="D49" t="n">
-        <v>144.1</v>
+        <v>138.1</v>
       </c>
       <c r="E49" t="n">
-        <v>144.1</v>
+        <v>138.1</v>
       </c>
       <c r="F49" t="n">
-        <v>1497.0356</v>
+        <v>663.3952</v>
       </c>
       <c r="G49" t="n">
-        <v>145.1</v>
+        <v>170612.8546</v>
       </c>
       <c r="H49" t="n">
-        <v>141.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,44 +2271,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>146</v>
+        <v>138.1</v>
       </c>
       <c r="C50" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D50" t="n">
-        <v>146</v>
+        <v>138.1</v>
       </c>
       <c r="E50" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F50" t="n">
-        <v>68.7533</v>
+        <v>19719.7641</v>
       </c>
       <c r="G50" t="n">
-        <v>145.34</v>
+        <v>150893.0905</v>
       </c>
       <c r="H50" t="n">
-        <v>141.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,42 +2312,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C51" t="n">
-        <v>146</v>
+        <v>138.6</v>
       </c>
       <c r="D51" t="n">
-        <v>146</v>
+        <v>138.6</v>
       </c>
       <c r="E51" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F51" t="n">
-        <v>181.212</v>
+        <v>791.7917</v>
       </c>
       <c r="G51" t="n">
-        <v>145.58</v>
+        <v>151684.8822</v>
       </c>
       <c r="H51" t="n">
-        <v>141.3349999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,42 +2353,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C52" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D52" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E52" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F52" t="n">
-        <v>398.502</v>
+        <v>646.0684</v>
       </c>
       <c r="G52" t="n">
-        <v>145.42</v>
+        <v>151038.8138</v>
       </c>
       <c r="H52" t="n">
-        <v>141.5166666666665</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,42 +2394,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C53" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D53" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E53" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F53" t="n">
-        <v>210</v>
+        <v>189.3627</v>
       </c>
       <c r="G53" t="n">
-        <v>145.62</v>
+        <v>151038.8138</v>
       </c>
       <c r="H53" t="n">
-        <v>141.5549999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2746,42 +2435,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="C54" t="n">
-        <v>146</v>
+        <v>142.2</v>
       </c>
       <c r="D54" t="n">
-        <v>146</v>
+        <v>142.2</v>
       </c>
       <c r="E54" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="F54" t="n">
-        <v>12300.165</v>
+        <v>856.6769</v>
       </c>
       <c r="G54" t="n">
-        <v>145.7533333333334</v>
+        <v>151895.4907</v>
       </c>
       <c r="H54" t="n">
-        <v>141.6883333333332</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,42 +2476,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>146</v>
+        <v>141.1</v>
       </c>
       <c r="C55" t="n">
-        <v>145.2</v>
+        <v>141.1</v>
       </c>
       <c r="D55" t="n">
-        <v>148.8</v>
+        <v>141.1</v>
       </c>
       <c r="E55" t="n">
-        <v>145.2</v>
+        <v>141.1</v>
       </c>
       <c r="F55" t="n">
-        <v>11137.208</v>
+        <v>1250</v>
       </c>
       <c r="G55" t="n">
-        <v>145.7</v>
+        <v>150645.4907</v>
       </c>
       <c r="H55" t="n">
-        <v>141.7649999999999</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,42 +2517,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C56" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D56" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E56" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F56" t="n">
-        <v>528.1299</v>
+        <v>928.9556</v>
       </c>
       <c r="G56" t="n">
-        <v>145.7866666666667</v>
+        <v>149716.5351</v>
       </c>
       <c r="H56" t="n">
-        <v>141.9449999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,42 +2558,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>145.3</v>
+        <v>140</v>
       </c>
       <c r="C57" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="D57" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="E57" t="n">
-        <v>145.3</v>
+        <v>140</v>
       </c>
       <c r="F57" t="n">
-        <v>5281.5369</v>
+        <v>2696.6505</v>
       </c>
       <c r="G57" t="n">
-        <v>145.8666666666667</v>
+        <v>152413.1856</v>
       </c>
       <c r="H57" t="n">
-        <v>142.0249999999998</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,42 +2599,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="C58" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="D58" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="E58" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="F58" t="n">
-        <v>664.127</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>145.9333333333334</v>
+        <v>152413.1856</v>
       </c>
       <c r="H58" t="n">
-        <v>142.1899999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,42 +2640,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>145</v>
+        <v>141.3</v>
       </c>
       <c r="C59" t="n">
-        <v>146.9</v>
+        <v>139.1</v>
       </c>
       <c r="D59" t="n">
-        <v>146.9</v>
+        <v>142.3</v>
       </c>
       <c r="E59" t="n">
-        <v>145</v>
+        <v>139.1</v>
       </c>
       <c r="F59" t="n">
-        <v>1087.5068</v>
+        <v>1816.0803</v>
       </c>
       <c r="G59" t="n">
-        <v>146</v>
+        <v>150597.1053</v>
       </c>
       <c r="H59" t="n">
-        <v>142.3216666666665</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,42 +2681,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="C60" t="n">
-        <v>151.3</v>
+        <v>141.3</v>
       </c>
       <c r="D60" t="n">
-        <v>151.3</v>
+        <v>141.3</v>
       </c>
       <c r="E60" t="n">
-        <v>146.9</v>
+        <v>141.3</v>
       </c>
       <c r="F60" t="n">
-        <v>19162.6568</v>
+        <v>500</v>
       </c>
       <c r="G60" t="n">
-        <v>146.3533333333334</v>
+        <v>151097.1053</v>
       </c>
       <c r="H60" t="n">
-        <v>142.5266666666665</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,42 +2722,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>151.3</v>
+        <v>141.3</v>
       </c>
       <c r="C61" t="n">
-        <v>151.3</v>
+        <v>142.3</v>
       </c>
       <c r="D61" t="n">
-        <v>151.3</v>
+        <v>142.3</v>
       </c>
       <c r="E61" t="n">
-        <v>151.3</v>
+        <v>141.3</v>
       </c>
       <c r="F61" t="n">
-        <v>498.9789</v>
+        <v>8428.125</v>
       </c>
       <c r="G61" t="n">
-        <v>146.7066666666667</v>
+        <v>159525.2303</v>
       </c>
       <c r="H61" t="n">
-        <v>142.7183333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,42 +2763,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>151.3</v>
+        <v>142.3</v>
       </c>
       <c r="C62" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="D62" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="E62" t="n">
-        <v>151.3</v>
+        <v>142.3</v>
       </c>
       <c r="F62" t="n">
-        <v>2129</v>
+        <v>13771.5814</v>
       </c>
       <c r="G62" t="n">
-        <v>147.0933333333334</v>
+        <v>173296.8117</v>
       </c>
       <c r="H62" t="n">
-        <v>142.8583333333331</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,42 +2804,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="C63" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="D63" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="E63" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="F63" t="n">
-        <v>72.63549999999999</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="n">
-        <v>147.4800000000001</v>
+        <v>173296.8117</v>
       </c>
       <c r="H63" t="n">
-        <v>143.0316666666665</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,42 +2845,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>151.9</v>
+        <v>142.4</v>
       </c>
       <c r="C64" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="D64" t="n">
-        <v>155</v>
+        <v>142.4</v>
       </c>
       <c r="E64" t="n">
-        <v>151.8</v>
+        <v>142.4</v>
       </c>
       <c r="F64" t="n">
-        <v>6859.8678</v>
+        <v>11051.2282</v>
       </c>
       <c r="G64" t="n">
-        <v>147.9933333333334</v>
+        <v>173296.8117</v>
       </c>
       <c r="H64" t="n">
-        <v>143.2099999999998</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,42 +2886,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>154.2</v>
+        <v>142.4</v>
       </c>
       <c r="C65" t="n">
-        <v>155</v>
+        <v>142.4</v>
       </c>
       <c r="D65" t="n">
-        <v>155</v>
+        <v>142.4</v>
       </c>
       <c r="E65" t="n">
-        <v>154.1</v>
+        <v>142.4</v>
       </c>
       <c r="F65" t="n">
-        <v>2501.5612</v>
+        <v>800.4399</v>
       </c>
       <c r="G65" t="n">
-        <v>148.5933333333334</v>
+        <v>173296.8117</v>
       </c>
       <c r="H65" t="n">
-        <v>143.4199999999998</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,42 +2927,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>155</v>
+        <v>142.4</v>
       </c>
       <c r="C66" t="n">
-        <v>155</v>
+        <v>148.4</v>
       </c>
       <c r="D66" t="n">
-        <v>155</v>
+        <v>148.4</v>
       </c>
       <c r="E66" t="n">
-        <v>155</v>
+        <v>142.4</v>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>16705.8373</v>
       </c>
       <c r="G66" t="n">
-        <v>149.1933333333334</v>
+        <v>190002.649</v>
       </c>
       <c r="H66" t="n">
-        <v>143.6816666666665</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,42 +2968,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C67" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D67" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E67" t="n">
-        <v>155</v>
+        <v>138.1</v>
       </c>
       <c r="F67" t="n">
-        <v>2743.0748</v>
+        <v>6571.1729</v>
       </c>
       <c r="G67" t="n">
-        <v>149.7933333333334</v>
+        <v>183431.4761</v>
       </c>
       <c r="H67" t="n">
-        <v>143.9366666666665</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,42 +3009,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>154.9</v>
+        <v>144</v>
       </c>
       <c r="C68" t="n">
-        <v>154.9</v>
+        <v>144</v>
       </c>
       <c r="D68" t="n">
-        <v>154.9</v>
+        <v>144</v>
       </c>
       <c r="E68" t="n">
-        <v>154.9</v>
+        <v>144</v>
       </c>
       <c r="F68" t="n">
-        <v>65</v>
+        <v>549.3252</v>
       </c>
       <c r="G68" t="n">
-        <v>150.3866666666668</v>
+        <v>183980.8013</v>
       </c>
       <c r="H68" t="n">
-        <v>144.2499999999998</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,42 +3050,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>154.9</v>
+        <v>144</v>
       </c>
       <c r="C69" t="n">
-        <v>154.9</v>
+        <v>146</v>
       </c>
       <c r="D69" t="n">
-        <v>154.9</v>
+        <v>146</v>
       </c>
       <c r="E69" t="n">
-        <v>154.9</v>
+        <v>144</v>
       </c>
       <c r="F69" t="n">
-        <v>631.7403</v>
+        <v>500</v>
       </c>
       <c r="G69" t="n">
-        <v>150.9800000000001</v>
+        <v>184480.8013</v>
       </c>
       <c r="H69" t="n">
-        <v>144.5016666666665</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,43 +3091,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>157</v>
+        <v>144.7</v>
       </c>
       <c r="D70" t="n">
-        <v>157</v>
+        <v>144.7</v>
       </c>
       <c r="E70" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>2745.452</v>
       </c>
       <c r="G70" t="n">
-        <v>151.7666666666668</v>
+        <v>181735.3493</v>
       </c>
       <c r="H70" t="n">
-        <v>144.7883333333331</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>1.089839609483961</v>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3494,36 +3132,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>156</v>
+        <v>144.7</v>
       </c>
       <c r="C71" t="n">
-        <v>156.9</v>
+        <v>145.7</v>
       </c>
       <c r="D71" t="n">
-        <v>156.9</v>
+        <v>145.7</v>
       </c>
       <c r="E71" t="n">
-        <v>156</v>
+        <v>144.7</v>
       </c>
       <c r="F71" t="n">
-        <v>1416.6719</v>
+        <v>1412.3558</v>
       </c>
       <c r="G71" t="n">
-        <v>152.4933333333335</v>
+        <v>183147.7051</v>
       </c>
       <c r="H71" t="n">
-        <v>145.0299999999998</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,36 +3173,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>154.1</v>
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>154.1</v>
+        <v>145.9</v>
       </c>
       <c r="D72" t="n">
-        <v>154.1</v>
+        <v>145.9</v>
       </c>
       <c r="E72" t="n">
-        <v>154.1</v>
+        <v>145</v>
       </c>
       <c r="F72" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G72" t="n">
-        <v>152.9733333333334</v>
+        <v>183647.7051</v>
       </c>
       <c r="H72" t="n">
-        <v>145.2949999999998</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,36 +3214,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>152.3</v>
+        <v>145</v>
       </c>
       <c r="C73" t="n">
-        <v>152.3</v>
+        <v>145.9</v>
       </c>
       <c r="D73" t="n">
-        <v>152.3</v>
+        <v>145.9</v>
       </c>
       <c r="E73" t="n">
-        <v>152.3</v>
+        <v>145</v>
       </c>
       <c r="F73" t="n">
-        <v>212.502</v>
+        <v>1306.6161</v>
       </c>
       <c r="G73" t="n">
-        <v>153.3333333333335</v>
+        <v>183647.7051</v>
       </c>
       <c r="H73" t="n">
-        <v>145.4599999999998</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,36 +3255,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>147.2</v>
+        <v>146</v>
       </c>
       <c r="C74" t="n">
-        <v>151.6</v>
+        <v>146</v>
       </c>
       <c r="D74" t="n">
-        <v>151.6</v>
+        <v>146</v>
       </c>
       <c r="E74" t="n">
-        <v>146.2</v>
+        <v>146</v>
       </c>
       <c r="F74" t="n">
-        <v>3987.5915</v>
+        <v>573</v>
       </c>
       <c r="G74" t="n">
-        <v>153.6466666666668</v>
+        <v>184220.7051</v>
       </c>
       <c r="H74" t="n">
-        <v>145.7033333333331</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,36 +3296,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>151.1</v>
+        <v>146</v>
       </c>
       <c r="C75" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D75" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E75" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F75" t="n">
-        <v>1020</v>
+        <v>13474.8231</v>
       </c>
       <c r="G75" t="n">
-        <v>153.6266666666668</v>
+        <v>184220.7051</v>
       </c>
       <c r="H75" t="n">
-        <v>145.9199999999998</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,36 +3337,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>152</v>
+        <v>145.9</v>
       </c>
       <c r="C76" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D76" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E76" t="n">
-        <v>149</v>
+        <v>145.9</v>
       </c>
       <c r="F76" t="n">
-        <v>509.1069</v>
+        <v>672.0431</v>
       </c>
       <c r="G76" t="n">
-        <v>153.4733333333334</v>
+        <v>184220.7051</v>
       </c>
       <c r="H76" t="n">
-        <v>146.0699999999998</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,36 +3378,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C77" t="n">
-        <v>147.3</v>
+        <v>146</v>
       </c>
       <c r="D77" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E77" t="n">
-        <v>147.3</v>
+        <v>146</v>
       </c>
       <c r="F77" t="n">
-        <v>2905.811</v>
+        <v>475.537</v>
       </c>
       <c r="G77" t="n">
-        <v>153.1733333333334</v>
+        <v>184220.7051</v>
       </c>
       <c r="H77" t="n">
-        <v>146.1916666666665</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,36 +3419,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>148.3</v>
+        <v>144.1</v>
       </c>
       <c r="C78" t="n">
-        <v>154</v>
+        <v>144.1</v>
       </c>
       <c r="D78" t="n">
-        <v>154</v>
+        <v>144.1</v>
       </c>
       <c r="E78" t="n">
-        <v>147</v>
+        <v>144.1</v>
       </c>
       <c r="F78" t="n">
-        <v>3626.4642</v>
+        <v>1497.0356</v>
       </c>
       <c r="G78" t="n">
-        <v>153.3200000000001</v>
+        <v>182723.6695</v>
       </c>
       <c r="H78" t="n">
-        <v>146.4566666666665</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,36 +3460,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C79" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D79" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E79" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>68.7533</v>
       </c>
       <c r="G79" t="n">
-        <v>153.3333333333334</v>
+        <v>182792.4228</v>
       </c>
       <c r="H79" t="n">
-        <v>146.6583333333331</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,36 +3501,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>151.9</v>
+        <v>146</v>
       </c>
       <c r="C80" t="n">
-        <v>151.9</v>
+        <v>146</v>
       </c>
       <c r="D80" t="n">
-        <v>151.9</v>
+        <v>146</v>
       </c>
       <c r="E80" t="n">
-        <v>151.9</v>
+        <v>146</v>
       </c>
       <c r="F80" t="n">
-        <v>256</v>
+        <v>181.212</v>
       </c>
       <c r="G80" t="n">
-        <v>153.1266666666667</v>
+        <v>182792.4228</v>
       </c>
       <c r="H80" t="n">
-        <v>146.8883333333331</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,36 +3542,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>151.6</v>
+        <v>146</v>
       </c>
       <c r="C81" t="n">
-        <v>151.6</v>
+        <v>146</v>
       </c>
       <c r="D81" t="n">
-        <v>151.6</v>
+        <v>146</v>
       </c>
       <c r="E81" t="n">
-        <v>151.6</v>
+        <v>146</v>
       </c>
       <c r="F81" t="n">
-        <v>237.9924</v>
+        <v>398.502</v>
       </c>
       <c r="G81" t="n">
-        <v>152.9000000000001</v>
+        <v>182792.4228</v>
       </c>
       <c r="H81" t="n">
-        <v>147.1149999999998</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +3583,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C82" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D82" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E82" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G82" t="n">
-        <v>152.5666666666667</v>
+        <v>182792.4228</v>
       </c>
       <c r="H82" t="n">
-        <v>147.3049999999998</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +3624,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="C83" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="D83" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="E83" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="F83" t="n">
-        <v>1140.07</v>
+        <v>12300.165</v>
       </c>
       <c r="G83" t="n">
-        <v>152.0866666666667</v>
+        <v>182792.4228</v>
       </c>
       <c r="H83" t="n">
-        <v>147.4666666666664</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +3665,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>145.7</v>
+        <v>146</v>
       </c>
       <c r="C84" t="n">
-        <v>146.7</v>
+        <v>145.2</v>
       </c>
       <c r="D84" t="n">
-        <v>146.7</v>
+        <v>148.8</v>
       </c>
       <c r="E84" t="n">
-        <v>145.7</v>
+        <v>145.2</v>
       </c>
       <c r="F84" t="n">
-        <v>850</v>
+        <v>11137.208</v>
       </c>
       <c r="G84" t="n">
-        <v>151.54</v>
+        <v>171655.2148</v>
       </c>
       <c r="H84" t="n">
-        <v>147.6116666666665</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +3706,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>144.2</v>
+        <v>146</v>
       </c>
       <c r="C85" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D85" t="n">
-        <v>144.2</v>
+        <v>146</v>
       </c>
       <c r="E85" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F85" t="n">
-        <v>55.8635</v>
+        <v>528.1299</v>
       </c>
       <c r="G85" t="n">
-        <v>150.6733333333333</v>
+        <v>172183.3447</v>
       </c>
       <c r="H85" t="n">
-        <v>147.6416666666665</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +3747,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>142.9</v>
+        <v>145.3</v>
       </c>
       <c r="C86" t="n">
-        <v>142.9</v>
+        <v>146.9</v>
       </c>
       <c r="D86" t="n">
-        <v>142.9</v>
+        <v>146.9</v>
       </c>
       <c r="E86" t="n">
-        <v>142.9</v>
+        <v>145.3</v>
       </c>
       <c r="F86" t="n">
-        <v>40.2217</v>
+        <v>5281.5369</v>
       </c>
       <c r="G86" t="n">
-        <v>149.74</v>
+        <v>177464.8816</v>
       </c>
       <c r="H86" t="n">
-        <v>147.6716666666665</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +3788,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>144</v>
+        <v>146.9</v>
       </c>
       <c r="C87" t="n">
-        <v>144</v>
+        <v>146.9</v>
       </c>
       <c r="D87" t="n">
-        <v>144</v>
+        <v>146.9</v>
       </c>
       <c r="E87" t="n">
-        <v>144</v>
+        <v>146.9</v>
       </c>
       <c r="F87" t="n">
-        <v>1043.9848</v>
+        <v>664.127</v>
       </c>
       <c r="G87" t="n">
-        <v>149.0666666666667</v>
+        <v>177464.8816</v>
       </c>
       <c r="H87" t="n">
-        <v>147.7549999999998</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +3829,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>141.1</v>
+        <v>145</v>
       </c>
       <c r="C88" t="n">
-        <v>146</v>
+        <v>146.9</v>
       </c>
       <c r="D88" t="n">
-        <v>149.9</v>
+        <v>146.9</v>
       </c>
       <c r="E88" t="n">
-        <v>141.1</v>
+        <v>145</v>
       </c>
       <c r="F88" t="n">
-        <v>7156.51</v>
+        <v>1087.5068</v>
       </c>
       <c r="G88" t="n">
-        <v>148.6466666666667</v>
+        <v>177464.8816</v>
       </c>
       <c r="H88" t="n">
-        <v>147.8333333333331</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +3870,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>146.1</v>
+        <v>146.9</v>
       </c>
       <c r="C89" t="n">
-        <v>144.1</v>
+        <v>151.3</v>
       </c>
       <c r="D89" t="n">
-        <v>146.1</v>
+        <v>151.3</v>
       </c>
       <c r="E89" t="n">
-        <v>144</v>
+        <v>146.9</v>
       </c>
       <c r="F89" t="n">
-        <v>568.283</v>
+        <v>19162.6568</v>
       </c>
       <c r="G89" t="n">
-        <v>148.1466666666667</v>
+        <v>196627.5384</v>
       </c>
       <c r="H89" t="n">
-        <v>147.8799999999998</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +3911,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>145.9</v>
+        <v>151.3</v>
       </c>
       <c r="C90" t="n">
-        <v>146.5</v>
+        <v>151.3</v>
       </c>
       <c r="D90" t="n">
-        <v>146.5</v>
+        <v>151.3</v>
       </c>
       <c r="E90" t="n">
-        <v>145.9</v>
+        <v>151.3</v>
       </c>
       <c r="F90" t="n">
-        <v>690</v>
+        <v>498.9789</v>
       </c>
       <c r="G90" t="n">
-        <v>147.8466666666667</v>
+        <v>196627.5384</v>
       </c>
       <c r="H90" t="n">
-        <v>148.0033333333331</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +3952,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>145.4</v>
+        <v>151.3</v>
       </c>
       <c r="C91" t="n">
-        <v>145.4</v>
+        <v>151.8</v>
       </c>
       <c r="D91" t="n">
-        <v>145.4</v>
+        <v>151.8</v>
       </c>
       <c r="E91" t="n">
-        <v>145.4</v>
+        <v>151.3</v>
       </c>
       <c r="F91" t="n">
-        <v>13.5302</v>
+        <v>2129</v>
       </c>
       <c r="G91" t="n">
-        <v>147.6066666666667</v>
+        <v>198756.5384</v>
       </c>
       <c r="H91" t="n">
-        <v>148.0716666666665</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +3993,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>145.4</v>
+        <v>151.8</v>
       </c>
       <c r="C92" t="n">
-        <v>145.4</v>
+        <v>151.8</v>
       </c>
       <c r="D92" t="n">
-        <v>145.4</v>
+        <v>151.8</v>
       </c>
       <c r="E92" t="n">
-        <v>145.4</v>
+        <v>151.8</v>
       </c>
       <c r="F92" t="n">
-        <v>1320.7198</v>
+        <v>72.63549999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>147.48</v>
+        <v>198756.5384</v>
       </c>
       <c r="H92" t="n">
-        <v>148.1233333333331</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4034,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>145.1</v>
+        <v>151.9</v>
       </c>
       <c r="C93" t="n">
-        <v>145.1</v>
+        <v>151.8</v>
       </c>
       <c r="D93" t="n">
-        <v>145.1</v>
+        <v>155</v>
       </c>
       <c r="E93" t="n">
-        <v>145.1</v>
+        <v>151.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1334.25</v>
+        <v>6859.8678</v>
       </c>
       <c r="G93" t="n">
-        <v>146.8866666666667</v>
+        <v>198756.5384</v>
       </c>
       <c r="H93" t="n">
-        <v>148.1683333333332</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4075,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>145.4</v>
+        <v>154.2</v>
       </c>
       <c r="C94" t="n">
-        <v>147.3</v>
+        <v>155</v>
       </c>
       <c r="D94" t="n">
-        <v>147.3</v>
+        <v>155</v>
       </c>
       <c r="E94" t="n">
-        <v>145.4</v>
+        <v>154.1</v>
       </c>
       <c r="F94" t="n">
-        <v>3545.555</v>
+        <v>2501.5612</v>
       </c>
       <c r="G94" t="n">
-        <v>146.5733333333334</v>
+        <v>201258.0996</v>
       </c>
       <c r="H94" t="n">
-        <v>148.2499999999998</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4116,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>147.3</v>
+        <v>155</v>
       </c>
       <c r="C95" t="n">
-        <v>147.3</v>
+        <v>155</v>
       </c>
       <c r="D95" t="n">
-        <v>147.3</v>
+        <v>155</v>
       </c>
       <c r="E95" t="n">
-        <v>147.3</v>
+        <v>155</v>
       </c>
       <c r="F95" t="n">
-        <v>291.832</v>
+        <v>250</v>
       </c>
       <c r="G95" t="n">
-        <v>146.2666666666667</v>
+        <v>201258.0996</v>
       </c>
       <c r="H95" t="n">
-        <v>148.3316666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4157,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C96" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D96" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E96" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>2743.0748</v>
       </c>
       <c r="G96" t="n">
-        <v>146.16</v>
+        <v>201258.0996</v>
       </c>
       <c r="H96" t="n">
-        <v>148.4583333333331</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,37 +4198,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>150.1</v>
+        <v>154.9</v>
       </c>
       <c r="C97" t="n">
-        <v>150.1</v>
+        <v>154.9</v>
       </c>
       <c r="D97" t="n">
-        <v>150.1</v>
+        <v>154.9</v>
       </c>
       <c r="E97" t="n">
-        <v>150.1</v>
+        <v>154.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="G97" t="n">
-        <v>146.1666666666667</v>
+        <v>201193.0996</v>
       </c>
       <c r="H97" t="n">
-        <v>148.4866666666665</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1.096706970128023</v>
       </c>
     </row>
     <row r="98">
@@ -4520,36 +4239,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>150</v>
+        <v>154.9</v>
       </c>
       <c r="C98" t="n">
-        <v>150</v>
+        <v>154.9</v>
       </c>
       <c r="D98" t="n">
-        <v>150</v>
+        <v>154.9</v>
       </c>
       <c r="E98" t="n">
-        <v>150</v>
+        <v>154.9</v>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>631.7403</v>
       </c>
       <c r="G98" t="n">
-        <v>146.3200000000001</v>
+        <v>201193.0996</v>
       </c>
       <c r="H98" t="n">
-        <v>148.6033333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,36 +4274,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C99" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D99" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E99" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F99" t="n">
         <v>250</v>
       </c>
       <c r="G99" t="n">
-        <v>146.54</v>
+        <v>201443.0996</v>
       </c>
       <c r="H99" t="n">
-        <v>148.7033333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4309,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C100" t="n">
-        <v>150</v>
+        <v>156.9</v>
       </c>
       <c r="D100" t="n">
-        <v>150</v>
+        <v>156.9</v>
       </c>
       <c r="E100" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F100" t="n">
-        <v>4569.5329</v>
+        <v>1416.6719</v>
       </c>
       <c r="G100" t="n">
-        <v>146.9400000000001</v>
+        <v>200026.4277</v>
       </c>
       <c r="H100" t="n">
-        <v>148.7699999999998</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,36 +4344,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>150</v>
+        <v>154.1</v>
       </c>
       <c r="C101" t="n">
-        <v>150.9</v>
+        <v>154.1</v>
       </c>
       <c r="D101" t="n">
-        <v>150.9</v>
+        <v>154.1</v>
       </c>
       <c r="E101" t="n">
-        <v>150</v>
+        <v>154.1</v>
       </c>
       <c r="F101" t="n">
-        <v>3810</v>
+        <v>80</v>
       </c>
       <c r="G101" t="n">
-        <v>147.4733333333334</v>
+        <v>199946.4277</v>
       </c>
       <c r="H101" t="n">
-        <v>148.8733333333331</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,36 +4379,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>150</v>
+        <v>152.3</v>
       </c>
       <c r="C102" t="n">
-        <v>150</v>
+        <v>152.3</v>
       </c>
       <c r="D102" t="n">
-        <v>150</v>
+        <v>152.3</v>
       </c>
       <c r="E102" t="n">
-        <v>150</v>
+        <v>152.3</v>
       </c>
       <c r="F102" t="n">
-        <v>66.34</v>
+        <v>212.502</v>
       </c>
       <c r="G102" t="n">
-        <v>147.8733333333334</v>
+        <v>199733.9257</v>
       </c>
       <c r="H102" t="n">
-        <v>148.9449999999998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4414,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>150.5</v>
+        <v>147.2</v>
       </c>
       <c r="C103" t="n">
-        <v>150.5</v>
+        <v>151.6</v>
       </c>
       <c r="D103" t="n">
-        <v>150.5</v>
+        <v>151.6</v>
       </c>
       <c r="E103" t="n">
-        <v>150.5</v>
+        <v>146.2</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>3987.5915</v>
       </c>
       <c r="G103" t="n">
-        <v>148.1733333333334</v>
+        <v>195746.3342</v>
       </c>
       <c r="H103" t="n">
-        <v>149.0216666666665</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,36 +4449,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>150</v>
+        <v>151.1</v>
       </c>
       <c r="C104" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D104" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" t="n">
         <v>150</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1068</v>
+        <v>1020</v>
       </c>
       <c r="G104" t="n">
-        <v>148.5666666666667</v>
+        <v>194726.3342</v>
       </c>
       <c r="H104" t="n">
-        <v>149.0899999999998</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,36 +4484,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C105" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D105" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E105" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F105" t="n">
-        <v>346.234</v>
+        <v>509.1069</v>
       </c>
       <c r="G105" t="n">
-        <v>148.6666666666667</v>
+        <v>194217.2272999999</v>
       </c>
       <c r="H105" t="n">
-        <v>149.1233333333331</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,36 +4519,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C106" t="n">
-        <v>149</v>
+        <v>147.3</v>
       </c>
       <c r="D106" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E106" t="n">
-        <v>148</v>
+        <v>147.3</v>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>2905.811</v>
       </c>
       <c r="G106" t="n">
-        <v>148.9066666666667</v>
+        <v>191311.4163</v>
       </c>
       <c r="H106" t="n">
-        <v>149.1733333333331</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,36 +4554,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>147</v>
+        <v>148.3</v>
       </c>
       <c r="C107" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D107" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E107" t="n">
         <v>147</v>
       </c>
       <c r="F107" t="n">
-        <v>96.23399999999999</v>
+        <v>3626.4642</v>
       </c>
       <c r="G107" t="n">
-        <v>149.0133333333334</v>
+        <v>194937.8804999999</v>
       </c>
       <c r="H107" t="n">
-        <v>149.1899999999998</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,36 +4589,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>146.1</v>
+        <v>152</v>
       </c>
       <c r="C108" t="n">
-        <v>146.1</v>
+        <v>152</v>
       </c>
       <c r="D108" t="n">
-        <v>146.1</v>
+        <v>152</v>
       </c>
       <c r="E108" t="n">
-        <v>146.1</v>
+        <v>152</v>
       </c>
       <c r="F108" t="n">
-        <v>213.515</v>
+        <v>750</v>
       </c>
       <c r="G108" t="n">
-        <v>149.08</v>
+        <v>194187.8804999999</v>
       </c>
       <c r="H108" t="n">
-        <v>149.1916666666665</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,36 +4624,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>146</v>
+        <v>151.9</v>
       </c>
       <c r="C109" t="n">
-        <v>146</v>
+        <v>151.9</v>
       </c>
       <c r="D109" t="n">
-        <v>146</v>
+        <v>151.9</v>
       </c>
       <c r="E109" t="n">
-        <v>146</v>
+        <v>151.9</v>
       </c>
       <c r="F109" t="n">
-        <v>96.23399999999999</v>
+        <v>256</v>
       </c>
       <c r="G109" t="n">
-        <v>148.9933333333334</v>
+        <v>193931.8804999999</v>
       </c>
       <c r="H109" t="n">
-        <v>149.2233333333332</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,36 +4659,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>146.2</v>
+        <v>151.6</v>
       </c>
       <c r="C110" t="n">
-        <v>146.2</v>
+        <v>151.6</v>
       </c>
       <c r="D110" t="n">
-        <v>146.2</v>
+        <v>151.6</v>
       </c>
       <c r="E110" t="n">
-        <v>146.2</v>
+        <v>151.6</v>
       </c>
       <c r="F110" t="n">
-        <v>6.9825</v>
+        <v>237.9924</v>
       </c>
       <c r="G110" t="n">
-        <v>148.92</v>
+        <v>193693.8881</v>
       </c>
       <c r="H110" t="n">
-        <v>149.2266666666665</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,36 +4694,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>148.8</v>
+        <v>151</v>
       </c>
       <c r="C111" t="n">
-        <v>149.8</v>
+        <v>150</v>
       </c>
       <c r="D111" t="n">
-        <v>149.8</v>
+        <v>151</v>
       </c>
       <c r="E111" t="n">
-        <v>148.8</v>
+        <v>150</v>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G111" t="n">
-        <v>148.9066666666667</v>
+        <v>193193.8881</v>
       </c>
       <c r="H111" t="n">
-        <v>149.2899999999998</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,36 +4729,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="C112" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="D112" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="E112" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="F112" t="n">
-        <v>14.7902</v>
+        <v>1140.07</v>
       </c>
       <c r="G112" t="n">
-        <v>148.7</v>
+        <v>192053.8180999999</v>
       </c>
       <c r="H112" t="n">
-        <v>149.3066666666665</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,36 +4764,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>146.6</v>
+        <v>145.7</v>
       </c>
       <c r="C113" t="n">
-        <v>148.1</v>
+        <v>146.7</v>
       </c>
       <c r="D113" t="n">
-        <v>148.1</v>
+        <v>146.7</v>
       </c>
       <c r="E113" t="n">
-        <v>146.6</v>
+        <v>145.7</v>
       </c>
       <c r="F113" t="n">
-        <v>1510</v>
+        <v>850</v>
       </c>
       <c r="G113" t="n">
-        <v>148.5733333333334</v>
+        <v>191203.8180999999</v>
       </c>
       <c r="H113" t="n">
-        <v>149.3416666666665</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,36 +4799,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>146.1</v>
+        <v>144.2</v>
       </c>
       <c r="C114" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D114" t="n">
-        <v>149</v>
+        <v>144.2</v>
       </c>
       <c r="E114" t="n">
-        <v>146.1</v>
+        <v>144</v>
       </c>
       <c r="F114" t="n">
-        <v>3831.83</v>
+        <v>55.8635</v>
       </c>
       <c r="G114" t="n">
-        <v>148.5066666666667</v>
+        <v>191147.9545999999</v>
       </c>
       <c r="H114" t="n">
-        <v>149.3916666666665</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,36 +4834,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>147.4</v>
+        <v>142.9</v>
       </c>
       <c r="C115" t="n">
-        <v>148</v>
+        <v>142.9</v>
       </c>
       <c r="D115" t="n">
-        <v>149</v>
+        <v>142.9</v>
       </c>
       <c r="E115" t="n">
-        <v>146</v>
+        <v>142.9</v>
       </c>
       <c r="F115" t="n">
-        <v>5669.7648</v>
+        <v>40.2217</v>
       </c>
       <c r="G115" t="n">
-        <v>148.3733333333334</v>
+        <v>191107.7328999999</v>
       </c>
       <c r="H115" t="n">
-        <v>149.4383333333331</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,36 +4869,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C116" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D116" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E116" t="n">
-        <v>145.3</v>
+        <v>144</v>
       </c>
       <c r="F116" t="n">
-        <v>2010.5488</v>
+        <v>1043.9848</v>
       </c>
       <c r="G116" t="n">
-        <v>148.1133333333333</v>
+        <v>192151.7177</v>
       </c>
       <c r="H116" t="n">
-        <v>149.4549999999998</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,36 +4904,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>147.1</v>
+        <v>141.1</v>
       </c>
       <c r="C117" t="n">
-        <v>148.3</v>
+        <v>146</v>
       </c>
       <c r="D117" t="n">
-        <v>148.3</v>
+        <v>149.9</v>
       </c>
       <c r="E117" t="n">
-        <v>146.9</v>
+        <v>141.1</v>
       </c>
       <c r="F117" t="n">
-        <v>1916.6719</v>
+        <v>7156.51</v>
       </c>
       <c r="G117" t="n">
-        <v>148</v>
+        <v>199308.2277</v>
       </c>
       <c r="H117" t="n">
-        <v>149.4783333333331</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,36 +4939,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>148</v>
+        <v>146.1</v>
       </c>
       <c r="C118" t="n">
-        <v>147</v>
+        <v>144.1</v>
       </c>
       <c r="D118" t="n">
-        <v>149.8</v>
+        <v>146.1</v>
       </c>
       <c r="E118" t="n">
-        <v>146.5</v>
+        <v>144</v>
       </c>
       <c r="F118" t="n">
-        <v>3339.9963</v>
+        <v>568.283</v>
       </c>
       <c r="G118" t="n">
-        <v>147.7666666666667</v>
+        <v>198739.9447</v>
       </c>
       <c r="H118" t="n">
-        <v>149.4799999999998</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,36 +4974,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>147</v>
+        <v>145.9</v>
       </c>
       <c r="C119" t="n">
-        <v>147.7</v>
+        <v>146.5</v>
       </c>
       <c r="D119" t="n">
-        <v>147.7</v>
+        <v>146.5</v>
       </c>
       <c r="E119" t="n">
-        <v>146.9</v>
+        <v>145.9</v>
       </c>
       <c r="F119" t="n">
-        <v>1740.4784</v>
+        <v>690</v>
       </c>
       <c r="G119" t="n">
-        <v>147.6133333333333</v>
+        <v>199429.9447</v>
       </c>
       <c r="H119" t="n">
-        <v>149.4933333333332</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,36 +5009,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="C120" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="D120" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="E120" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="F120" t="n">
-        <v>378.212</v>
+        <v>13.5302</v>
       </c>
       <c r="G120" t="n">
-        <v>147.5933333333333</v>
+        <v>199416.4145</v>
       </c>
       <c r="H120" t="n">
-        <v>149.4333333333332</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,36 +5044,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="C121" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="D121" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="E121" t="n">
-        <v>147.7</v>
+        <v>145.4</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0004</v>
+        <v>1320.7198</v>
       </c>
       <c r="G121" t="n">
-        <v>147.5066666666667</v>
+        <v>199416.4145</v>
       </c>
       <c r="H121" t="n">
-        <v>149.3733333333332</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,36 +5079,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>149</v>
+        <v>145.1</v>
       </c>
       <c r="C122" t="n">
-        <v>149.1</v>
+        <v>145.1</v>
       </c>
       <c r="D122" t="n">
-        <v>149.1</v>
+        <v>145.1</v>
       </c>
       <c r="E122" t="n">
-        <v>149</v>
+        <v>145.1</v>
       </c>
       <c r="F122" t="n">
-        <v>421.12</v>
+        <v>1334.25</v>
       </c>
       <c r="G122" t="n">
-        <v>147.6466666666666</v>
+        <v>198082.1645</v>
       </c>
       <c r="H122" t="n">
-        <v>149.3283333333332</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,36 +5114,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>149.1</v>
+        <v>145.4</v>
       </c>
       <c r="C123" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="D123" t="n">
-        <v>149.1</v>
+        <v>147.3</v>
       </c>
       <c r="E123" t="n">
-        <v>148.1</v>
+        <v>145.4</v>
       </c>
       <c r="F123" t="n">
-        <v>3831.338</v>
+        <v>3545.555</v>
       </c>
       <c r="G123" t="n">
-        <v>147.78</v>
+        <v>201627.7194999999</v>
       </c>
       <c r="H123" t="n">
-        <v>149.2666666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,36 +5149,1048 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="C124" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="D124" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="E124" t="n">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="F124" t="n">
-        <v>909.181</v>
+        <v>291.832</v>
       </c>
       <c r="G124" t="n">
-        <v>147.92</v>
+        <v>201627.7194999999</v>
       </c>
       <c r="H124" t="n">
-        <v>149.2049999999999</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>150</v>
+      </c>
+      <c r="C125" t="n">
+        <v>150</v>
+      </c>
+      <c r="D125" t="n">
+        <v>150</v>
+      </c>
+      <c r="E125" t="n">
+        <v>150</v>
+      </c>
+      <c r="F125" t="n">
+        <v>500</v>
+      </c>
+      <c r="G125" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>203127.7194999999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>150</v>
+      </c>
+      <c r="C127" t="n">
+        <v>150</v>
+      </c>
+      <c r="D127" t="n">
+        <v>150</v>
+      </c>
+      <c r="E127" t="n">
+        <v>150</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>150</v>
+      </c>
+      <c r="C128" t="n">
+        <v>150</v>
+      </c>
+      <c r="D128" t="n">
+        <v>150</v>
+      </c>
+      <c r="E128" t="n">
+        <v>150</v>
+      </c>
+      <c r="F128" t="n">
+        <v>250</v>
+      </c>
+      <c r="G128" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>150</v>
+      </c>
+      <c r="C129" t="n">
+        <v>150</v>
+      </c>
+      <c r="D129" t="n">
+        <v>150</v>
+      </c>
+      <c r="E129" t="n">
+        <v>150</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4569.5329</v>
+      </c>
+      <c r="G129" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>150</v>
+      </c>
+      <c r="C130" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>150</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3810</v>
+      </c>
+      <c r="G130" t="n">
+        <v>205937.7194999999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>150</v>
+      </c>
+      <c r="C131" t="n">
+        <v>150</v>
+      </c>
+      <c r="D131" t="n">
+        <v>150</v>
+      </c>
+      <c r="E131" t="n">
+        <v>150</v>
+      </c>
+      <c r="F131" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="G131" t="n">
+        <v>205871.3795</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>205881.3795</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>150</v>
+      </c>
+      <c r="C133" t="n">
+        <v>150</v>
+      </c>
+      <c r="D133" t="n">
+        <v>150</v>
+      </c>
+      <c r="E133" t="n">
+        <v>150</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="G133" t="n">
+        <v>205881.2726999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>148</v>
+      </c>
+      <c r="C134" t="n">
+        <v>148</v>
+      </c>
+      <c r="D134" t="n">
+        <v>148</v>
+      </c>
+      <c r="E134" t="n">
+        <v>148</v>
+      </c>
+      <c r="F134" t="n">
+        <v>346.234</v>
+      </c>
+      <c r="G134" t="n">
+        <v>205535.0386999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>148</v>
+      </c>
+      <c r="C135" t="n">
+        <v>149</v>
+      </c>
+      <c r="D135" t="n">
+        <v>149</v>
+      </c>
+      <c r="E135" t="n">
+        <v>148</v>
+      </c>
+      <c r="F135" t="n">
+        <v>500</v>
+      </c>
+      <c r="G135" t="n">
+        <v>206035.0386999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>147</v>
+      </c>
+      <c r="C136" t="n">
+        <v>147</v>
+      </c>
+      <c r="D136" t="n">
+        <v>147</v>
+      </c>
+      <c r="E136" t="n">
+        <v>147</v>
+      </c>
+      <c r="F136" t="n">
+        <v>96.23399999999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>205938.8046999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>213.515</v>
+      </c>
+      <c r="G137" t="n">
+        <v>205725.2896999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>146</v>
+      </c>
+      <c r="C138" t="n">
+        <v>146</v>
+      </c>
+      <c r="D138" t="n">
+        <v>146</v>
+      </c>
+      <c r="E138" t="n">
+        <v>146</v>
+      </c>
+      <c r="F138" t="n">
+        <v>96.23399999999999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>205629.0556999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.9825</v>
+      </c>
+      <c r="G139" t="n">
+        <v>205636.0382</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>250</v>
+      </c>
+      <c r="G140" t="n">
+        <v>205886.0382</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>147</v>
+      </c>
+      <c r="C141" t="n">
+        <v>147</v>
+      </c>
+      <c r="D141" t="n">
+        <v>147</v>
+      </c>
+      <c r="E141" t="n">
+        <v>147</v>
+      </c>
+      <c r="F141" t="n">
+        <v>14.7902</v>
+      </c>
+      <c r="G141" t="n">
+        <v>205871.248</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G142" t="n">
+        <v>207381.248</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>149</v>
+      </c>
+      <c r="D143" t="n">
+        <v>149</v>
+      </c>
+      <c r="E143" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3831.83</v>
+      </c>
+      <c r="G143" t="n">
+        <v>211213.078</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>148</v>
+      </c>
+      <c r="D144" t="n">
+        <v>149</v>
+      </c>
+      <c r="E144" t="n">
+        <v>146</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5669.7648</v>
+      </c>
+      <c r="G144" t="n">
+        <v>205543.3131999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>147</v>
+      </c>
+      <c r="C145" t="n">
+        <v>147</v>
+      </c>
+      <c r="D145" t="n">
+        <v>147</v>
+      </c>
+      <c r="E145" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2010.5488</v>
+      </c>
+      <c r="G145" t="n">
+        <v>203532.7644</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1916.6719</v>
+      </c>
+      <c r="G146" t="n">
+        <v>205449.4362999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>148</v>
+      </c>
+      <c r="C147" t="n">
+        <v>147</v>
+      </c>
+      <c r="D147" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3339.9963</v>
+      </c>
+      <c r="G147" t="n">
+        <v>202109.4399999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1740.4784</v>
+      </c>
+      <c r="G148" t="n">
+        <v>203849.9183999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>378.212</v>
+      </c>
+      <c r="G149" t="n">
+        <v>203849.9183999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="G150" t="n">
+        <v>203849.9183999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>149</v>
+      </c>
+      <c r="F151" t="n">
+        <v>421.12</v>
+      </c>
+      <c r="G151" t="n">
+        <v>204271.0383999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3831.338</v>
+      </c>
+      <c r="G152" t="n">
+        <v>200439.7003999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>909.181</v>
+      </c>
+      <c r="G153" t="n">
+        <v>200439.7003999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>136.2</v>
+        <v>138</v>
       </c>
       <c r="C2" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" t="n">
-        <v>151.3</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2</v>
+        <v>138</v>
       </c>
       <c r="F2" t="n">
-        <v>14904.7974</v>
+        <v>287.4627</v>
       </c>
       <c r="G2" t="n">
-        <v>54871.35639999999</v>
+        <v>169191.8098</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,798 +467,989 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141.9</v>
+        <v>140.1</v>
       </c>
       <c r="C3" t="n">
-        <v>141.9</v>
+        <v>140</v>
       </c>
       <c r="D3" t="n">
-        <v>141.9</v>
+        <v>140.2</v>
       </c>
       <c r="E3" t="n">
-        <v>141.9</v>
+        <v>140</v>
       </c>
       <c r="F3" t="n">
-        <v>600</v>
+        <v>2161.01</v>
       </c>
       <c r="G3" t="n">
-        <v>55471.35639999999</v>
+        <v>171352.8198</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>138</v>
+      </c>
+      <c r="K3" t="n">
+        <v>138</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>143.2</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>139.1</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>143.2</v>
+        <v>140</v>
       </c>
       <c r="E4" t="n">
-        <v>138.1</v>
+        <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>703.309</v>
+        <v>1592.73</v>
       </c>
       <c r="G4" t="n">
-        <v>54768.04739999999</v>
+        <v>171352.8198</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K4" t="n">
+        <v>138</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139.9</v>
+        <v>139.1</v>
       </c>
       <c r="C5" t="n">
-        <v>139.9</v>
+        <v>138.1</v>
       </c>
       <c r="D5" t="n">
-        <v>139.9</v>
+        <v>139.1</v>
       </c>
       <c r="E5" t="n">
-        <v>139.9</v>
+        <v>138.1</v>
       </c>
       <c r="F5" t="n">
-        <v>314.049</v>
+        <v>2326.57</v>
       </c>
       <c r="G5" t="n">
-        <v>55082.09639999999</v>
+        <v>169026.2498</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>140</v>
+      </c>
+      <c r="K5" t="n">
+        <v>138</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C6" t="n">
         <v>139.9</v>
       </c>
-      <c r="C6" t="n">
-        <v>141.8</v>
-      </c>
       <c r="D6" t="n">
-        <v>141.8</v>
+        <v>139.9</v>
       </c>
       <c r="E6" t="n">
-        <v>139.8</v>
+        <v>138.8</v>
       </c>
       <c r="F6" t="n">
-        <v>7109.338</v>
+        <v>2250</v>
       </c>
       <c r="G6" t="n">
-        <v>62191.43439999998</v>
+        <v>171276.2498</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>138.1</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>135.2</v>
+        <v>138.1</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>138.1</v>
       </c>
       <c r="D7" t="n">
-        <v>141</v>
+        <v>138.1</v>
       </c>
       <c r="E7" t="n">
-        <v>134.2</v>
+        <v>138.1</v>
       </c>
       <c r="F7" t="n">
-        <v>8959.034900000001</v>
+        <v>663.3952</v>
       </c>
       <c r="G7" t="n">
-        <v>53232.39949999998</v>
+        <v>170612.8546</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="C8" t="n">
         <v>138</v>
       </c>
-      <c r="C8" t="n">
-        <v>141.7</v>
-      </c>
       <c r="D8" t="n">
-        <v>141.7</v>
+        <v>138.1</v>
       </c>
       <c r="E8" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
-        <v>14074.7718</v>
+        <v>19719.7641</v>
       </c>
       <c r="G8" t="n">
-        <v>67307.17129999999</v>
+        <v>150893.0905</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" t="n">
-        <v>137</v>
+        <v>138.6</v>
       </c>
       <c r="D9" t="n">
-        <v>137</v>
+        <v>138.6</v>
       </c>
       <c r="E9" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" t="n">
-        <v>42.4803</v>
+        <v>791.7917</v>
       </c>
       <c r="G9" t="n">
-        <v>67264.69099999999</v>
+        <v>151684.8822</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>138</v>
+      </c>
+      <c r="K9" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="C10" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="D10" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="E10" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="F10" t="n">
-        <v>381.6539</v>
+        <v>646.0684</v>
       </c>
       <c r="G10" t="n">
-        <v>67646.3449</v>
+        <v>151038.8138</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="C11" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="D11" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="E11" t="n">
-        <v>141.9</v>
+        <v>138</v>
       </c>
       <c r="F11" t="n">
-        <v>11.1391</v>
+        <v>189.3627</v>
       </c>
       <c r="G11" t="n">
-        <v>67646.3449</v>
+        <v>151038.8138</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>138</v>
+      </c>
+      <c r="K11" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136.1</v>
+        <v>139.9</v>
       </c>
       <c r="C12" t="n">
-        <v>143</v>
+        <v>142.2</v>
       </c>
       <c r="D12" t="n">
-        <v>143</v>
+        <v>142.2</v>
       </c>
       <c r="E12" t="n">
-        <v>136.1</v>
+        <v>139.9</v>
       </c>
       <c r="F12" t="n">
-        <v>2866.4781</v>
+        <v>856.6769</v>
       </c>
       <c r="G12" t="n">
-        <v>70512.82299999999</v>
+        <v>151895.4907</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>138</v>
+      </c>
+      <c r="K12" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>138.1</v>
+        <v>141.1</v>
       </c>
       <c r="C13" t="n">
-        <v>138.1</v>
+        <v>141.1</v>
       </c>
       <c r="D13" t="n">
-        <v>138.1</v>
+        <v>141.1</v>
       </c>
       <c r="E13" t="n">
-        <v>138.1</v>
+        <v>141.1</v>
       </c>
       <c r="F13" t="n">
-        <v>333.1391</v>
+        <v>1250</v>
       </c>
       <c r="G13" t="n">
-        <v>70179.68389999999</v>
+        <v>150645.4907</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140.8</v>
+        <v>139</v>
       </c>
       <c r="C14" t="n">
-        <v>140.8</v>
+        <v>139</v>
       </c>
       <c r="D14" t="n">
-        <v>140.8</v>
+        <v>139</v>
       </c>
       <c r="E14" t="n">
-        <v>140.8</v>
+        <v>139</v>
       </c>
       <c r="F14" t="n">
-        <v>325.7569</v>
+        <v>928.9556</v>
       </c>
       <c r="G14" t="n">
-        <v>70505.44079999998</v>
+        <v>149716.5351</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C15" t="n">
-        <v>144.6</v>
+        <v>141.3</v>
       </c>
       <c r="D15" t="n">
-        <v>144.6</v>
+        <v>141.3</v>
       </c>
       <c r="E15" t="n">
-        <v>132.7</v>
+        <v>140</v>
       </c>
       <c r="F15" t="n">
-        <v>21491.0812</v>
+        <v>2696.6505</v>
       </c>
       <c r="G15" t="n">
-        <v>91996.52199999998</v>
+        <v>152413.1856</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>139</v>
+      </c>
+      <c r="K15" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>136.1</v>
+        <v>141.3</v>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>141.3</v>
       </c>
       <c r="D16" t="n">
-        <v>144.1</v>
+        <v>141.3</v>
       </c>
       <c r="E16" t="n">
-        <v>132.4</v>
+        <v>141.3</v>
       </c>
       <c r="F16" t="n">
-        <v>38000.9492</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>53995.57279999998</v>
+        <v>152413.1856</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>141</v>
+        <v>141.3</v>
       </c>
       <c r="C17" t="n">
-        <v>141</v>
+        <v>139.1</v>
       </c>
       <c r="D17" t="n">
-        <v>141</v>
+        <v>142.3</v>
       </c>
       <c r="E17" t="n">
-        <v>141</v>
+        <v>139.1</v>
       </c>
       <c r="F17" t="n">
-        <v>843.58</v>
+        <v>1816.0803</v>
       </c>
       <c r="G17" t="n">
-        <v>53151.99279999998</v>
+        <v>150597.1053</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>137.1</v>
+        <v>141.3</v>
       </c>
       <c r="C18" t="n">
-        <v>137.1</v>
+        <v>141.3</v>
       </c>
       <c r="D18" t="n">
-        <v>137.1</v>
+        <v>141.3</v>
       </c>
       <c r="E18" t="n">
-        <v>137.1</v>
+        <v>141.3</v>
       </c>
       <c r="F18" t="n">
-        <v>121.776</v>
+        <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>53030.21679999998</v>
+        <v>151097.1053</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>136.7</v>
+        <v>141.3</v>
       </c>
       <c r="C19" t="n">
-        <v>146</v>
+        <v>142.3</v>
       </c>
       <c r="D19" t="n">
-        <v>146</v>
+        <v>142.3</v>
       </c>
       <c r="E19" t="n">
-        <v>136.7</v>
+        <v>141.3</v>
       </c>
       <c r="F19" t="n">
-        <v>36325.554</v>
+        <v>8428.125</v>
       </c>
       <c r="G19" t="n">
-        <v>89355.77079999997</v>
+        <v>159525.2303</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>139.1</v>
+        <v>142.3</v>
       </c>
       <c r="C20" t="n">
-        <v>139.1</v>
+        <v>142.4</v>
       </c>
       <c r="D20" t="n">
-        <v>139.1</v>
+        <v>142.4</v>
       </c>
       <c r="E20" t="n">
-        <v>139.1</v>
+        <v>142.3</v>
       </c>
       <c r="F20" t="n">
-        <v>459.584</v>
+        <v>13771.5814</v>
       </c>
       <c r="G20" t="n">
-        <v>88896.18679999997</v>
+        <v>173296.8117</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>135.1</v>
+        <v>142.4</v>
       </c>
       <c r="C21" t="n">
-        <v>135.1</v>
+        <v>142.4</v>
       </c>
       <c r="D21" t="n">
-        <v>135.1</v>
+        <v>142.4</v>
       </c>
       <c r="E21" t="n">
-        <v>135.1</v>
+        <v>142.4</v>
       </c>
       <c r="F21" t="n">
-        <v>90.4109</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="n">
-        <v>88805.77589999996</v>
+        <v>173296.8117</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>137.1</v>
+        <v>142.4</v>
       </c>
       <c r="C22" t="n">
-        <v>143.7</v>
+        <v>142.4</v>
       </c>
       <c r="D22" t="n">
-        <v>143.7</v>
+        <v>142.4</v>
       </c>
       <c r="E22" t="n">
-        <v>136.1</v>
+        <v>142.4</v>
       </c>
       <c r="F22" t="n">
-        <v>6152.4859</v>
+        <v>11051.2282</v>
       </c>
       <c r="G22" t="n">
-        <v>94958.26179999996</v>
+        <v>173296.8117</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>138</v>
+        <v>142.4</v>
       </c>
       <c r="C23" t="n">
-        <v>138</v>
+        <v>142.4</v>
       </c>
       <c r="D23" t="n">
-        <v>138</v>
+        <v>142.4</v>
       </c>
       <c r="E23" t="n">
-        <v>138</v>
+        <v>142.4</v>
       </c>
       <c r="F23" t="n">
-        <v>554.0168</v>
+        <v>800.4399</v>
       </c>
       <c r="G23" t="n">
-        <v>94404.24499999997</v>
+        <v>173296.8117</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>134.1</v>
+        <v>142.4</v>
       </c>
       <c r="C24" t="n">
-        <v>140.6</v>
+        <v>148.4</v>
       </c>
       <c r="D24" t="n">
-        <v>140.6</v>
+        <v>148.4</v>
       </c>
       <c r="E24" t="n">
-        <v>134.1</v>
+        <v>142.4</v>
       </c>
       <c r="F24" t="n">
-        <v>22550.4375</v>
+        <v>16705.8373</v>
       </c>
       <c r="G24" t="n">
-        <v>116954.6825</v>
+        <v>190002.649</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>135.2</v>
+        <v>145</v>
       </c>
       <c r="C25" t="n">
-        <v>135.2</v>
+        <v>143</v>
       </c>
       <c r="D25" t="n">
-        <v>135.2</v>
+        <v>145</v>
       </c>
       <c r="E25" t="n">
-        <v>135.2</v>
+        <v>138.1</v>
       </c>
       <c r="F25" t="n">
-        <v>716.925</v>
+        <v>6571.1729</v>
       </c>
       <c r="G25" t="n">
-        <v>116237.7575</v>
+        <v>183431.4761</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1262,37 +1458,42 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6</v>
+        <v>148.4</v>
       </c>
       <c r="K25" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+        <v>138.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>135.2</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
-        <v>142.1</v>
+        <v>144</v>
       </c>
       <c r="D26" t="n">
-        <v>142.1</v>
+        <v>144</v>
       </c>
       <c r="E26" t="n">
-        <v>133.3</v>
+        <v>144</v>
       </c>
       <c r="F26" t="n">
-        <v>23177.7824</v>
+        <v>549.3252</v>
       </c>
       <c r="G26" t="n">
-        <v>139415.5399</v>
+        <v>183980.8013</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,50 +1503,49 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C27" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D27" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E27" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F27" t="n">
-        <v>629</v>
+        <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>138786.5399</v>
+        <v>184480.8013</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>142.1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1355,28 +1555,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C28" t="n">
-        <v>139</v>
+        <v>144.7</v>
       </c>
       <c r="D28" t="n">
-        <v>139</v>
+        <v>144.7</v>
       </c>
       <c r="E28" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F28" t="n">
-        <v>538.242</v>
+        <v>2745.452</v>
       </c>
       <c r="G28" t="n">
-        <v>139324.7819</v>
+        <v>181735.3493</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1386,7 +1587,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1396,28 +1597,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>136.2</v>
+        <v>144.7</v>
       </c>
       <c r="C29" t="n">
-        <v>139</v>
+        <v>145.7</v>
       </c>
       <c r="D29" t="n">
-        <v>139</v>
+        <v>145.7</v>
       </c>
       <c r="E29" t="n">
-        <v>135.6</v>
+        <v>144.7</v>
       </c>
       <c r="F29" t="n">
-        <v>6155.4234</v>
+        <v>1412.3558</v>
       </c>
       <c r="G29" t="n">
-        <v>139324.7819</v>
+        <v>183147.7051</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1427,7 +1629,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1437,40 +1639,39 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>138.8</v>
+        <v>145</v>
       </c>
       <c r="C30" t="n">
-        <v>139.8</v>
+        <v>145.9</v>
       </c>
       <c r="D30" t="n">
-        <v>139.8</v>
+        <v>145.9</v>
       </c>
       <c r="E30" t="n">
-        <v>138.8</v>
+        <v>145</v>
       </c>
       <c r="F30" t="n">
-        <v>2083.212</v>
+        <v>500</v>
       </c>
       <c r="G30" t="n">
-        <v>141407.9939</v>
+        <v>183647.7051</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>139</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1480,40 +1681,39 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="C31" t="n">
-        <v>143.4</v>
+        <v>145.9</v>
       </c>
       <c r="D31" t="n">
-        <v>143.4</v>
+        <v>145.9</v>
       </c>
       <c r="E31" t="n">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="F31" t="n">
-        <v>9362.433999999999</v>
+        <v>1306.6161</v>
       </c>
       <c r="G31" t="n">
-        <v>150770.4279</v>
+        <v>183647.7051</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>139.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1523,40 +1723,39 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>141.4</v>
+        <v>146</v>
       </c>
       <c r="C32" t="n">
-        <v>141.4</v>
+        <v>146</v>
       </c>
       <c r="D32" t="n">
-        <v>141.4</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
-        <v>141.4</v>
+        <v>146</v>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="G32" t="n">
-        <v>150520.4279</v>
+        <v>184220.7051</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>143.4</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1566,28 +1765,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>141.1</v>
+        <v>146</v>
       </c>
       <c r="C33" t="n">
-        <v>141.1</v>
+        <v>146</v>
       </c>
       <c r="D33" t="n">
-        <v>141.1</v>
+        <v>146</v>
       </c>
       <c r="E33" t="n">
-        <v>141.1</v>
+        <v>146</v>
       </c>
       <c r="F33" t="n">
-        <v>620.9281999999999</v>
+        <v>13474.8231</v>
       </c>
       <c r="G33" t="n">
-        <v>149899.4997</v>
+        <v>184220.7051</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1597,7 +1797,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1607,28 +1807,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>139.8</v>
+        <v>145.9</v>
       </c>
       <c r="C34" t="n">
-        <v>142.4</v>
+        <v>146</v>
       </c>
       <c r="D34" t="n">
-        <v>142.4</v>
+        <v>146</v>
       </c>
       <c r="E34" t="n">
-        <v>135.6</v>
+        <v>145.9</v>
       </c>
       <c r="F34" t="n">
-        <v>10122.7757</v>
+        <v>672.0431</v>
       </c>
       <c r="G34" t="n">
-        <v>160022.2754</v>
+        <v>184220.7051</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1638,7 +1839,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1648,40 +1849,39 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>139.3</v>
+        <v>146</v>
       </c>
       <c r="C35" t="n">
-        <v>139.3</v>
+        <v>146</v>
       </c>
       <c r="D35" t="n">
-        <v>139.3</v>
+        <v>146</v>
       </c>
       <c r="E35" t="n">
-        <v>139.3</v>
+        <v>146</v>
       </c>
       <c r="F35" t="n">
-        <v>1750</v>
+        <v>475.537</v>
       </c>
       <c r="G35" t="n">
-        <v>158272.2754</v>
+        <v>184220.7051</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>142.4</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1691,28 +1891,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>139.7</v>
+        <v>144.1</v>
       </c>
       <c r="C36" t="n">
-        <v>139.7</v>
+        <v>144.1</v>
       </c>
       <c r="D36" t="n">
-        <v>139.7</v>
+        <v>144.1</v>
       </c>
       <c r="E36" t="n">
-        <v>139.7</v>
+        <v>144.1</v>
       </c>
       <c r="F36" t="n">
-        <v>215</v>
+        <v>1497.0356</v>
       </c>
       <c r="G36" t="n">
-        <v>158487.2754</v>
+        <v>182723.6695</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1722,7 +1923,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1732,28 +1933,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>136.1</v>
+        <v>146</v>
       </c>
       <c r="C37" t="n">
-        <v>136.1</v>
+        <v>146</v>
       </c>
       <c r="D37" t="n">
-        <v>136.1</v>
+        <v>146</v>
       </c>
       <c r="E37" t="n">
-        <v>136.1</v>
+        <v>146</v>
       </c>
       <c r="F37" t="n">
-        <v>261.1482</v>
+        <v>68.7533</v>
       </c>
       <c r="G37" t="n">
-        <v>158226.1272</v>
+        <v>182792.4228</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1763,7 +1965,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1773,28 +1975,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>135.6</v>
+        <v>146</v>
       </c>
       <c r="C38" t="n">
-        <v>139.8</v>
+        <v>146</v>
       </c>
       <c r="D38" t="n">
-        <v>139.8</v>
+        <v>146</v>
       </c>
       <c r="E38" t="n">
-        <v>135.6</v>
+        <v>146</v>
       </c>
       <c r="F38" t="n">
-        <v>6037.2534</v>
+        <v>181.212</v>
       </c>
       <c r="G38" t="n">
-        <v>164263.3806</v>
+        <v>182792.4228</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1804,7 +2007,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1814,28 +2017,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>135.5</v>
+        <v>146</v>
       </c>
       <c r="C39" t="n">
-        <v>139.8</v>
+        <v>146</v>
       </c>
       <c r="D39" t="n">
-        <v>140.8</v>
+        <v>146</v>
       </c>
       <c r="E39" t="n">
-        <v>135.5</v>
+        <v>146</v>
       </c>
       <c r="F39" t="n">
-        <v>6586.384</v>
+        <v>398.502</v>
       </c>
       <c r="G39" t="n">
-        <v>164263.3806</v>
+        <v>182792.4228</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1845,7 +2049,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1855,28 +2059,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>139.8</v>
+        <v>146</v>
       </c>
       <c r="C40" t="n">
-        <v>142.4</v>
+        <v>146</v>
       </c>
       <c r="D40" t="n">
-        <v>142.4</v>
+        <v>146</v>
       </c>
       <c r="E40" t="n">
-        <v>139.8</v>
+        <v>146</v>
       </c>
       <c r="F40" t="n">
-        <v>4459</v>
+        <v>210</v>
       </c>
       <c r="G40" t="n">
-        <v>168722.3806</v>
+        <v>182792.4228</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1886,7 +2091,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1896,28 +2101,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>138.2</v>
+        <v>146</v>
       </c>
       <c r="C41" t="n">
-        <v>138.2</v>
+        <v>146</v>
       </c>
       <c r="D41" t="n">
-        <v>138.2</v>
+        <v>146</v>
       </c>
       <c r="E41" t="n">
-        <v>138.2</v>
+        <v>146</v>
       </c>
       <c r="F41" t="n">
-        <v>387.9651</v>
+        <v>12300.165</v>
       </c>
       <c r="G41" t="n">
-        <v>168334.4155</v>
+        <v>182792.4228</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1927,7 +2133,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1937,28 +2143,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>141.4</v>
+        <v>146</v>
       </c>
       <c r="C42" t="n">
-        <v>142.4</v>
+        <v>145.2</v>
       </c>
       <c r="D42" t="n">
-        <v>142.4</v>
+        <v>148.8</v>
       </c>
       <c r="E42" t="n">
-        <v>141.4</v>
+        <v>145.2</v>
       </c>
       <c r="F42" t="n">
-        <v>1138</v>
+        <v>11137.208</v>
       </c>
       <c r="G42" t="n">
-        <v>169472.4155</v>
+        <v>171655.2148</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1968,7 +2175,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1978,28 +2185,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C43" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D43" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E43" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F43" t="n">
-        <v>568.0684</v>
+        <v>528.1299</v>
       </c>
       <c r="G43" t="n">
-        <v>168904.3471</v>
+        <v>172183.3447</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2009,7 +2217,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2019,28 +2227,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>138</v>
+        <v>145.3</v>
       </c>
       <c r="C44" t="n">
-        <v>138</v>
+        <v>146.9</v>
       </c>
       <c r="D44" t="n">
-        <v>138</v>
+        <v>146.9</v>
       </c>
       <c r="E44" t="n">
-        <v>138</v>
+        <v>145.3</v>
       </c>
       <c r="F44" t="n">
-        <v>287.4627</v>
+        <v>5281.5369</v>
       </c>
       <c r="G44" t="n">
-        <v>169191.8098</v>
+        <v>177464.8816</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2050,7 +2259,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2060,28 +2269,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>140.1</v>
+        <v>146.9</v>
       </c>
       <c r="C45" t="n">
-        <v>140</v>
+        <v>146.9</v>
       </c>
       <c r="D45" t="n">
-        <v>140.2</v>
+        <v>146.9</v>
       </c>
       <c r="E45" t="n">
-        <v>140</v>
+        <v>146.9</v>
       </c>
       <c r="F45" t="n">
-        <v>2161.01</v>
+        <v>664.127</v>
       </c>
       <c r="G45" t="n">
-        <v>171352.8198</v>
+        <v>177464.8816</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2091,7 +2301,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2101,28 +2311,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>146.9</v>
       </c>
       <c r="D46" t="n">
-        <v>140</v>
+        <v>146.9</v>
       </c>
       <c r="E46" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F46" t="n">
-        <v>1592.73</v>
+        <v>1087.5068</v>
       </c>
       <c r="G46" t="n">
-        <v>171352.8198</v>
+        <v>177464.8816</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2132,7 +2343,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2142,28 +2353,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>139.1</v>
+        <v>146.9</v>
       </c>
       <c r="C47" t="n">
-        <v>138.1</v>
+        <v>151.3</v>
       </c>
       <c r="D47" t="n">
-        <v>139.1</v>
+        <v>151.3</v>
       </c>
       <c r="E47" t="n">
-        <v>138.1</v>
+        <v>146.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2326.57</v>
+        <v>19162.6568</v>
       </c>
       <c r="G47" t="n">
-        <v>169026.2498</v>
+        <v>196627.5384</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2173,7 +2385,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2183,28 +2395,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>138.9</v>
+        <v>151.3</v>
       </c>
       <c r="C48" t="n">
-        <v>139.9</v>
+        <v>151.3</v>
       </c>
       <c r="D48" t="n">
-        <v>139.9</v>
+        <v>151.3</v>
       </c>
       <c r="E48" t="n">
-        <v>138.8</v>
+        <v>151.3</v>
       </c>
       <c r="F48" t="n">
-        <v>2250</v>
+        <v>498.9789</v>
       </c>
       <c r="G48" t="n">
-        <v>171276.2498</v>
+        <v>196627.5384</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2214,7 +2427,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2224,28 +2437,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>138.1</v>
+        <v>151.3</v>
       </c>
       <c r="C49" t="n">
-        <v>138.1</v>
+        <v>151.8</v>
       </c>
       <c r="D49" t="n">
-        <v>138.1</v>
+        <v>151.8</v>
       </c>
       <c r="E49" t="n">
-        <v>138.1</v>
+        <v>151.3</v>
       </c>
       <c r="F49" t="n">
-        <v>663.3952</v>
+        <v>2129</v>
       </c>
       <c r="G49" t="n">
-        <v>170612.8546</v>
+        <v>198756.5384</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2255,7 +2469,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2265,28 +2479,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>138.1</v>
+        <v>151.8</v>
       </c>
       <c r="C50" t="n">
-        <v>138</v>
+        <v>151.8</v>
       </c>
       <c r="D50" t="n">
-        <v>138.1</v>
+        <v>151.8</v>
       </c>
       <c r="E50" t="n">
-        <v>138</v>
+        <v>151.8</v>
       </c>
       <c r="F50" t="n">
-        <v>19719.7641</v>
+        <v>72.63549999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>150893.0905</v>
+        <v>198756.5384</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2296,7 +2511,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2306,28 +2521,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>138</v>
+        <v>151.9</v>
       </c>
       <c r="C51" t="n">
-        <v>138.6</v>
+        <v>151.8</v>
       </c>
       <c r="D51" t="n">
-        <v>138.6</v>
+        <v>155</v>
       </c>
       <c r="E51" t="n">
-        <v>138</v>
+        <v>151.8</v>
       </c>
       <c r="F51" t="n">
-        <v>791.7917</v>
+        <v>6859.8678</v>
       </c>
       <c r="G51" t="n">
-        <v>151684.8822</v>
+        <v>198756.5384</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2337,7 +2553,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2347,28 +2563,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>138</v>
+        <v>154.2</v>
       </c>
       <c r="C52" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D52" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E52" t="n">
-        <v>138</v>
+        <v>154.1</v>
       </c>
       <c r="F52" t="n">
-        <v>646.0684</v>
+        <v>2501.5612</v>
       </c>
       <c r="G52" t="n">
-        <v>151038.8138</v>
+        <v>201258.0996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2378,7 +2595,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2388,28 +2605,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C53" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D53" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E53" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F53" t="n">
-        <v>189.3627</v>
+        <v>250</v>
       </c>
       <c r="G53" t="n">
-        <v>151038.8138</v>
+        <v>201258.0996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2419,7 +2637,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2429,28 +2647,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>139.9</v>
+        <v>155</v>
       </c>
       <c r="C54" t="n">
-        <v>142.2</v>
+        <v>155</v>
       </c>
       <c r="D54" t="n">
-        <v>142.2</v>
+        <v>155</v>
       </c>
       <c r="E54" t="n">
-        <v>139.9</v>
+        <v>155</v>
       </c>
       <c r="F54" t="n">
-        <v>856.6769</v>
+        <v>2743.0748</v>
       </c>
       <c r="G54" t="n">
-        <v>151895.4907</v>
+        <v>201258.0996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2460,7 +2679,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2470,28 +2689,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>141.1</v>
+        <v>154.9</v>
       </c>
       <c r="C55" t="n">
-        <v>141.1</v>
+        <v>154.9</v>
       </c>
       <c r="D55" t="n">
-        <v>141.1</v>
+        <v>154.9</v>
       </c>
       <c r="E55" t="n">
-        <v>141.1</v>
+        <v>154.9</v>
       </c>
       <c r="F55" t="n">
-        <v>1250</v>
+        <v>65</v>
       </c>
       <c r="G55" t="n">
-        <v>150645.4907</v>
+        <v>201193.0996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2501,7 +2721,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2511,28 +2731,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>139</v>
+        <v>154.9</v>
       </c>
       <c r="C56" t="n">
-        <v>139</v>
+        <v>154.9</v>
       </c>
       <c r="D56" t="n">
-        <v>139</v>
+        <v>154.9</v>
       </c>
       <c r="E56" t="n">
-        <v>139</v>
+        <v>154.9</v>
       </c>
       <c r="F56" t="n">
-        <v>928.9556</v>
+        <v>631.7403</v>
       </c>
       <c r="G56" t="n">
-        <v>149716.5351</v>
+        <v>201193.0996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2542,7 +2763,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2552,28 +2773,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C57" t="n">
-        <v>141.3</v>
+        <v>157</v>
       </c>
       <c r="D57" t="n">
-        <v>141.3</v>
+        <v>157</v>
       </c>
       <c r="E57" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F57" t="n">
-        <v>2696.6505</v>
+        <v>250</v>
       </c>
       <c r="G57" t="n">
-        <v>152413.1856</v>
+        <v>201443.0996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2583,7 +2805,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2593,28 +2815,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>141.3</v>
+        <v>156</v>
       </c>
       <c r="C58" t="n">
-        <v>141.3</v>
+        <v>156.9</v>
       </c>
       <c r="D58" t="n">
-        <v>141.3</v>
+        <v>156.9</v>
       </c>
       <c r="E58" t="n">
-        <v>141.3</v>
+        <v>156</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>1416.6719</v>
       </c>
       <c r="G58" t="n">
-        <v>152413.1856</v>
+        <v>200026.4277</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2624,7 +2847,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2634,28 +2857,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>141.3</v>
+        <v>154.1</v>
       </c>
       <c r="C59" t="n">
-        <v>139.1</v>
+        <v>154.1</v>
       </c>
       <c r="D59" t="n">
-        <v>142.3</v>
+        <v>154.1</v>
       </c>
       <c r="E59" t="n">
-        <v>139.1</v>
+        <v>154.1</v>
       </c>
       <c r="F59" t="n">
-        <v>1816.0803</v>
+        <v>80</v>
       </c>
       <c r="G59" t="n">
-        <v>150597.1053</v>
+        <v>199946.4277</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2665,7 +2889,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2675,28 +2899,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>141.3</v>
+        <v>152.3</v>
       </c>
       <c r="C60" t="n">
-        <v>141.3</v>
+        <v>152.3</v>
       </c>
       <c r="D60" t="n">
-        <v>141.3</v>
+        <v>152.3</v>
       </c>
       <c r="E60" t="n">
-        <v>141.3</v>
+        <v>152.3</v>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>212.502</v>
       </c>
       <c r="G60" t="n">
-        <v>151097.1053</v>
+        <v>199733.9257</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2706,7 +2931,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2716,28 +2941,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>141.3</v>
+        <v>147.2</v>
       </c>
       <c r="C61" t="n">
-        <v>142.3</v>
+        <v>151.6</v>
       </c>
       <c r="D61" t="n">
-        <v>142.3</v>
+        <v>151.6</v>
       </c>
       <c r="E61" t="n">
-        <v>141.3</v>
+        <v>146.2</v>
       </c>
       <c r="F61" t="n">
-        <v>8428.125</v>
+        <v>3987.5915</v>
       </c>
       <c r="G61" t="n">
-        <v>159525.2303</v>
+        <v>195746.3342</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2747,7 +2973,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2757,28 +2983,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>142.3</v>
+        <v>151.1</v>
       </c>
       <c r="C62" t="n">
-        <v>142.4</v>
+        <v>151</v>
       </c>
       <c r="D62" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="E62" t="n">
-        <v>142.3</v>
+        <v>150</v>
       </c>
       <c r="F62" t="n">
-        <v>13771.5814</v>
+        <v>1020</v>
       </c>
       <c r="G62" t="n">
-        <v>173296.8117</v>
+        <v>194726.3342</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2788,7 +3015,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2798,28 +3025,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="C63" t="n">
-        <v>142.4</v>
+        <v>149</v>
       </c>
       <c r="D63" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="E63" t="n">
-        <v>142.4</v>
+        <v>149</v>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>509.1069</v>
       </c>
       <c r="G63" t="n">
-        <v>173296.8117</v>
+        <v>194217.2272999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2829,7 +3057,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2839,28 +3067,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="C64" t="n">
-        <v>142.4</v>
+        <v>147.3</v>
       </c>
       <c r="D64" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="E64" t="n">
-        <v>142.4</v>
+        <v>147.3</v>
       </c>
       <c r="F64" t="n">
-        <v>11051.2282</v>
+        <v>2905.811</v>
       </c>
       <c r="G64" t="n">
-        <v>173296.8117</v>
+        <v>191311.4163</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2870,7 +3099,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2880,28 +3109,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>142.4</v>
+        <v>148.3</v>
       </c>
       <c r="C65" t="n">
-        <v>142.4</v>
+        <v>154</v>
       </c>
       <c r="D65" t="n">
-        <v>142.4</v>
+        <v>154</v>
       </c>
       <c r="E65" t="n">
-        <v>142.4</v>
+        <v>147</v>
       </c>
       <c r="F65" t="n">
-        <v>800.4399</v>
+        <v>3626.4642</v>
       </c>
       <c r="G65" t="n">
-        <v>173296.8117</v>
+        <v>194937.8804999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2911,7 +3141,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2921,28 +3151,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="C66" t="n">
-        <v>148.4</v>
+        <v>152</v>
       </c>
       <c r="D66" t="n">
-        <v>148.4</v>
+        <v>152</v>
       </c>
       <c r="E66" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="F66" t="n">
-        <v>16705.8373</v>
+        <v>750</v>
       </c>
       <c r="G66" t="n">
-        <v>190002.649</v>
+        <v>194187.8804999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2952,7 +3183,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2962,28 +3193,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>145</v>
+        <v>151.9</v>
       </c>
       <c r="C67" t="n">
-        <v>143</v>
+        <v>151.9</v>
       </c>
       <c r="D67" t="n">
-        <v>145</v>
+        <v>151.9</v>
       </c>
       <c r="E67" t="n">
-        <v>138.1</v>
+        <v>151.9</v>
       </c>
       <c r="F67" t="n">
-        <v>6571.1729</v>
+        <v>256</v>
       </c>
       <c r="G67" t="n">
-        <v>183431.4761</v>
+        <v>193931.8804999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2993,7 +3225,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3003,28 +3235,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>144</v>
+        <v>151.6</v>
       </c>
       <c r="C68" t="n">
-        <v>144</v>
+        <v>151.6</v>
       </c>
       <c r="D68" t="n">
-        <v>144</v>
+        <v>151.6</v>
       </c>
       <c r="E68" t="n">
-        <v>144</v>
+        <v>151.6</v>
       </c>
       <c r="F68" t="n">
-        <v>549.3252</v>
+        <v>237.9924</v>
       </c>
       <c r="G68" t="n">
-        <v>183980.8013</v>
+        <v>193693.8881</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3034,7 +3267,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3044,28 +3277,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C69" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D69" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E69" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F69" t="n">
         <v>500</v>
       </c>
       <c r="G69" t="n">
-        <v>184480.8013</v>
+        <v>193193.8881</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3075,7 +3309,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3085,28 +3319,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>143</v>
+        <v>147.7</v>
       </c>
       <c r="C70" t="n">
-        <v>144.7</v>
+        <v>147.7</v>
       </c>
       <c r="D70" t="n">
-        <v>144.7</v>
+        <v>147.7</v>
       </c>
       <c r="E70" t="n">
-        <v>143</v>
+        <v>147.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2745.452</v>
+        <v>1140.07</v>
       </c>
       <c r="G70" t="n">
-        <v>181735.3493</v>
+        <v>192053.8180999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3116,7 +3351,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3126,28 +3361,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>144.7</v>
+        <v>145.7</v>
       </c>
       <c r="C71" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="D71" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="E71" t="n">
         <v>145.7</v>
       </c>
-      <c r="D71" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="E71" t="n">
-        <v>144.7</v>
-      </c>
       <c r="F71" t="n">
-        <v>1412.3558</v>
+        <v>850</v>
       </c>
       <c r="G71" t="n">
-        <v>183147.7051</v>
+        <v>191203.8180999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3157,7 +3393,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3167,28 +3403,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>145</v>
+        <v>144.2</v>
       </c>
       <c r="C72" t="n">
-        <v>145.9</v>
+        <v>144</v>
       </c>
       <c r="D72" t="n">
-        <v>145.9</v>
+        <v>144.2</v>
       </c>
       <c r="E72" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" t="n">
-        <v>500</v>
+        <v>55.8635</v>
       </c>
       <c r="G72" t="n">
-        <v>183647.7051</v>
+        <v>191147.9545999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3198,7 +3435,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3208,28 +3445,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>145</v>
+        <v>142.9</v>
       </c>
       <c r="C73" t="n">
-        <v>145.9</v>
+        <v>142.9</v>
       </c>
       <c r="D73" t="n">
-        <v>145.9</v>
+        <v>142.9</v>
       </c>
       <c r="E73" t="n">
-        <v>145</v>
+        <v>142.9</v>
       </c>
       <c r="F73" t="n">
-        <v>1306.6161</v>
+        <v>40.2217</v>
       </c>
       <c r="G73" t="n">
-        <v>183647.7051</v>
+        <v>191107.7328999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3239,7 +3477,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3249,28 +3487,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C74" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D74" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E74" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F74" t="n">
-        <v>573</v>
+        <v>1043.9848</v>
       </c>
       <c r="G74" t="n">
-        <v>184220.7051</v>
+        <v>192151.7177</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3280,7 +3519,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3290,28 +3529,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>146</v>
+        <v>141.1</v>
       </c>
       <c r="C75" t="n">
         <v>146</v>
       </c>
       <c r="D75" t="n">
-        <v>146</v>
+        <v>149.9</v>
       </c>
       <c r="E75" t="n">
-        <v>146</v>
+        <v>141.1</v>
       </c>
       <c r="F75" t="n">
-        <v>13474.8231</v>
+        <v>7156.51</v>
       </c>
       <c r="G75" t="n">
-        <v>184220.7051</v>
+        <v>199308.2277</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3321,7 +3561,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3331,28 +3571,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>145.9</v>
+        <v>146.1</v>
       </c>
       <c r="C76" t="n">
-        <v>146</v>
+        <v>144.1</v>
       </c>
       <c r="D76" t="n">
-        <v>146</v>
+        <v>146.1</v>
       </c>
       <c r="E76" t="n">
-        <v>145.9</v>
+        <v>144</v>
       </c>
       <c r="F76" t="n">
-        <v>672.0431</v>
+        <v>568.283</v>
       </c>
       <c r="G76" t="n">
-        <v>184220.7051</v>
+        <v>198739.9447</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3362,7 +3603,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3372,28 +3613,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="C77" t="n">
-        <v>146</v>
+        <v>146.5</v>
       </c>
       <c r="D77" t="n">
-        <v>146</v>
+        <v>146.5</v>
       </c>
       <c r="E77" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="F77" t="n">
-        <v>475.537</v>
+        <v>690</v>
       </c>
       <c r="G77" t="n">
-        <v>184220.7051</v>
+        <v>199429.9447</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3403,7 +3645,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3413,28 +3655,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>144.1</v>
+        <v>145.4</v>
       </c>
       <c r="C78" t="n">
-        <v>144.1</v>
+        <v>145.4</v>
       </c>
       <c r="D78" t="n">
-        <v>144.1</v>
+        <v>145.4</v>
       </c>
       <c r="E78" t="n">
-        <v>144.1</v>
+        <v>145.4</v>
       </c>
       <c r="F78" t="n">
-        <v>1497.0356</v>
+        <v>13.5302</v>
       </c>
       <c r="G78" t="n">
-        <v>182723.6695</v>
+        <v>199416.4145</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3444,7 +3687,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3454,28 +3697,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>146</v>
+        <v>145.4</v>
       </c>
       <c r="C79" t="n">
-        <v>146</v>
+        <v>145.4</v>
       </c>
       <c r="D79" t="n">
-        <v>146</v>
+        <v>145.4</v>
       </c>
       <c r="E79" t="n">
-        <v>146</v>
+        <v>145.4</v>
       </c>
       <c r="F79" t="n">
-        <v>68.7533</v>
+        <v>1320.7198</v>
       </c>
       <c r="G79" t="n">
-        <v>182792.4228</v>
+        <v>199416.4145</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3485,7 +3729,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3495,28 +3739,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>146</v>
+        <v>145.1</v>
       </c>
       <c r="C80" t="n">
-        <v>146</v>
+        <v>145.1</v>
       </c>
       <c r="D80" t="n">
-        <v>146</v>
+        <v>145.1</v>
       </c>
       <c r="E80" t="n">
-        <v>146</v>
+        <v>145.1</v>
       </c>
       <c r="F80" t="n">
-        <v>181.212</v>
+        <v>1334.25</v>
       </c>
       <c r="G80" t="n">
-        <v>182792.4228</v>
+        <v>198082.1645</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3526,7 +3771,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3536,28 +3781,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>146</v>
+        <v>145.4</v>
       </c>
       <c r="C81" t="n">
-        <v>146</v>
+        <v>147.3</v>
       </c>
       <c r="D81" t="n">
-        <v>146</v>
+        <v>147.3</v>
       </c>
       <c r="E81" t="n">
-        <v>146</v>
+        <v>145.4</v>
       </c>
       <c r="F81" t="n">
-        <v>398.502</v>
+        <v>3545.555</v>
       </c>
       <c r="G81" t="n">
-        <v>182792.4228</v>
+        <v>201627.7194999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3567,7 +3813,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3577,28 +3823,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>146</v>
+        <v>147.3</v>
       </c>
       <c r="C82" t="n">
-        <v>146</v>
+        <v>147.3</v>
       </c>
       <c r="D82" t="n">
-        <v>146</v>
+        <v>147.3</v>
       </c>
       <c r="E82" t="n">
-        <v>146</v>
+        <v>147.3</v>
       </c>
       <c r="F82" t="n">
-        <v>210</v>
+        <v>291.832</v>
       </c>
       <c r="G82" t="n">
-        <v>182792.4228</v>
+        <v>201627.7194999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3608,7 +3855,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3618,28 +3865,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C83" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D83" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E83" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F83" t="n">
-        <v>12300.165</v>
+        <v>500</v>
       </c>
       <c r="G83" t="n">
-        <v>182792.4228</v>
+        <v>202127.7194999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3649,7 +3897,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3659,28 +3907,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>146</v>
+        <v>150.1</v>
       </c>
       <c r="C84" t="n">
-        <v>145.2</v>
+        <v>150.1</v>
       </c>
       <c r="D84" t="n">
-        <v>148.8</v>
+        <v>150.1</v>
       </c>
       <c r="E84" t="n">
-        <v>145.2</v>
+        <v>150.1</v>
       </c>
       <c r="F84" t="n">
-        <v>11137.208</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>171655.2148</v>
+        <v>203127.7194999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3690,7 +3939,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3700,46 +3949,50 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C85" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D85" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E85" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F85" t="n">
-        <v>528.1299</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="n">
-        <v>172183.3447</v>
+        <v>202127.7194999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>140.6</v>
+        <v>138.1</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>1.08116944243302</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.015942028985507</v>
       </c>
     </row>
     <row r="86">
@@ -3747,473 +4000,418 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>145.3</v>
+        <v>150</v>
       </c>
       <c r="C86" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="D86" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="E86" t="n">
-        <v>145.3</v>
+        <v>150</v>
       </c>
       <c r="F86" t="n">
-        <v>5281.5369</v>
+        <v>250</v>
       </c>
       <c r="G86" t="n">
-        <v>177464.8816</v>
+        <v>202127.7194999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="C87" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="D87" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="E87" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="F87" t="n">
-        <v>664.127</v>
+        <v>4569.5329</v>
       </c>
       <c r="G87" t="n">
-        <v>177464.8816</v>
+        <v>202127.7194999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C88" t="n">
-        <v>146.9</v>
+        <v>150.9</v>
       </c>
       <c r="D88" t="n">
-        <v>146.9</v>
+        <v>150.9</v>
       </c>
       <c r="E88" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F88" t="n">
-        <v>1087.5068</v>
+        <v>3810</v>
       </c>
       <c r="G88" t="n">
-        <v>177464.8816</v>
+        <v>205937.7194999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="C89" t="n">
-        <v>151.3</v>
+        <v>150</v>
       </c>
       <c r="D89" t="n">
-        <v>151.3</v>
+        <v>150</v>
       </c>
       <c r="E89" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="F89" t="n">
-        <v>19162.6568</v>
+        <v>66.34</v>
       </c>
       <c r="G89" t="n">
-        <v>196627.5384</v>
+        <v>205871.3795</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>151.3</v>
+        <v>150.5</v>
       </c>
       <c r="C90" t="n">
-        <v>151.3</v>
+        <v>150.5</v>
       </c>
       <c r="D90" t="n">
-        <v>151.3</v>
+        <v>150.5</v>
       </c>
       <c r="E90" t="n">
-        <v>151.3</v>
+        <v>150.5</v>
       </c>
       <c r="F90" t="n">
-        <v>498.9789</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>196627.5384</v>
+        <v>205881.3795</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>151.3</v>
+        <v>150</v>
       </c>
       <c r="C91" t="n">
-        <v>151.8</v>
+        <v>150</v>
       </c>
       <c r="D91" t="n">
-        <v>151.8</v>
+        <v>150</v>
       </c>
       <c r="E91" t="n">
-        <v>151.3</v>
+        <v>150</v>
       </c>
       <c r="F91" t="n">
-        <v>2129</v>
+        <v>0.1068</v>
       </c>
       <c r="G91" t="n">
-        <v>198756.5384</v>
+        <v>205881.2726999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>151.8</v>
+        <v>148</v>
       </c>
       <c r="C92" t="n">
-        <v>151.8</v>
+        <v>148</v>
       </c>
       <c r="D92" t="n">
-        <v>151.8</v>
+        <v>148</v>
       </c>
       <c r="E92" t="n">
-        <v>151.8</v>
+        <v>148</v>
       </c>
       <c r="F92" t="n">
-        <v>72.63549999999999</v>
+        <v>346.234</v>
       </c>
       <c r="G92" t="n">
-        <v>198756.5384</v>
+        <v>205535.0386999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>151.9</v>
+        <v>148</v>
       </c>
       <c r="C93" t="n">
-        <v>151.8</v>
+        <v>149</v>
       </c>
       <c r="D93" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E93" t="n">
-        <v>151.8</v>
+        <v>148</v>
       </c>
       <c r="F93" t="n">
-        <v>6859.8678</v>
+        <v>500</v>
       </c>
       <c r="G93" t="n">
-        <v>198756.5384</v>
+        <v>206035.0386999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>154.2</v>
+        <v>147</v>
       </c>
       <c r="C94" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D94" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E94" t="n">
-        <v>154.1</v>
+        <v>147</v>
       </c>
       <c r="F94" t="n">
-        <v>2501.5612</v>
+        <v>96.23399999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>201258.0996</v>
+        <v>205938.8046999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>155</v>
+        <v>146.1</v>
       </c>
       <c r="C95" t="n">
-        <v>155</v>
+        <v>146.1</v>
       </c>
       <c r="D95" t="n">
-        <v>155</v>
+        <v>146.1</v>
       </c>
       <c r="E95" t="n">
-        <v>155</v>
+        <v>146.1</v>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>213.515</v>
       </c>
       <c r="G95" t="n">
-        <v>201258.0996</v>
+        <v>205725.2896999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C96" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D96" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E96" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F96" t="n">
-        <v>2743.0748</v>
+        <v>96.23399999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>201258.0996</v>
+        <v>205629.0556999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>154.9</v>
+        <v>146.2</v>
       </c>
       <c r="C97" t="n">
-        <v>154.9</v>
+        <v>146.2</v>
       </c>
       <c r="D97" t="n">
-        <v>154.9</v>
+        <v>146.2</v>
       </c>
       <c r="E97" t="n">
-        <v>154.9</v>
+        <v>146.2</v>
       </c>
       <c r="F97" t="n">
-        <v>65</v>
+        <v>6.9825</v>
       </c>
       <c r="G97" t="n">
-        <v>201193.0996</v>
+        <v>205636.0382</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4222,39 +4420,34 @@
         <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>1.096706970128023</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>154.9</v>
+        <v>148.8</v>
       </c>
       <c r="C98" t="n">
-        <v>154.9</v>
+        <v>149.8</v>
       </c>
       <c r="D98" t="n">
-        <v>154.9</v>
+        <v>149.8</v>
       </c>
       <c r="E98" t="n">
-        <v>154.9</v>
+        <v>148.8</v>
       </c>
       <c r="F98" t="n">
-        <v>631.7403</v>
+        <v>250</v>
       </c>
       <c r="G98" t="n">
-        <v>201193.0996</v>
+        <v>205886.0382</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4268,28 +4461,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C99" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D99" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E99" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>14.7902</v>
       </c>
       <c r="G99" t="n">
-        <v>201443.0996</v>
+        <v>205871.248</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4303,28 +4497,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>156</v>
+        <v>146.6</v>
       </c>
       <c r="C100" t="n">
-        <v>156.9</v>
+        <v>148.1</v>
       </c>
       <c r="D100" t="n">
-        <v>156.9</v>
+        <v>148.1</v>
       </c>
       <c r="E100" t="n">
-        <v>156</v>
+        <v>146.6</v>
       </c>
       <c r="F100" t="n">
-        <v>1416.6719</v>
+        <v>1510</v>
       </c>
       <c r="G100" t="n">
-        <v>200026.4277</v>
+        <v>207381.248</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4338,28 +4533,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>154.1</v>
+        <v>146.1</v>
       </c>
       <c r="C101" t="n">
-        <v>154.1</v>
+        <v>149</v>
       </c>
       <c r="D101" t="n">
-        <v>154.1</v>
+        <v>149</v>
       </c>
       <c r="E101" t="n">
-        <v>154.1</v>
+        <v>146.1</v>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>3831.83</v>
       </c>
       <c r="G101" t="n">
-        <v>199946.4277</v>
+        <v>211213.078</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4373,34 +4569,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>152.3</v>
+        <v>147.4</v>
       </c>
       <c r="C102" t="n">
-        <v>152.3</v>
+        <v>148</v>
       </c>
       <c r="D102" t="n">
-        <v>152.3</v>
+        <v>149</v>
       </c>
       <c r="E102" t="n">
-        <v>152.3</v>
+        <v>146</v>
       </c>
       <c r="F102" t="n">
-        <v>212.502</v>
+        <v>5669.7648</v>
       </c>
       <c r="G102" t="n">
-        <v>199733.9257</v>
+        <v>205543.3131999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4408,28 +4605,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="C103" t="n">
-        <v>151.6</v>
+        <v>147</v>
       </c>
       <c r="D103" t="n">
-        <v>151.6</v>
+        <v>147</v>
       </c>
       <c r="E103" t="n">
-        <v>146.2</v>
+        <v>145.3</v>
       </c>
       <c r="F103" t="n">
-        <v>3987.5915</v>
+        <v>2010.5488</v>
       </c>
       <c r="G103" t="n">
-        <v>195746.3342</v>
+        <v>203532.7644</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4443,34 +4641,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>151.1</v>
+        <v>147.1</v>
       </c>
       <c r="C104" t="n">
-        <v>151</v>
+        <v>148.3</v>
       </c>
       <c r="D104" t="n">
-        <v>152</v>
+        <v>148.3</v>
       </c>
       <c r="E104" t="n">
-        <v>150</v>
+        <v>146.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1020</v>
+        <v>1916.6719</v>
       </c>
       <c r="G104" t="n">
-        <v>194726.3342</v>
+        <v>205449.4362999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4478,34 +4677,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C105" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D105" t="n">
-        <v>152</v>
+        <v>149.8</v>
       </c>
       <c r="E105" t="n">
-        <v>149</v>
+        <v>146.5</v>
       </c>
       <c r="F105" t="n">
-        <v>509.1069</v>
+        <v>3339.9963</v>
       </c>
       <c r="G105" t="n">
-        <v>194217.2272999999</v>
+        <v>202109.4399999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4513,34 +4713,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C106" t="n">
-        <v>147.3</v>
+        <v>147.7</v>
       </c>
       <c r="D106" t="n">
-        <v>152</v>
+        <v>147.7</v>
       </c>
       <c r="E106" t="n">
-        <v>147.3</v>
+        <v>146.9</v>
       </c>
       <c r="F106" t="n">
-        <v>2905.811</v>
+        <v>1740.4784</v>
       </c>
       <c r="G106" t="n">
-        <v>191311.4163</v>
+        <v>203849.9183999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4548,34 +4749,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>148.3</v>
+        <v>147.7</v>
       </c>
       <c r="C107" t="n">
-        <v>154</v>
+        <v>147.7</v>
       </c>
       <c r="D107" t="n">
-        <v>154</v>
+        <v>147.7</v>
       </c>
       <c r="E107" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="F107" t="n">
-        <v>3626.4642</v>
+        <v>378.212</v>
       </c>
       <c r="G107" t="n">
-        <v>194937.8804999999</v>
+        <v>203849.9183999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4583,1616 +4785,175 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>152</v>
+        <v>147.7</v>
       </c>
       <c r="C108" t="n">
-        <v>152</v>
+        <v>147.7</v>
       </c>
       <c r="D108" t="n">
-        <v>152</v>
+        <v>147.7</v>
       </c>
       <c r="E108" t="n">
-        <v>152</v>
+        <v>147.7</v>
       </c>
       <c r="F108" t="n">
-        <v>750</v>
+        <v>0.0004</v>
       </c>
       <c r="G108" t="n">
-        <v>194187.8804999999</v>
+        <v>203849.9183999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="K108" t="n">
+        <v>147.7</v>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>151.9</v>
+        <v>149</v>
       </c>
       <c r="C109" t="n">
-        <v>151.9</v>
+        <v>149.1</v>
       </c>
       <c r="D109" t="n">
-        <v>151.9</v>
+        <v>149.1</v>
       </c>
       <c r="E109" t="n">
-        <v>151.9</v>
+        <v>149</v>
       </c>
       <c r="F109" t="n">
-        <v>256</v>
+        <v>421.12</v>
       </c>
       <c r="G109" t="n">
-        <v>193931.8804999999</v>
+        <v>204271.0383999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="K109" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>151.6</v>
+        <v>149.1</v>
       </c>
       <c r="C110" t="n">
-        <v>151.6</v>
+        <v>148.1</v>
       </c>
       <c r="D110" t="n">
-        <v>151.6</v>
+        <v>149.1</v>
       </c>
       <c r="E110" t="n">
-        <v>151.6</v>
+        <v>148.1</v>
       </c>
       <c r="F110" t="n">
-        <v>237.9924</v>
+        <v>3831.338</v>
       </c>
       <c r="G110" t="n">
-        <v>193693.8881</v>
+        <v>200439.7003999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>151</v>
+        <v>148.1</v>
       </c>
       <c r="C111" t="n">
-        <v>150</v>
+        <v>148.1</v>
       </c>
       <c r="D111" t="n">
-        <v>151</v>
+        <v>148.1</v>
       </c>
       <c r="E111" t="n">
-        <v>150</v>
+        <v>148.1</v>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>909.181</v>
       </c>
       <c r="G111" t="n">
-        <v>193193.8881</v>
+        <v>200439.7003999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>148.1</v>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="D112" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1140.07</v>
-      </c>
-      <c r="G112" t="n">
-        <v>192053.8180999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="C113" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="E113" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="F113" t="n">
-        <v>850</v>
-      </c>
-      <c r="G113" t="n">
-        <v>191203.8180999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>144.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>144</v>
-      </c>
-      <c r="D114" t="n">
-        <v>144.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>144</v>
-      </c>
-      <c r="F114" t="n">
-        <v>55.8635</v>
-      </c>
-      <c r="G114" t="n">
-        <v>191147.9545999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="C115" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="F115" t="n">
-        <v>40.2217</v>
-      </c>
-      <c r="G115" t="n">
-        <v>191107.7328999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>144</v>
-      </c>
-      <c r="C116" t="n">
-        <v>144</v>
-      </c>
-      <c r="D116" t="n">
-        <v>144</v>
-      </c>
-      <c r="E116" t="n">
-        <v>144</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1043.9848</v>
-      </c>
-      <c r="G116" t="n">
-        <v>192151.7177</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>146</v>
-      </c>
-      <c r="D117" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F117" t="n">
-        <v>7156.51</v>
-      </c>
-      <c r="G117" t="n">
-        <v>199308.2277</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>144</v>
-      </c>
-      <c r="F118" t="n">
-        <v>568.283</v>
-      </c>
-      <c r="G118" t="n">
-        <v>198739.9447</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="F119" t="n">
-        <v>690</v>
-      </c>
-      <c r="G119" t="n">
-        <v>199429.9447</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>13.5302</v>
-      </c>
-      <c r="G120" t="n">
-        <v>199416.4145</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="C121" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1320.7198</v>
-      </c>
-      <c r="G121" t="n">
-        <v>199416.4145</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1334.25</v>
-      </c>
-      <c r="G122" t="n">
-        <v>198082.1645</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3545.555</v>
-      </c>
-      <c r="G123" t="n">
-        <v>201627.7194999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="F124" t="n">
-        <v>291.832</v>
-      </c>
-      <c r="G124" t="n">
-        <v>201627.7194999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>150</v>
-      </c>
-      <c r="C125" t="n">
-        <v>150</v>
-      </c>
-      <c r="D125" t="n">
-        <v>150</v>
-      </c>
-      <c r="E125" t="n">
-        <v>150</v>
-      </c>
-      <c r="F125" t="n">
-        <v>500</v>
-      </c>
-      <c r="G125" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>203127.7194999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>150</v>
-      </c>
-      <c r="C127" t="n">
-        <v>150</v>
-      </c>
-      <c r="D127" t="n">
-        <v>150</v>
-      </c>
-      <c r="E127" t="n">
-        <v>150</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>150</v>
-      </c>
-      <c r="C128" t="n">
-        <v>150</v>
-      </c>
-      <c r="D128" t="n">
-        <v>150</v>
-      </c>
-      <c r="E128" t="n">
-        <v>150</v>
-      </c>
-      <c r="F128" t="n">
-        <v>250</v>
-      </c>
-      <c r="G128" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>150</v>
-      </c>
-      <c r="C129" t="n">
-        <v>150</v>
-      </c>
-      <c r="D129" t="n">
-        <v>150</v>
-      </c>
-      <c r="E129" t="n">
-        <v>150</v>
-      </c>
-      <c r="F129" t="n">
-        <v>4569.5329</v>
-      </c>
-      <c r="G129" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>150</v>
-      </c>
-      <c r="C130" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>150</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3810</v>
-      </c>
-      <c r="G130" t="n">
-        <v>205937.7194999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>150</v>
-      </c>
-      <c r="C131" t="n">
-        <v>150</v>
-      </c>
-      <c r="D131" t="n">
-        <v>150</v>
-      </c>
-      <c r="E131" t="n">
-        <v>150</v>
-      </c>
-      <c r="F131" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="G131" t="n">
-        <v>205871.3795</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10</v>
-      </c>
-      <c r="G132" t="n">
-        <v>205881.3795</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>150</v>
-      </c>
-      <c r="C133" t="n">
-        <v>150</v>
-      </c>
-      <c r="D133" t="n">
-        <v>150</v>
-      </c>
-      <c r="E133" t="n">
-        <v>150</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.1068</v>
-      </c>
-      <c r="G133" t="n">
-        <v>205881.2726999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>148</v>
-      </c>
-      <c r="C134" t="n">
-        <v>148</v>
-      </c>
-      <c r="D134" t="n">
-        <v>148</v>
-      </c>
-      <c r="E134" t="n">
-        <v>148</v>
-      </c>
-      <c r="F134" t="n">
-        <v>346.234</v>
-      </c>
-      <c r="G134" t="n">
-        <v>205535.0386999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>148</v>
-      </c>
-      <c r="C135" t="n">
-        <v>149</v>
-      </c>
-      <c r="D135" t="n">
-        <v>149</v>
-      </c>
-      <c r="E135" t="n">
-        <v>148</v>
-      </c>
-      <c r="F135" t="n">
-        <v>500</v>
-      </c>
-      <c r="G135" t="n">
-        <v>206035.0386999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>147</v>
-      </c>
-      <c r="C136" t="n">
-        <v>147</v>
-      </c>
-      <c r="D136" t="n">
-        <v>147</v>
-      </c>
-      <c r="E136" t="n">
-        <v>147</v>
-      </c>
-      <c r="F136" t="n">
-        <v>96.23399999999999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>205938.8046999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>213.515</v>
-      </c>
-      <c r="G137" t="n">
-        <v>205725.2896999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>146</v>
-      </c>
-      <c r="C138" t="n">
-        <v>146</v>
-      </c>
-      <c r="D138" t="n">
-        <v>146</v>
-      </c>
-      <c r="E138" t="n">
-        <v>146</v>
-      </c>
-      <c r="F138" t="n">
-        <v>96.23399999999999</v>
-      </c>
-      <c r="G138" t="n">
-        <v>205629.0556999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6.9825</v>
-      </c>
-      <c r="G139" t="n">
-        <v>205636.0382</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>250</v>
-      </c>
-      <c r="G140" t="n">
-        <v>205886.0382</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>147</v>
-      </c>
-      <c r="C141" t="n">
-        <v>147</v>
-      </c>
-      <c r="D141" t="n">
-        <v>147</v>
-      </c>
-      <c r="E141" t="n">
-        <v>147</v>
-      </c>
-      <c r="F141" t="n">
-        <v>14.7902</v>
-      </c>
-      <c r="G141" t="n">
-        <v>205871.248</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1510</v>
-      </c>
-      <c r="G142" t="n">
-        <v>207381.248</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>149</v>
-      </c>
-      <c r="D143" t="n">
-        <v>149</v>
-      </c>
-      <c r="E143" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3831.83</v>
-      </c>
-      <c r="G143" t="n">
-        <v>211213.078</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>147.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>148</v>
-      </c>
-      <c r="D144" t="n">
-        <v>149</v>
-      </c>
-      <c r="E144" t="n">
-        <v>146</v>
-      </c>
-      <c r="F144" t="n">
-        <v>5669.7648</v>
-      </c>
-      <c r="G144" t="n">
-        <v>205543.3131999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>147</v>
-      </c>
-      <c r="C145" t="n">
-        <v>147</v>
-      </c>
-      <c r="D145" t="n">
-        <v>147</v>
-      </c>
-      <c r="E145" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2010.5488</v>
-      </c>
-      <c r="G145" t="n">
-        <v>203532.7644</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="D146" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="E146" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1916.6719</v>
-      </c>
-      <c r="G146" t="n">
-        <v>205449.4362999999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>148</v>
-      </c>
-      <c r="C147" t="n">
-        <v>147</v>
-      </c>
-      <c r="D147" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3339.9963</v>
-      </c>
-      <c r="G147" t="n">
-        <v>202109.4399999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>147</v>
-      </c>
-      <c r="C148" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1740.4784</v>
-      </c>
-      <c r="G148" t="n">
-        <v>203849.9183999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>378.212</v>
-      </c>
-      <c r="G149" t="n">
-        <v>203849.9183999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="G150" t="n">
-        <v>203849.9183999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>149</v>
-      </c>
-      <c r="C151" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="E151" t="n">
-        <v>149</v>
-      </c>
-      <c r="F151" t="n">
-        <v>421.12</v>
-      </c>
-      <c r="G151" t="n">
-        <v>204271.0383999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3831.338</v>
-      </c>
-      <c r="G152" t="n">
-        <v>200439.7003999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>909.181</v>
-      </c>
-      <c r="G153" t="n">
-        <v>200439.7003999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>138</v>
+        <v>137.6</v>
       </c>
       <c r="C2" t="n">
-        <v>138</v>
+        <v>139.9</v>
       </c>
       <c r="D2" t="n">
-        <v>138</v>
+        <v>139.9</v>
       </c>
       <c r="E2" t="n">
-        <v>138</v>
+        <v>137.6</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4627</v>
+        <v>3903.7735</v>
       </c>
       <c r="G2" t="n">
-        <v>169191.8098</v>
+        <v>13248.925</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>140.1</v>
+        <v>139.8</v>
       </c>
       <c r="C3" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="D3" t="n">
-        <v>140.2</v>
+        <v>139.9</v>
       </c>
       <c r="E3" t="n">
-        <v>140</v>
+        <v>137.1</v>
       </c>
       <c r="F3" t="n">
-        <v>2161.01</v>
+        <v>1739</v>
       </c>
       <c r="G3" t="n">
-        <v>171352.8198</v>
+        <v>13248.925</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>138</v>
-      </c>
-      <c r="K3" t="n">
-        <v>138</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>136.3</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="E4" t="n">
-        <v>139</v>
+        <v>136.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1592.73</v>
+        <v>515</v>
       </c>
       <c r="G4" t="n">
-        <v>171352.8198</v>
+        <v>13248.925</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +540,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K4" t="n">
-        <v>138</v>
-      </c>
+        <v>139.9</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139.1</v>
+        <v>138.9</v>
       </c>
       <c r="C5" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="D5" t="n">
-        <v>139.1</v>
+        <v>138.9</v>
       </c>
       <c r="E5" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="F5" t="n">
-        <v>2326.57</v>
+        <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>169026.2498</v>
+        <v>12748.925</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
-      </c>
-      <c r="K5" t="n">
-        <v>138</v>
-      </c>
+        <v>139.9</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -605,19 +603,19 @@
         <v>138.9</v>
       </c>
       <c r="C6" t="n">
-        <v>139.9</v>
+        <v>138.9</v>
       </c>
       <c r="D6" t="n">
-        <v>139.9</v>
+        <v>138.9</v>
       </c>
       <c r="E6" t="n">
-        <v>138.8</v>
+        <v>138.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>171276.2498</v>
+        <v>12748.925</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,12 +624,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>138.9</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="C7" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="D7" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="E7" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="F7" t="n">
-        <v>663.3952</v>
+        <v>750</v>
       </c>
       <c r="G7" t="n">
-        <v>170612.8546</v>
+        <v>12748.925</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -666,14 +666,12 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>138.1</v>
-      </c>
+        <v>138.9</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -686,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="C8" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="D8" t="n">
-        <v>138.1</v>
+        <v>138.9</v>
       </c>
       <c r="E8" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="F8" t="n">
-        <v>19719.7641</v>
+        <v>750</v>
       </c>
       <c r="G8" t="n">
-        <v>150893.0905</v>
+        <v>12748.925</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -710,14 +708,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>138.1</v>
-      </c>
+        <v>138.9</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -730,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="C9" t="n">
-        <v>138.6</v>
+        <v>138.9</v>
       </c>
       <c r="D9" t="n">
-        <v>138.6</v>
+        <v>138.9</v>
       </c>
       <c r="E9" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="F9" t="n">
-        <v>791.7917</v>
+        <v>250</v>
       </c>
       <c r="G9" t="n">
-        <v>151684.8822</v>
+        <v>12748.925</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -754,11 +750,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>138</v>
-      </c>
-      <c r="K9" t="n">
-        <v>138.1</v>
-      </c>
+        <v>138.9</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -774,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="C10" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="D10" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="E10" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="F10" t="n">
-        <v>646.0684</v>
+        <v>9530.031999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>151038.8138</v>
+        <v>12748.925</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -798,11 +792,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>138.1</v>
-      </c>
+        <v>138.9</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -818,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D11" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>138</v>
+        <v>138.9</v>
       </c>
       <c r="F11" t="n">
-        <v>189.3627</v>
+        <v>17171.62</v>
       </c>
       <c r="G11" t="n">
-        <v>151038.8138</v>
+        <v>29920.545</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,11 +834,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>138</v>
-      </c>
-      <c r="K11" t="n">
-        <v>138.1</v>
-      </c>
+        <v>138.9</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -862,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="C12" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="E12" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>856.6769</v>
+        <v>638.958</v>
       </c>
       <c r="G12" t="n">
-        <v>151895.4907</v>
+        <v>29920.545</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -886,11 +876,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>138</v>
-      </c>
-      <c r="K12" t="n">
-        <v>138.1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -906,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="C13" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="D13" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="E13" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="F13" t="n">
-        <v>1250</v>
+        <v>566.107</v>
       </c>
       <c r="G13" t="n">
-        <v>150645.4907</v>
+        <v>29920.545</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -930,11 +918,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>138.1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -950,35 +936,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9556</v>
+        <v>174.498</v>
       </c>
       <c r="G14" t="n">
-        <v>149716.5351</v>
+        <v>29920.545</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -997,19 +979,19 @@
         <v>140</v>
       </c>
       <c r="C15" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="D15" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="E15" t="n">
         <v>140</v>
       </c>
       <c r="F15" t="n">
-        <v>2696.6505</v>
+        <v>125</v>
       </c>
       <c r="G15" t="n">
-        <v>152413.1856</v>
+        <v>29920.545</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1018,11 +1000,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139</v>
-      </c>
-      <c r="K15" t="n">
-        <v>138.1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1038,22 +1018,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="C16" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="D16" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="E16" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>2796</v>
       </c>
       <c r="G16" t="n">
-        <v>152413.1856</v>
+        <v>29920.545</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1062,11 +1042,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>138.1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1082,22 +1060,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
-        <v>139.1</v>
+        <v>143.7</v>
       </c>
       <c r="D17" t="n">
-        <v>142.3</v>
+        <v>143.7</v>
       </c>
       <c r="E17" t="n">
-        <v>139.1</v>
+        <v>140</v>
       </c>
       <c r="F17" t="n">
-        <v>1816.0803</v>
+        <v>7833</v>
       </c>
       <c r="G17" t="n">
-        <v>150597.1053</v>
+        <v>37753.545</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1106,11 +1084,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>138.1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1126,22 +1102,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>141.3</v>
+        <v>142.4</v>
       </c>
       <c r="C18" t="n">
-        <v>141.3</v>
+        <v>142.4</v>
       </c>
       <c r="D18" t="n">
-        <v>141.3</v>
+        <v>142.4</v>
       </c>
       <c r="E18" t="n">
-        <v>141.3</v>
+        <v>142.4</v>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>296.099</v>
       </c>
       <c r="G18" t="n">
-        <v>151097.1053</v>
+        <v>37457.446</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1150,11 +1126,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>138.1</v>
-      </c>
+        <v>143.7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,22 +1144,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>141.3</v>
+        <v>142.7</v>
       </c>
       <c r="C19" t="n">
-        <v>142.3</v>
+        <v>143.7</v>
       </c>
       <c r="D19" t="n">
-        <v>142.3</v>
+        <v>143.7</v>
       </c>
       <c r="E19" t="n">
-        <v>141.3</v>
+        <v>142.7</v>
       </c>
       <c r="F19" t="n">
-        <v>8428.125</v>
+        <v>614</v>
       </c>
       <c r="G19" t="n">
-        <v>159525.2303</v>
+        <v>38071.446</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1194,11 +1168,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>138.1</v>
-      </c>
+        <v>142.4</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,22 +1186,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>142.3</v>
+        <v>143.7</v>
       </c>
       <c r="C20" t="n">
-        <v>142.4</v>
+        <v>145</v>
       </c>
       <c r="D20" t="n">
-        <v>142.4</v>
+        <v>145</v>
       </c>
       <c r="E20" t="n">
-        <v>142.3</v>
+        <v>143.7</v>
       </c>
       <c r="F20" t="n">
-        <v>13771.5814</v>
+        <v>2750</v>
       </c>
       <c r="G20" t="n">
-        <v>173296.8117</v>
+        <v>40821.446</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1238,11 +1210,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>138.1</v>
-      </c>
+        <v>143.7</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,35 +1228,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="D21" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="E21" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>173296.8117</v>
+        <v>40321.446</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,22 +1268,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>142.4</v>
+        <v>140.6</v>
       </c>
       <c r="D22" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4</v>
+        <v>140.6</v>
       </c>
       <c r="F22" t="n">
-        <v>11051.2282</v>
+        <v>878.1863</v>
       </c>
       <c r="G22" t="n">
-        <v>173296.8117</v>
+        <v>39443.2597</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1326,11 +1292,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>138.1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,22 +1310,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="C23" t="n">
-        <v>142.4</v>
+        <v>143.1</v>
       </c>
       <c r="D23" t="n">
-        <v>142.4</v>
+        <v>143.1</v>
       </c>
       <c r="E23" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="F23" t="n">
-        <v>800.4399</v>
+        <v>459.1596</v>
       </c>
       <c r="G23" t="n">
-        <v>173296.8117</v>
+        <v>39902.41929999999</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1370,11 +1334,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>138.1</v>
-      </c>
+        <v>140.6</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1390,22 +1352,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>142.4</v>
+        <v>138.2</v>
       </c>
       <c r="C24" t="n">
-        <v>148.4</v>
+        <v>143.2</v>
       </c>
       <c r="D24" t="n">
-        <v>148.4</v>
+        <v>143.2</v>
       </c>
       <c r="E24" t="n">
-        <v>142.4</v>
+        <v>138.2</v>
       </c>
       <c r="F24" t="n">
-        <v>16705.8373</v>
+        <v>809</v>
       </c>
       <c r="G24" t="n">
-        <v>190002.649</v>
+        <v>40711.41929999999</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1414,11 +1376,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>138.1</v>
-      </c>
+        <v>143.1</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1434,22 +1394,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>145</v>
+        <v>136.1</v>
       </c>
       <c r="C25" t="n">
-        <v>143</v>
+        <v>135.1</v>
       </c>
       <c r="D25" t="n">
-        <v>145</v>
+        <v>136.1</v>
       </c>
       <c r="E25" t="n">
-        <v>138.1</v>
+        <v>135.1</v>
       </c>
       <c r="F25" t="n">
-        <v>6571.1729</v>
+        <v>849.7012999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>183431.4761</v>
+        <v>39861.71799999999</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1458,11 +1418,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>138.1</v>
-      </c>
+        <v>143.2</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1478,33 +1436,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>144</v>
+        <v>143.2</v>
       </c>
       <c r="C26" t="n">
-        <v>144</v>
+        <v>143.2</v>
       </c>
       <c r="D26" t="n">
-        <v>144</v>
+        <v>143.2</v>
       </c>
       <c r="E26" t="n">
-        <v>144</v>
+        <v>143.2</v>
       </c>
       <c r="F26" t="n">
-        <v>549.3252</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>183980.8013</v>
+        <v>40061.71799999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J26" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1520,22 +1478,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>144</v>
+        <v>142.7</v>
       </c>
       <c r="C27" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" t="n">
-        <v>144</v>
+        <v>142.7</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>404.841</v>
       </c>
       <c r="G27" t="n">
-        <v>184480.8013</v>
+        <v>40466.55899999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1544,9 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,22 +1518,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C28" t="n">
-        <v>144.7</v>
+        <v>138</v>
       </c>
       <c r="D28" t="n">
-        <v>144.7</v>
+        <v>138</v>
       </c>
       <c r="E28" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F28" t="n">
-        <v>2745.452</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>181735.3493</v>
+        <v>39966.55899999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1586,9 +1542,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,33 +1558,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>144.7</v>
+        <v>138</v>
       </c>
       <c r="C29" t="n">
-        <v>145.7</v>
+        <v>138</v>
       </c>
       <c r="D29" t="n">
-        <v>145.7</v>
+        <v>138</v>
       </c>
       <c r="E29" t="n">
-        <v>144.7</v>
+        <v>138</v>
       </c>
       <c r="F29" t="n">
-        <v>1412.3558</v>
+        <v>30.5253</v>
       </c>
       <c r="G29" t="n">
-        <v>183147.7051</v>
+        <v>39966.55899999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J29" t="n">
+        <v>138</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1646,22 +1600,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C30" t="n">
-        <v>145.9</v>
+        <v>138</v>
       </c>
       <c r="D30" t="n">
-        <v>145.9</v>
+        <v>138</v>
       </c>
       <c r="E30" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>14.5985</v>
       </c>
       <c r="G30" t="n">
-        <v>183647.7051</v>
+        <v>39966.55899999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1670,9 +1624,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1688,22 +1640,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>145</v>
+        <v>136.2</v>
       </c>
       <c r="C31" t="n">
-        <v>145.9</v>
+        <v>141</v>
       </c>
       <c r="D31" t="n">
-        <v>145.9</v>
+        <v>151.3</v>
       </c>
       <c r="E31" t="n">
-        <v>145</v>
+        <v>136.2</v>
       </c>
       <c r="F31" t="n">
-        <v>1306.6161</v>
+        <v>14904.7974</v>
       </c>
       <c r="G31" t="n">
-        <v>183647.7051</v>
+        <v>54871.35639999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1712,9 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1730,22 +1680,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="C32" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="D32" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="E32" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="F32" t="n">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="G32" t="n">
-        <v>184220.7051</v>
+        <v>55471.35639999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1754,9 +1704,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,22 +1720,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>146</v>
+        <v>143.2</v>
       </c>
       <c r="C33" t="n">
-        <v>146</v>
+        <v>139.1</v>
       </c>
       <c r="D33" t="n">
-        <v>146</v>
+        <v>143.2</v>
       </c>
       <c r="E33" t="n">
-        <v>146</v>
+        <v>138.1</v>
       </c>
       <c r="F33" t="n">
-        <v>13474.8231</v>
+        <v>703.309</v>
       </c>
       <c r="G33" t="n">
-        <v>184220.7051</v>
+        <v>54768.04739999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1796,9 +1744,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1814,22 +1760,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>145.9</v>
+        <v>139.9</v>
       </c>
       <c r="C34" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="D34" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="E34" t="n">
-        <v>145.9</v>
+        <v>139.9</v>
       </c>
       <c r="F34" t="n">
-        <v>672.0431</v>
+        <v>314.049</v>
       </c>
       <c r="G34" t="n">
-        <v>184220.7051</v>
+        <v>55082.09639999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1838,9 +1784,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,22 +1800,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>146</v>
+        <v>139.9</v>
       </c>
       <c r="C35" t="n">
-        <v>146</v>
+        <v>141.8</v>
       </c>
       <c r="D35" t="n">
-        <v>146</v>
+        <v>141.8</v>
       </c>
       <c r="E35" t="n">
-        <v>146</v>
+        <v>139.8</v>
       </c>
       <c r="F35" t="n">
-        <v>475.537</v>
+        <v>7109.338</v>
       </c>
       <c r="G35" t="n">
-        <v>184220.7051</v>
+        <v>62191.43439999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1880,9 +1824,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,22 +1840,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>144.1</v>
+        <v>135.2</v>
       </c>
       <c r="C36" t="n">
-        <v>144.1</v>
+        <v>140</v>
       </c>
       <c r="D36" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="E36" t="n">
-        <v>144.1</v>
+        <v>134.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1497.0356</v>
+        <v>8959.034900000001</v>
       </c>
       <c r="G36" t="n">
-        <v>182723.6695</v>
+        <v>53232.39949999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1922,9 +1864,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,33 +1880,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C37" t="n">
-        <v>146</v>
+        <v>141.7</v>
       </c>
       <c r="D37" t="n">
-        <v>146</v>
+        <v>141.7</v>
       </c>
       <c r="E37" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F37" t="n">
-        <v>68.7533</v>
+        <v>14074.7718</v>
       </c>
       <c r="G37" t="n">
-        <v>182792.4228</v>
+        <v>67307.17129999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J37" t="n">
+        <v>140</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1982,33 +1922,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C38" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D38" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E38" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F38" t="n">
-        <v>181.212</v>
+        <v>42.4803</v>
       </c>
       <c r="G38" t="n">
-        <v>182792.4228</v>
+        <v>67264.69099999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J38" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2024,22 +1964,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="C39" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="D39" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="E39" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="F39" t="n">
-        <v>398.502</v>
+        <v>381.6539</v>
       </c>
       <c r="G39" t="n">
-        <v>182792.4228</v>
+        <v>67646.3449</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2048,9 +1988,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2066,22 +2004,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="C40" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="D40" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="E40" t="n">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="F40" t="n">
-        <v>210</v>
+        <v>11.1391</v>
       </c>
       <c r="G40" t="n">
-        <v>182792.4228</v>
+        <v>67646.3449</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2090,9 +2028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2108,22 +2044,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>146</v>
+        <v>136.1</v>
       </c>
       <c r="C41" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D41" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E41" t="n">
-        <v>146</v>
+        <v>136.1</v>
       </c>
       <c r="F41" t="n">
-        <v>12300.165</v>
+        <v>2866.4781</v>
       </c>
       <c r="G41" t="n">
-        <v>182792.4228</v>
+        <v>70512.82299999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2132,9 +2068,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,33 +2084,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>146</v>
+        <v>138.1</v>
       </c>
       <c r="C42" t="n">
-        <v>145.2</v>
+        <v>138.1</v>
       </c>
       <c r="D42" t="n">
-        <v>148.8</v>
+        <v>138.1</v>
       </c>
       <c r="E42" t="n">
-        <v>145.2</v>
+        <v>138.1</v>
       </c>
       <c r="F42" t="n">
-        <v>11137.208</v>
+        <v>333.1391</v>
       </c>
       <c r="G42" t="n">
-        <v>171655.2148</v>
+        <v>70179.68389999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="J42" t="n">
+        <v>143</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,22 +2126,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>146</v>
+        <v>140.8</v>
       </c>
       <c r="C43" t="n">
-        <v>146</v>
+        <v>140.8</v>
       </c>
       <c r="D43" t="n">
-        <v>146</v>
+        <v>140.8</v>
       </c>
       <c r="E43" t="n">
-        <v>146</v>
+        <v>140.8</v>
       </c>
       <c r="F43" t="n">
-        <v>528.1299</v>
+        <v>325.7569</v>
       </c>
       <c r="G43" t="n">
-        <v>172183.3447</v>
+        <v>70505.44079999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2216,9 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,22 +2166,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>145.3</v>
+        <v>136</v>
       </c>
       <c r="C44" t="n">
-        <v>146.9</v>
+        <v>144.6</v>
       </c>
       <c r="D44" t="n">
-        <v>146.9</v>
+        <v>144.6</v>
       </c>
       <c r="E44" t="n">
-        <v>145.3</v>
+        <v>132.7</v>
       </c>
       <c r="F44" t="n">
-        <v>5281.5369</v>
+        <v>21491.0812</v>
       </c>
       <c r="G44" t="n">
-        <v>177464.8816</v>
+        <v>91996.52199999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2258,9 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,22 +2206,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>146.9</v>
+        <v>136.1</v>
       </c>
       <c r="C45" t="n">
-        <v>146.9</v>
+        <v>144</v>
       </c>
       <c r="D45" t="n">
-        <v>146.9</v>
+        <v>144.1</v>
       </c>
       <c r="E45" t="n">
-        <v>146.9</v>
+        <v>132.4</v>
       </c>
       <c r="F45" t="n">
-        <v>664.127</v>
+        <v>38000.9492</v>
       </c>
       <c r="G45" t="n">
-        <v>177464.8816</v>
+        <v>53995.57279999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2300,9 +2230,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,22 +2246,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C46" t="n">
-        <v>146.9</v>
+        <v>141</v>
       </c>
       <c r="D46" t="n">
-        <v>146.9</v>
+        <v>141</v>
       </c>
       <c r="E46" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F46" t="n">
-        <v>1087.5068</v>
+        <v>843.58</v>
       </c>
       <c r="G46" t="n">
-        <v>177464.8816</v>
+        <v>53151.99279999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2342,9 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,22 +2286,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>146.9</v>
+        <v>137.1</v>
       </c>
       <c r="C47" t="n">
-        <v>151.3</v>
+        <v>137.1</v>
       </c>
       <c r="D47" t="n">
-        <v>151.3</v>
+        <v>137.1</v>
       </c>
       <c r="E47" t="n">
-        <v>146.9</v>
+        <v>137.1</v>
       </c>
       <c r="F47" t="n">
-        <v>19162.6568</v>
+        <v>121.776</v>
       </c>
       <c r="G47" t="n">
-        <v>196627.5384</v>
+        <v>53030.21679999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2384,9 +2310,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,22 +2326,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>151.3</v>
+        <v>136.7</v>
       </c>
       <c r="C48" t="n">
-        <v>151.3</v>
+        <v>146</v>
       </c>
       <c r="D48" t="n">
-        <v>151.3</v>
+        <v>146</v>
       </c>
       <c r="E48" t="n">
-        <v>151.3</v>
+        <v>136.7</v>
       </c>
       <c r="F48" t="n">
-        <v>498.9789</v>
+        <v>36325.554</v>
       </c>
       <c r="G48" t="n">
-        <v>196627.5384</v>
+        <v>89355.77079999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2426,9 +2350,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,22 +2366,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>151.3</v>
+        <v>139.1</v>
       </c>
       <c r="C49" t="n">
-        <v>151.8</v>
+        <v>139.1</v>
       </c>
       <c r="D49" t="n">
-        <v>151.8</v>
+        <v>139.1</v>
       </c>
       <c r="E49" t="n">
-        <v>151.3</v>
+        <v>139.1</v>
       </c>
       <c r="F49" t="n">
-        <v>2129</v>
+        <v>459.584</v>
       </c>
       <c r="G49" t="n">
-        <v>198756.5384</v>
+        <v>88896.18679999997</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2468,9 +2390,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,22 +2406,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>151.8</v>
+        <v>135.1</v>
       </c>
       <c r="C50" t="n">
-        <v>151.8</v>
+        <v>135.1</v>
       </c>
       <c r="D50" t="n">
-        <v>151.8</v>
+        <v>135.1</v>
       </c>
       <c r="E50" t="n">
-        <v>151.8</v>
+        <v>135.1</v>
       </c>
       <c r="F50" t="n">
-        <v>72.63549999999999</v>
+        <v>90.4109</v>
       </c>
       <c r="G50" t="n">
-        <v>198756.5384</v>
+        <v>88805.77589999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2510,9 +2430,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,22 +2446,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>151.9</v>
+        <v>137.1</v>
       </c>
       <c r="C51" t="n">
-        <v>151.8</v>
+        <v>143.7</v>
       </c>
       <c r="D51" t="n">
-        <v>155</v>
+        <v>143.7</v>
       </c>
       <c r="E51" t="n">
-        <v>151.8</v>
+        <v>136.1</v>
       </c>
       <c r="F51" t="n">
-        <v>6859.8678</v>
+        <v>6152.4859</v>
       </c>
       <c r="G51" t="n">
-        <v>198756.5384</v>
+        <v>94958.26179999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2552,9 +2470,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,22 +2486,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>154.2</v>
+        <v>138</v>
       </c>
       <c r="C52" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D52" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E52" t="n">
-        <v>154.1</v>
+        <v>138</v>
       </c>
       <c r="F52" t="n">
-        <v>2501.5612</v>
+        <v>554.0168</v>
       </c>
       <c r="G52" t="n">
-        <v>201258.0996</v>
+        <v>94404.24499999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2594,9 +2510,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,22 +2526,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>155</v>
+        <v>134.1</v>
       </c>
       <c r="C53" t="n">
-        <v>155</v>
+        <v>140.6</v>
       </c>
       <c r="D53" t="n">
-        <v>155</v>
+        <v>140.6</v>
       </c>
       <c r="E53" t="n">
-        <v>155</v>
+        <v>134.1</v>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>22550.4375</v>
       </c>
       <c r="G53" t="n">
-        <v>201258.0996</v>
+        <v>116954.6825</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2636,9 +2550,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,22 +2566,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>155</v>
+        <v>135.2</v>
       </c>
       <c r="C54" t="n">
-        <v>155</v>
+        <v>135.2</v>
       </c>
       <c r="D54" t="n">
-        <v>155</v>
+        <v>135.2</v>
       </c>
       <c r="E54" t="n">
-        <v>155</v>
+        <v>135.2</v>
       </c>
       <c r="F54" t="n">
-        <v>2743.0748</v>
+        <v>716.925</v>
       </c>
       <c r="G54" t="n">
-        <v>201258.0996</v>
+        <v>116237.7575</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2678,9 +2590,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,22 +2606,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>154.9</v>
+        <v>135.2</v>
       </c>
       <c r="C55" t="n">
-        <v>154.9</v>
+        <v>142.1</v>
       </c>
       <c r="D55" t="n">
-        <v>154.9</v>
+        <v>142.1</v>
       </c>
       <c r="E55" t="n">
-        <v>154.9</v>
+        <v>133.3</v>
       </c>
       <c r="F55" t="n">
-        <v>65</v>
+        <v>23177.7824</v>
       </c>
       <c r="G55" t="n">
-        <v>201193.0996</v>
+        <v>139415.5399</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2720,9 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,22 +2646,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>154.9</v>
+        <v>137</v>
       </c>
       <c r="C56" t="n">
-        <v>154.9</v>
+        <v>137</v>
       </c>
       <c r="D56" t="n">
-        <v>154.9</v>
+        <v>137</v>
       </c>
       <c r="E56" t="n">
-        <v>154.9</v>
+        <v>137</v>
       </c>
       <c r="F56" t="n">
-        <v>631.7403</v>
+        <v>629</v>
       </c>
       <c r="G56" t="n">
-        <v>201193.0996</v>
+        <v>138786.5399</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2762,9 +2670,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,22 +2686,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C57" t="n">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D57" t="n">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E57" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>538.242</v>
       </c>
       <c r="G57" t="n">
-        <v>201443.0996</v>
+        <v>139324.7819</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2804,9 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,22 +2726,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>156</v>
+        <v>136.2</v>
       </c>
       <c r="C58" t="n">
-        <v>156.9</v>
+        <v>139</v>
       </c>
       <c r="D58" t="n">
-        <v>156.9</v>
+        <v>139</v>
       </c>
       <c r="E58" t="n">
-        <v>156</v>
+        <v>135.6</v>
       </c>
       <c r="F58" t="n">
-        <v>1416.6719</v>
+        <v>6155.4234</v>
       </c>
       <c r="G58" t="n">
-        <v>200026.4277</v>
+        <v>139324.7819</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2846,9 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,22 +2766,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>154.1</v>
+        <v>138.8</v>
       </c>
       <c r="C59" t="n">
-        <v>154.1</v>
+        <v>139.8</v>
       </c>
       <c r="D59" t="n">
-        <v>154.1</v>
+        <v>139.8</v>
       </c>
       <c r="E59" t="n">
-        <v>154.1</v>
+        <v>138.8</v>
       </c>
       <c r="F59" t="n">
-        <v>80</v>
+        <v>2083.212</v>
       </c>
       <c r="G59" t="n">
-        <v>199946.4277</v>
+        <v>141407.9939</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2888,9 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,22 +2806,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>152.3</v>
+        <v>139.8</v>
       </c>
       <c r="C60" t="n">
-        <v>152.3</v>
+        <v>143.4</v>
       </c>
       <c r="D60" t="n">
-        <v>152.3</v>
+        <v>143.4</v>
       </c>
       <c r="E60" t="n">
-        <v>152.3</v>
+        <v>139.8</v>
       </c>
       <c r="F60" t="n">
-        <v>212.502</v>
+        <v>9362.433999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>199733.9257</v>
+        <v>150770.4279</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2930,9 +2830,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,22 +2846,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>147.2</v>
+        <v>141.4</v>
       </c>
       <c r="C61" t="n">
-        <v>151.6</v>
+        <v>141.4</v>
       </c>
       <c r="D61" t="n">
-        <v>151.6</v>
+        <v>141.4</v>
       </c>
       <c r="E61" t="n">
-        <v>146.2</v>
+        <v>141.4</v>
       </c>
       <c r="F61" t="n">
-        <v>3987.5915</v>
+        <v>250</v>
       </c>
       <c r="G61" t="n">
-        <v>195746.3342</v>
+        <v>150520.4279</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2972,9 +2870,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,22 +2886,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>151.1</v>
+        <v>141.1</v>
       </c>
       <c r="C62" t="n">
-        <v>151</v>
+        <v>141.1</v>
       </c>
       <c r="D62" t="n">
-        <v>152</v>
+        <v>141.1</v>
       </c>
       <c r="E62" t="n">
-        <v>150</v>
+        <v>141.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1020</v>
+        <v>620.9281999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>194726.3342</v>
+        <v>149899.4997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3014,9 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,22 +2926,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>152</v>
+        <v>139.8</v>
       </c>
       <c r="C63" t="n">
-        <v>149</v>
+        <v>142.4</v>
       </c>
       <c r="D63" t="n">
-        <v>152</v>
+        <v>142.4</v>
       </c>
       <c r="E63" t="n">
-        <v>149</v>
+        <v>135.6</v>
       </c>
       <c r="F63" t="n">
-        <v>509.1069</v>
+        <v>10122.7757</v>
       </c>
       <c r="G63" t="n">
-        <v>194217.2272999999</v>
+        <v>160022.2754</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3056,9 +2950,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,22 +2966,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>152</v>
+        <v>139.3</v>
       </c>
       <c r="C64" t="n">
-        <v>147.3</v>
+        <v>139.3</v>
       </c>
       <c r="D64" t="n">
-        <v>152</v>
+        <v>139.3</v>
       </c>
       <c r="E64" t="n">
-        <v>147.3</v>
+        <v>139.3</v>
       </c>
       <c r="F64" t="n">
-        <v>2905.811</v>
+        <v>1750</v>
       </c>
       <c r="G64" t="n">
-        <v>191311.4163</v>
+        <v>158272.2754</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3098,9 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,22 +3006,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>148.3</v>
+        <v>139.7</v>
       </c>
       <c r="C65" t="n">
-        <v>154</v>
+        <v>139.7</v>
       </c>
       <c r="D65" t="n">
-        <v>154</v>
+        <v>139.7</v>
       </c>
       <c r="E65" t="n">
-        <v>147</v>
+        <v>139.7</v>
       </c>
       <c r="F65" t="n">
-        <v>3626.4642</v>
+        <v>215</v>
       </c>
       <c r="G65" t="n">
-        <v>194937.8804999999</v>
+        <v>158487.2754</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3140,9 +3030,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,22 +3046,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>152</v>
+        <v>136.1</v>
       </c>
       <c r="C66" t="n">
-        <v>152</v>
+        <v>136.1</v>
       </c>
       <c r="D66" t="n">
-        <v>152</v>
+        <v>136.1</v>
       </c>
       <c r="E66" t="n">
-        <v>152</v>
+        <v>136.1</v>
       </c>
       <c r="F66" t="n">
-        <v>750</v>
+        <v>261.1482</v>
       </c>
       <c r="G66" t="n">
-        <v>194187.8804999999</v>
+        <v>158226.1272</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3182,9 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,22 +3086,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>151.9</v>
+        <v>135.6</v>
       </c>
       <c r="C67" t="n">
-        <v>151.9</v>
+        <v>139.8</v>
       </c>
       <c r="D67" t="n">
-        <v>151.9</v>
+        <v>139.8</v>
       </c>
       <c r="E67" t="n">
-        <v>151.9</v>
+        <v>135.6</v>
       </c>
       <c r="F67" t="n">
-        <v>256</v>
+        <v>6037.2534</v>
       </c>
       <c r="G67" t="n">
-        <v>193931.8804999999</v>
+        <v>164263.3806</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3224,9 +3110,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,22 +3126,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>151.6</v>
+        <v>135.5</v>
       </c>
       <c r="C68" t="n">
-        <v>151.6</v>
+        <v>139.8</v>
       </c>
       <c r="D68" t="n">
-        <v>151.6</v>
+        <v>140.8</v>
       </c>
       <c r="E68" t="n">
-        <v>151.6</v>
+        <v>135.5</v>
       </c>
       <c r="F68" t="n">
-        <v>237.9924</v>
+        <v>6586.384</v>
       </c>
       <c r="G68" t="n">
-        <v>193693.8881</v>
+        <v>164263.3806</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3266,9 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,22 +3166,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>151</v>
+        <v>139.8</v>
       </c>
       <c r="C69" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="D69" t="n">
-        <v>151</v>
+        <v>142.4</v>
       </c>
       <c r="E69" t="n">
-        <v>150</v>
+        <v>139.8</v>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>4459</v>
       </c>
       <c r="G69" t="n">
-        <v>193193.8881</v>
+        <v>168722.3806</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3308,9 +3190,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,22 +3206,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>147.7</v>
+        <v>138.2</v>
       </c>
       <c r="C70" t="n">
-        <v>147.7</v>
+        <v>138.2</v>
       </c>
       <c r="D70" t="n">
-        <v>147.7</v>
+        <v>138.2</v>
       </c>
       <c r="E70" t="n">
-        <v>147.7</v>
+        <v>138.2</v>
       </c>
       <c r="F70" t="n">
-        <v>1140.07</v>
+        <v>387.9651</v>
       </c>
       <c r="G70" t="n">
-        <v>192053.8180999999</v>
+        <v>168334.4155</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3350,9 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,22 +3246,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>145.7</v>
+        <v>141.4</v>
       </c>
       <c r="C71" t="n">
-        <v>146.7</v>
+        <v>142.4</v>
       </c>
       <c r="D71" t="n">
-        <v>146.7</v>
+        <v>142.4</v>
       </c>
       <c r="E71" t="n">
-        <v>145.7</v>
+        <v>141.4</v>
       </c>
       <c r="F71" t="n">
-        <v>850</v>
+        <v>1138</v>
       </c>
       <c r="G71" t="n">
-        <v>191203.8180999999</v>
+        <v>169472.4155</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3392,9 +3270,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,22 +3286,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>144.2</v>
+        <v>137</v>
       </c>
       <c r="C72" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D72" t="n">
-        <v>144.2</v>
+        <v>137</v>
       </c>
       <c r="E72" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F72" t="n">
-        <v>55.8635</v>
+        <v>568.0684</v>
       </c>
       <c r="G72" t="n">
-        <v>191147.9545999999</v>
+        <v>168904.3471</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3434,9 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,22 +3326,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>142.9</v>
+        <v>138</v>
       </c>
       <c r="C73" t="n">
-        <v>142.9</v>
+        <v>138</v>
       </c>
       <c r="D73" t="n">
-        <v>142.9</v>
+        <v>138</v>
       </c>
       <c r="E73" t="n">
-        <v>142.9</v>
+        <v>138</v>
       </c>
       <c r="F73" t="n">
-        <v>40.2217</v>
+        <v>287.4627</v>
       </c>
       <c r="G73" t="n">
-        <v>191107.7328999999</v>
+        <v>169191.8098</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3476,9 +3350,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,22 +3366,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>144</v>
+        <v>140.1</v>
       </c>
       <c r="C74" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D74" t="n">
-        <v>144</v>
+        <v>140.2</v>
       </c>
       <c r="E74" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F74" t="n">
-        <v>1043.9848</v>
+        <v>2161.01</v>
       </c>
       <c r="G74" t="n">
-        <v>192151.7177</v>
+        <v>171352.8198</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3518,9 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,22 +3406,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="C75" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D75" t="n">
-        <v>149.9</v>
+        <v>140</v>
       </c>
       <c r="E75" t="n">
-        <v>141.1</v>
+        <v>139</v>
       </c>
       <c r="F75" t="n">
-        <v>7156.51</v>
+        <v>1592.73</v>
       </c>
       <c r="G75" t="n">
-        <v>199308.2277</v>
+        <v>171352.8198</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3560,9 +3430,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,22 +3446,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>146.1</v>
+        <v>139.1</v>
       </c>
       <c r="C76" t="n">
-        <v>144.1</v>
+        <v>138.1</v>
       </c>
       <c r="D76" t="n">
-        <v>146.1</v>
+        <v>139.1</v>
       </c>
       <c r="E76" t="n">
-        <v>144</v>
+        <v>138.1</v>
       </c>
       <c r="F76" t="n">
-        <v>568.283</v>
+        <v>2326.57</v>
       </c>
       <c r="G76" t="n">
-        <v>198739.9447</v>
+        <v>169026.2498</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3602,9 +3470,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,22 +3486,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>145.9</v>
+        <v>138.9</v>
       </c>
       <c r="C77" t="n">
-        <v>146.5</v>
+        <v>139.9</v>
       </c>
       <c r="D77" t="n">
-        <v>146.5</v>
+        <v>139.9</v>
       </c>
       <c r="E77" t="n">
-        <v>145.9</v>
+        <v>138.8</v>
       </c>
       <c r="F77" t="n">
-        <v>690</v>
+        <v>2250</v>
       </c>
       <c r="G77" t="n">
-        <v>199429.9447</v>
+        <v>171276.2498</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3644,9 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,22 +3526,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>145.4</v>
+        <v>138.1</v>
       </c>
       <c r="C78" t="n">
-        <v>145.4</v>
+        <v>138.1</v>
       </c>
       <c r="D78" t="n">
-        <v>145.4</v>
+        <v>138.1</v>
       </c>
       <c r="E78" t="n">
-        <v>145.4</v>
+        <v>138.1</v>
       </c>
       <c r="F78" t="n">
-        <v>13.5302</v>
+        <v>663.3952</v>
       </c>
       <c r="G78" t="n">
-        <v>199416.4145</v>
+        <v>170612.8546</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3686,9 +3550,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,22 +3566,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>145.4</v>
+        <v>138.1</v>
       </c>
       <c r="C79" t="n">
-        <v>145.4</v>
+        <v>138</v>
       </c>
       <c r="D79" t="n">
-        <v>145.4</v>
+        <v>138.1</v>
       </c>
       <c r="E79" t="n">
-        <v>145.4</v>
+        <v>138</v>
       </c>
       <c r="F79" t="n">
-        <v>1320.7198</v>
+        <v>19719.7641</v>
       </c>
       <c r="G79" t="n">
-        <v>199416.4145</v>
+        <v>150893.0905</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3728,9 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,22 +3606,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>145.1</v>
+        <v>138</v>
       </c>
       <c r="C80" t="n">
-        <v>145.1</v>
+        <v>138.6</v>
       </c>
       <c r="D80" t="n">
-        <v>145.1</v>
+        <v>138.6</v>
       </c>
       <c r="E80" t="n">
-        <v>145.1</v>
+        <v>138</v>
       </c>
       <c r="F80" t="n">
-        <v>1334.25</v>
+        <v>791.7917</v>
       </c>
       <c r="G80" t="n">
-        <v>198082.1645</v>
+        <v>151684.8822</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3770,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,22 +3646,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>145.4</v>
+        <v>138</v>
       </c>
       <c r="C81" t="n">
-        <v>147.3</v>
+        <v>138</v>
       </c>
       <c r="D81" t="n">
-        <v>147.3</v>
+        <v>138</v>
       </c>
       <c r="E81" t="n">
-        <v>145.4</v>
+        <v>138</v>
       </c>
       <c r="F81" t="n">
-        <v>3545.555</v>
+        <v>646.0684</v>
       </c>
       <c r="G81" t="n">
-        <v>201627.7194999999</v>
+        <v>151038.8138</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3812,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,22 +3686,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>147.3</v>
+        <v>138</v>
       </c>
       <c r="C82" t="n">
-        <v>147.3</v>
+        <v>138</v>
       </c>
       <c r="D82" t="n">
-        <v>147.3</v>
+        <v>138</v>
       </c>
       <c r="E82" t="n">
-        <v>147.3</v>
+        <v>138</v>
       </c>
       <c r="F82" t="n">
-        <v>291.832</v>
+        <v>189.3627</v>
       </c>
       <c r="G82" t="n">
-        <v>201627.7194999999</v>
+        <v>151038.8138</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3854,9 +3710,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,22 +3726,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>150</v>
+        <v>139.9</v>
       </c>
       <c r="C83" t="n">
-        <v>150</v>
+        <v>142.2</v>
       </c>
       <c r="D83" t="n">
-        <v>150</v>
+        <v>142.2</v>
       </c>
       <c r="E83" t="n">
-        <v>150</v>
+        <v>139.9</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>856.6769</v>
       </c>
       <c r="G83" t="n">
-        <v>202127.7194999999</v>
+        <v>151895.4907</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3896,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,22 +3766,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>150.1</v>
+        <v>141.1</v>
       </c>
       <c r="C84" t="n">
-        <v>150.1</v>
+        <v>141.1</v>
       </c>
       <c r="D84" t="n">
-        <v>150.1</v>
+        <v>141.1</v>
       </c>
       <c r="E84" t="n">
-        <v>150.1</v>
+        <v>141.1</v>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="G84" t="n">
-        <v>203127.7194999999</v>
+        <v>150645.4907</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3938,9 +3790,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,76 +3806,76 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C85" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D85" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E85" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>928.9556</v>
       </c>
       <c r="G85" t="n">
-        <v>202127.7194999999</v>
+        <v>149716.5351</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1.08116944243302</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1.015942028985507</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C86" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="D86" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="E86" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>2696.6505</v>
       </c>
       <c r="G86" t="n">
-        <v>202127.7194999999</v>
+        <v>152413.1856</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4036,32 +3886,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="C87" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="D87" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="E87" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="F87" t="n">
-        <v>4569.5329</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>202127.7194999999</v>
+        <v>152413.1856</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4072,32 +3926,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="C88" t="n">
-        <v>150.9</v>
+        <v>139.1</v>
       </c>
       <c r="D88" t="n">
-        <v>150.9</v>
+        <v>142.3</v>
       </c>
       <c r="E88" t="n">
-        <v>150</v>
+        <v>139.1</v>
       </c>
       <c r="F88" t="n">
-        <v>3810</v>
+        <v>1816.0803</v>
       </c>
       <c r="G88" t="n">
-        <v>205937.7194999999</v>
+        <v>150597.1053</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4108,32 +3966,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="C89" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="D89" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="E89" t="n">
-        <v>150</v>
+        <v>141.3</v>
       </c>
       <c r="F89" t="n">
-        <v>66.34</v>
+        <v>500</v>
       </c>
       <c r="G89" t="n">
-        <v>205871.3795</v>
+        <v>151097.1053</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4144,32 +4006,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>150.5</v>
+        <v>141.3</v>
       </c>
       <c r="C90" t="n">
-        <v>150.5</v>
+        <v>142.3</v>
       </c>
       <c r="D90" t="n">
-        <v>150.5</v>
+        <v>142.3</v>
       </c>
       <c r="E90" t="n">
-        <v>150.5</v>
+        <v>141.3</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>8428.125</v>
       </c>
       <c r="G90" t="n">
-        <v>205881.3795</v>
+        <v>159525.2303</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4180,32 +4046,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>150</v>
+        <v>142.3</v>
       </c>
       <c r="C91" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="D91" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="E91" t="n">
-        <v>150</v>
+        <v>142.3</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1068</v>
+        <v>13771.5814</v>
       </c>
       <c r="G91" t="n">
-        <v>205881.2726999999</v>
+        <v>173296.8117</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4216,32 +4086,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>148</v>
+        <v>142.4</v>
       </c>
       <c r="C92" t="n">
-        <v>148</v>
+        <v>142.4</v>
       </c>
       <c r="D92" t="n">
-        <v>148</v>
+        <v>142.4</v>
       </c>
       <c r="E92" t="n">
-        <v>148</v>
+        <v>142.4</v>
       </c>
       <c r="F92" t="n">
-        <v>346.234</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>205535.0386999999</v>
+        <v>173296.8117</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4252,32 +4126,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>148</v>
+        <v>142.4</v>
       </c>
       <c r="C93" t="n">
-        <v>149</v>
+        <v>142.4</v>
       </c>
       <c r="D93" t="n">
-        <v>149</v>
+        <v>142.4</v>
       </c>
       <c r="E93" t="n">
-        <v>148</v>
+        <v>142.4</v>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>11051.2282</v>
       </c>
       <c r="G93" t="n">
-        <v>206035.0386999999</v>
+        <v>173296.8117</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4288,32 +4166,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>147</v>
+        <v>142.4</v>
       </c>
       <c r="C94" t="n">
-        <v>147</v>
+        <v>142.4</v>
       </c>
       <c r="D94" t="n">
-        <v>147</v>
+        <v>142.4</v>
       </c>
       <c r="E94" t="n">
-        <v>147</v>
+        <v>142.4</v>
       </c>
       <c r="F94" t="n">
-        <v>96.23399999999999</v>
+        <v>800.4399</v>
       </c>
       <c r="G94" t="n">
-        <v>205938.8046999999</v>
+        <v>173296.8117</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4324,32 +4206,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>146.1</v>
+        <v>142.4</v>
       </c>
       <c r="C95" t="n">
-        <v>146.1</v>
+        <v>148.4</v>
       </c>
       <c r="D95" t="n">
-        <v>146.1</v>
+        <v>148.4</v>
       </c>
       <c r="E95" t="n">
-        <v>146.1</v>
+        <v>142.4</v>
       </c>
       <c r="F95" t="n">
-        <v>213.515</v>
+        <v>16705.8373</v>
       </c>
       <c r="G95" t="n">
-        <v>205725.2896999999</v>
+        <v>190002.649</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4360,32 +4246,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C96" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D96" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96" t="n">
-        <v>146</v>
+        <v>138.1</v>
       </c>
       <c r="F96" t="n">
-        <v>96.23399999999999</v>
+        <v>6571.1729</v>
       </c>
       <c r="G96" t="n">
-        <v>205629.0556999999</v>
+        <v>183431.4761</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4396,32 +4286,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="C97" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="D97" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="E97" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="F97" t="n">
-        <v>6.9825</v>
+        <v>549.3252</v>
       </c>
       <c r="G97" t="n">
-        <v>205636.0382</v>
+        <v>183980.8013</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4432,32 +4326,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>148.8</v>
+        <v>144</v>
       </c>
       <c r="C98" t="n">
-        <v>149.8</v>
+        <v>146</v>
       </c>
       <c r="D98" t="n">
-        <v>149.8</v>
+        <v>146</v>
       </c>
       <c r="E98" t="n">
-        <v>148.8</v>
+        <v>144</v>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>205886.0382</v>
+        <v>184480.8013</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4468,32 +4366,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C99" t="n">
-        <v>147</v>
+        <v>144.7</v>
       </c>
       <c r="D99" t="n">
-        <v>147</v>
+        <v>144.7</v>
       </c>
       <c r="E99" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F99" t="n">
-        <v>14.7902</v>
+        <v>2745.452</v>
       </c>
       <c r="G99" t="n">
-        <v>205871.248</v>
+        <v>181735.3493</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4504,32 +4406,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>146.6</v>
+        <v>144.7</v>
       </c>
       <c r="C100" t="n">
-        <v>148.1</v>
+        <v>145.7</v>
       </c>
       <c r="D100" t="n">
-        <v>148.1</v>
+        <v>145.7</v>
       </c>
       <c r="E100" t="n">
-        <v>146.6</v>
+        <v>144.7</v>
       </c>
       <c r="F100" t="n">
-        <v>1510</v>
+        <v>1412.3558</v>
       </c>
       <c r="G100" t="n">
-        <v>207381.248</v>
+        <v>183147.7051</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4540,32 +4446,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>146.1</v>
+        <v>145</v>
       </c>
       <c r="C101" t="n">
-        <v>149</v>
+        <v>145.9</v>
       </c>
       <c r="D101" t="n">
-        <v>149</v>
+        <v>145.9</v>
       </c>
       <c r="E101" t="n">
-        <v>146.1</v>
+        <v>145</v>
       </c>
       <c r="F101" t="n">
-        <v>3831.83</v>
+        <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>211213.078</v>
+        <v>183647.7051</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4576,22 +4486,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>147.4</v>
+        <v>145</v>
       </c>
       <c r="C102" t="n">
-        <v>148</v>
+        <v>145.9</v>
       </c>
       <c r="D102" t="n">
-        <v>149</v>
+        <v>145.9</v>
       </c>
       <c r="E102" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F102" t="n">
-        <v>5669.7648</v>
+        <v>1306.6161</v>
       </c>
       <c r="G102" t="n">
-        <v>205543.3131999999</v>
+        <v>183647.7051</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4601,7 +4511,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4612,32 +4526,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D103" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E103" t="n">
-        <v>145.3</v>
+        <v>146</v>
       </c>
       <c r="F103" t="n">
-        <v>2010.5488</v>
+        <v>573</v>
       </c>
       <c r="G103" t="n">
-        <v>203532.7644</v>
+        <v>184220.7051</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4648,32 +4566,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>147.1</v>
+        <v>146</v>
       </c>
       <c r="C104" t="n">
-        <v>148.3</v>
+        <v>146</v>
       </c>
       <c r="D104" t="n">
-        <v>148.3</v>
+        <v>146</v>
       </c>
       <c r="E104" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="F104" t="n">
-        <v>1916.6719</v>
+        <v>13474.8231</v>
       </c>
       <c r="G104" t="n">
-        <v>205449.4362999999</v>
+        <v>184220.7051</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4684,32 +4606,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>148</v>
+        <v>145.9</v>
       </c>
       <c r="C105" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D105" t="n">
-        <v>149.8</v>
+        <v>146</v>
       </c>
       <c r="E105" t="n">
-        <v>146.5</v>
+        <v>145.9</v>
       </c>
       <c r="F105" t="n">
-        <v>3339.9963</v>
+        <v>672.0431</v>
       </c>
       <c r="G105" t="n">
-        <v>202109.4399999999</v>
+        <v>184220.7051</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4720,32 +4646,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="D106" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="E106" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="F106" t="n">
-        <v>1740.4784</v>
+        <v>475.537</v>
       </c>
       <c r="G106" t="n">
-        <v>203849.9183999999</v>
+        <v>184220.7051</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4756,32 +4686,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>147.7</v>
+        <v>144.1</v>
       </c>
       <c r="C107" t="n">
-        <v>147.7</v>
+        <v>144.1</v>
       </c>
       <c r="D107" t="n">
-        <v>147.7</v>
+        <v>144.1</v>
       </c>
       <c r="E107" t="n">
-        <v>147.7</v>
+        <v>144.1</v>
       </c>
       <c r="F107" t="n">
-        <v>378.212</v>
+        <v>1497.0356</v>
       </c>
       <c r="G107" t="n">
-        <v>203849.9183999999</v>
+        <v>182723.6695</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4792,36 +4726,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="C108" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="D108" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="E108" t="n">
-        <v>147.7</v>
+        <v>146</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0004</v>
+        <v>68.7533</v>
       </c>
       <c r="G108" t="n">
-        <v>203849.9183999999</v>
+        <v>182792.4228</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="K108" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4832,38 +4766,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C109" t="n">
-        <v>149.1</v>
+        <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>149.1</v>
+        <v>146</v>
       </c>
       <c r="E109" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F109" t="n">
-        <v>421.12</v>
+        <v>181.212</v>
       </c>
       <c r="G109" t="n">
-        <v>204271.0383999999</v>
+        <v>182792.4228</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="K109" t="n">
-        <v>147.7</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -4876,38 +4806,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>149.1</v>
+        <v>146</v>
       </c>
       <c r="C110" t="n">
-        <v>148.1</v>
+        <v>146</v>
       </c>
       <c r="D110" t="n">
-        <v>149.1</v>
+        <v>146</v>
       </c>
       <c r="E110" t="n">
-        <v>148.1</v>
+        <v>146</v>
       </c>
       <c r="F110" t="n">
-        <v>3831.338</v>
+        <v>398.502</v>
       </c>
       <c r="G110" t="n">
-        <v>200439.7003999999</v>
+        <v>182792.4228</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>147.7</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -4920,40 +4846,2650 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>146</v>
+      </c>
+      <c r="C111" t="n">
+        <v>146</v>
+      </c>
+      <c r="D111" t="n">
+        <v>146</v>
+      </c>
+      <c r="E111" t="n">
+        <v>146</v>
+      </c>
+      <c r="F111" t="n">
+        <v>210</v>
+      </c>
+      <c r="G111" t="n">
+        <v>182792.4228</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>146</v>
+      </c>
+      <c r="C112" t="n">
+        <v>146</v>
+      </c>
+      <c r="D112" t="n">
+        <v>146</v>
+      </c>
+      <c r="E112" t="n">
+        <v>146</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12300.165</v>
+      </c>
+      <c r="G112" t="n">
+        <v>182792.4228</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>146</v>
+      </c>
+      <c r="C113" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11137.208</v>
+      </c>
+      <c r="G113" t="n">
+        <v>171655.2148</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>146</v>
+      </c>
+      <c r="C114" t="n">
+        <v>146</v>
+      </c>
+      <c r="D114" t="n">
+        <v>146</v>
+      </c>
+      <c r="E114" t="n">
+        <v>146</v>
+      </c>
+      <c r="F114" t="n">
+        <v>528.1299</v>
+      </c>
+      <c r="G114" t="n">
+        <v>172183.3447</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5281.5369</v>
+      </c>
+      <c r="G115" t="n">
+        <v>177464.8816</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>664.127</v>
+      </c>
+      <c r="G116" t="n">
+        <v>177464.8816</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>145</v>
+      </c>
+      <c r="C117" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>145</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1087.5068</v>
+      </c>
+      <c r="G117" t="n">
+        <v>177464.8816</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>19162.6568</v>
+      </c>
+      <c r="G118" t="n">
+        <v>196627.5384</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>498.9789</v>
+      </c>
+      <c r="G119" t="n">
+        <v>196627.5384</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2129</v>
+      </c>
+      <c r="G120" t="n">
+        <v>198756.5384</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>72.63549999999999</v>
+      </c>
+      <c r="G121" t="n">
+        <v>198756.5384</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>155</v>
+      </c>
+      <c r="E122" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6859.8678</v>
+      </c>
+      <c r="G122" t="n">
+        <v>198756.5384</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>155</v>
+      </c>
+      <c r="D123" t="n">
+        <v>155</v>
+      </c>
+      <c r="E123" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2501.5612</v>
+      </c>
+      <c r="G123" t="n">
+        <v>201258.0996</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>155</v>
+      </c>
+      <c r="C124" t="n">
+        <v>155</v>
+      </c>
+      <c r="D124" t="n">
+        <v>155</v>
+      </c>
+      <c r="E124" t="n">
+        <v>155</v>
+      </c>
+      <c r="F124" t="n">
+        <v>250</v>
+      </c>
+      <c r="G124" t="n">
+        <v>201258.0996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>155</v>
+      </c>
+      <c r="C125" t="n">
+        <v>155</v>
+      </c>
+      <c r="D125" t="n">
+        <v>155</v>
+      </c>
+      <c r="E125" t="n">
+        <v>155</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2743.0748</v>
+      </c>
+      <c r="G125" t="n">
+        <v>201258.0996</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>65</v>
+      </c>
+      <c r="G126" t="n">
+        <v>201193.0996</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>631.7403</v>
+      </c>
+      <c r="G127" t="n">
+        <v>201193.0996</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>156</v>
+      </c>
+      <c r="C128" t="n">
+        <v>157</v>
+      </c>
+      <c r="D128" t="n">
+        <v>157</v>
+      </c>
+      <c r="E128" t="n">
+        <v>156</v>
+      </c>
+      <c r="F128" t="n">
+        <v>250</v>
+      </c>
+      <c r="G128" t="n">
+        <v>201443.0996</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>156</v>
+      </c>
+      <c r="C129" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>156</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1416.6719</v>
+      </c>
+      <c r="G129" t="n">
+        <v>200026.4277</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>80</v>
+      </c>
+      <c r="G130" t="n">
+        <v>199946.4277</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>212.502</v>
+      </c>
+      <c r="G131" t="n">
+        <v>199733.9257</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3987.5915</v>
+      </c>
+      <c r="G132" t="n">
+        <v>195746.3342</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>151</v>
+      </c>
+      <c r="D133" t="n">
+        <v>152</v>
+      </c>
+      <c r="E133" t="n">
+        <v>150</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G133" t="n">
+        <v>194726.3342</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>152</v>
+      </c>
+      <c r="C134" t="n">
+        <v>149</v>
+      </c>
+      <c r="D134" t="n">
+        <v>152</v>
+      </c>
+      <c r="E134" t="n">
+        <v>149</v>
+      </c>
+      <c r="F134" t="n">
+        <v>509.1069</v>
+      </c>
+      <c r="G134" t="n">
+        <v>194217.2272999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>152</v>
+      </c>
+      <c r="C135" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>152</v>
+      </c>
+      <c r="E135" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2905.811</v>
+      </c>
+      <c r="G135" t="n">
+        <v>191311.4163</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>154</v>
+      </c>
+      <c r="D136" t="n">
+        <v>154</v>
+      </c>
+      <c r="E136" t="n">
+        <v>147</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3626.4642</v>
+      </c>
+      <c r="G136" t="n">
+        <v>194937.8804999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>152</v>
+      </c>
+      <c r="C137" t="n">
+        <v>152</v>
+      </c>
+      <c r="D137" t="n">
+        <v>152</v>
+      </c>
+      <c r="E137" t="n">
+        <v>152</v>
+      </c>
+      <c r="F137" t="n">
+        <v>750</v>
+      </c>
+      <c r="G137" t="n">
+        <v>194187.8804999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>256</v>
+      </c>
+      <c r="G138" t="n">
+        <v>193931.8804999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>237.9924</v>
+      </c>
+      <c r="G139" t="n">
+        <v>193693.8881</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>151</v>
+      </c>
+      <c r="C140" t="n">
+        <v>150</v>
+      </c>
+      <c r="D140" t="n">
+        <v>151</v>
+      </c>
+      <c r="E140" t="n">
+        <v>150</v>
+      </c>
+      <c r="F140" t="n">
+        <v>500</v>
+      </c>
+      <c r="G140" t="n">
+        <v>193193.8881</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1140.07</v>
+      </c>
+      <c r="G141" t="n">
+        <v>192053.8180999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>850</v>
+      </c>
+      <c r="G142" t="n">
+        <v>191203.8180999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>144</v>
+      </c>
+      <c r="D143" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>144</v>
+      </c>
+      <c r="F143" t="n">
+        <v>55.8635</v>
+      </c>
+      <c r="G143" t="n">
+        <v>191147.9545999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>40.2217</v>
+      </c>
+      <c r="G144" t="n">
+        <v>191107.7328999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>144</v>
+      </c>
+      <c r="D145" t="n">
+        <v>144</v>
+      </c>
+      <c r="E145" t="n">
+        <v>144</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1043.9848</v>
+      </c>
+      <c r="G145" t="n">
+        <v>192151.7177</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>146</v>
+      </c>
+      <c r="D146" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7156.51</v>
+      </c>
+      <c r="G146" t="n">
+        <v>199308.2277</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>144</v>
+      </c>
+      <c r="F147" t="n">
+        <v>568.283</v>
+      </c>
+      <c r="G147" t="n">
+        <v>198739.9447</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>690</v>
+      </c>
+      <c r="G148" t="n">
+        <v>199429.9447</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13.5302</v>
+      </c>
+      <c r="G149" t="n">
+        <v>199416.4145</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1320.7198</v>
+      </c>
+      <c r="G150" t="n">
+        <v>199416.4145</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1334.25</v>
+      </c>
+      <c r="G151" t="n">
+        <v>198082.1645</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3545.555</v>
+      </c>
+      <c r="G152" t="n">
+        <v>201627.7194999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>291.832</v>
+      </c>
+      <c r="G153" t="n">
+        <v>201627.7194999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>150</v>
+      </c>
+      <c r="C154" t="n">
+        <v>150</v>
+      </c>
+      <c r="D154" t="n">
+        <v>150</v>
+      </c>
+      <c r="E154" t="n">
+        <v>150</v>
+      </c>
+      <c r="F154" t="n">
+        <v>500</v>
+      </c>
+      <c r="G154" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>203127.7194999999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>150</v>
+      </c>
+      <c r="C156" t="n">
+        <v>150</v>
+      </c>
+      <c r="D156" t="n">
+        <v>150</v>
+      </c>
+      <c r="E156" t="n">
+        <v>150</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>150</v>
+      </c>
+      <c r="C157" t="n">
+        <v>150</v>
+      </c>
+      <c r="D157" t="n">
+        <v>150</v>
+      </c>
+      <c r="E157" t="n">
+        <v>150</v>
+      </c>
+      <c r="F157" t="n">
+        <v>250</v>
+      </c>
+      <c r="G157" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>150</v>
+      </c>
+      <c r="C158" t="n">
+        <v>150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>150</v>
+      </c>
+      <c r="E158" t="n">
+        <v>150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4569.5329</v>
+      </c>
+      <c r="G158" t="n">
+        <v>202127.7194999999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3810</v>
+      </c>
+      <c r="G159" t="n">
+        <v>205937.7194999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>150</v>
+      </c>
+      <c r="C160" t="n">
+        <v>150</v>
+      </c>
+      <c r="D160" t="n">
+        <v>150</v>
+      </c>
+      <c r="E160" t="n">
+        <v>150</v>
+      </c>
+      <c r="F160" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="G160" t="n">
+        <v>205871.3795</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>205881.3795</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>150</v>
+      </c>
+      <c r="C162" t="n">
+        <v>150</v>
+      </c>
+      <c r="D162" t="n">
+        <v>150</v>
+      </c>
+      <c r="E162" t="n">
+        <v>150</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="G162" t="n">
+        <v>205881.2726999999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>148</v>
+      </c>
+      <c r="C163" t="n">
+        <v>148</v>
+      </c>
+      <c r="D163" t="n">
+        <v>148</v>
+      </c>
+      <c r="E163" t="n">
+        <v>148</v>
+      </c>
+      <c r="F163" t="n">
+        <v>346.234</v>
+      </c>
+      <c r="G163" t="n">
+        <v>205535.0386999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>148</v>
+      </c>
+      <c r="C164" t="n">
+        <v>149</v>
+      </c>
+      <c r="D164" t="n">
+        <v>149</v>
+      </c>
+      <c r="E164" t="n">
+        <v>148</v>
+      </c>
+      <c r="F164" t="n">
+        <v>500</v>
+      </c>
+      <c r="G164" t="n">
+        <v>206035.0386999999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>147</v>
+      </c>
+      <c r="C165" t="n">
+        <v>147</v>
+      </c>
+      <c r="D165" t="n">
+        <v>147</v>
+      </c>
+      <c r="E165" t="n">
+        <v>147</v>
+      </c>
+      <c r="F165" t="n">
+        <v>96.23399999999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>205938.8046999999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>213.515</v>
+      </c>
+      <c r="G166" t="n">
+        <v>205725.2896999999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>146</v>
+      </c>
+      <c r="C167" t="n">
+        <v>146</v>
+      </c>
+      <c r="D167" t="n">
+        <v>146</v>
+      </c>
+      <c r="E167" t="n">
+        <v>146</v>
+      </c>
+      <c r="F167" t="n">
+        <v>96.23399999999999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>205629.0556999999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6.9825</v>
+      </c>
+      <c r="G168" t="n">
+        <v>205636.0382</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>250</v>
+      </c>
+      <c r="G169" t="n">
+        <v>205886.0382</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>147</v>
+      </c>
+      <c r="C170" t="n">
+        <v>147</v>
+      </c>
+      <c r="D170" t="n">
+        <v>147</v>
+      </c>
+      <c r="E170" t="n">
+        <v>147</v>
+      </c>
+      <c r="F170" t="n">
+        <v>14.7902</v>
+      </c>
+      <c r="G170" t="n">
+        <v>205871.248</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="C171" t="n">
         <v>148.1</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D171" t="n">
         <v>148.1</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E171" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G171" t="n">
+        <v>207381.248</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>149</v>
+      </c>
+      <c r="D172" t="n">
+        <v>149</v>
+      </c>
+      <c r="E172" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3831.83</v>
+      </c>
+      <c r="G172" t="n">
+        <v>211213.078</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>148</v>
+      </c>
+      <c r="D173" t="n">
+        <v>149</v>
+      </c>
+      <c r="E173" t="n">
+        <v>146</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5669.7648</v>
+      </c>
+      <c r="G173" t="n">
+        <v>205543.3131999999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>147</v>
+      </c>
+      <c r="C174" t="n">
+        <v>147</v>
+      </c>
+      <c r="D174" t="n">
+        <v>147</v>
+      </c>
+      <c r="E174" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2010.5488</v>
+      </c>
+      <c r="G174" t="n">
+        <v>203532.7644</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1916.6719</v>
+      </c>
+      <c r="G175" t="n">
+        <v>205449.4362999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>148</v>
+      </c>
+      <c r="C176" t="n">
+        <v>147</v>
+      </c>
+      <c r="D176" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3339.9963</v>
+      </c>
+      <c r="G176" t="n">
+        <v>202109.4399999999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>147</v>
+      </c>
+      <c r="C177" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1740.4784</v>
+      </c>
+      <c r="G177" t="n">
+        <v>203849.9183999999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>378.212</v>
+      </c>
+      <c r="G178" t="n">
+        <v>203849.9183999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="G179" t="n">
+        <v>203849.9183999999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>149</v>
+      </c>
+      <c r="C180" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>149</v>
+      </c>
+      <c r="F180" t="n">
+        <v>421.12</v>
+      </c>
+      <c r="G180" t="n">
+        <v>204271.0383999999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C181" t="n">
         <v>148.1</v>
       </c>
-      <c r="E111" t="n">
+      <c r="D181" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E181" t="n">
         <v>148.1</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F181" t="n">
+        <v>3831.338</v>
+      </c>
+      <c r="G181" t="n">
+        <v>200439.7003999999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F182" t="n">
         <v>909.181</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G182" t="n">
         <v>200439.7003999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>13248.925</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>13248.925</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>12748.925</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +583,15 @@
         <v>12748.925</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +616,15 @@
         <v>12748.925</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +649,15 @@
         <v>12748.925</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +682,15 @@
         <v>12748.925</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +715,15 @@
         <v>12748.925</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +748,15 @@
         <v>29920.545</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +781,15 @@
         <v>29920.545</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +814,15 @@
         <v>29920.545</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,22 +847,19 @@
         <v>29920.545</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="J14" t="n">
+        <v>140</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -994,24 +884,23 @@
         <v>29920.545</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J15" t="n">
         <v>140</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1036,24 +925,23 @@
         <v>29920.545</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J16" t="n">
         <v>140</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1078,24 +966,23 @@
         <v>37753.545</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J17" t="n">
         <v>140</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,24 +1007,23 @@
         <v>37457.446</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>143.7</v>
       </c>
       <c r="J18" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1162,24 +1048,21 @@
         <v>38071.446</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,24 +1087,21 @@
         <v>40821.446</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,20 +1128,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>140</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,24 +1165,21 @@
         <v>39443.2597</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>142</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1328,24 +1204,21 @@
         <v>39902.41929999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,24 +1243,21 @@
         <v>40711.41929999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1412,24 +1282,21 @@
         <v>39861.71799999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1454,24 +1321,21 @@
         <v>40061.71799999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1498,20 +1362,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>140</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1538,20 +1401,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1576,24 +1438,23 @@
         <v>39966.55899999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J29" t="n">
-        <v>138</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1618,22 +1479,23 @@
         <v>39966.55899999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="J30" t="n">
+        <v>140</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1658,22 +1520,23 @@
         <v>54871.35639999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="J31" t="n">
+        <v>140</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1700,20 +1563,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>140</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1738,22 +1600,23 @@
         <v>54768.04739999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>141.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>140</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1780,20 +1643,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>140</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1820,20 +1682,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>140</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1858,22 +1719,23 @@
         <v>53232.39949999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>141.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>140</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1898,24 +1760,23 @@
         <v>67307.17129999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J37" t="n">
         <v>140</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1940,24 +1801,23 @@
         <v>67264.69099999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>141.7</v>
       </c>
       <c r="J38" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1984,20 +1844,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>140</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2024,20 +1883,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>140</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2064,20 +1922,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>140</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2102,24 +1959,21 @@
         <v>70179.68389999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>143</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2144,22 +1998,23 @@
         <v>70505.44079999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>138.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>140</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2184,22 +2039,23 @@
         <v>91996.52199999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>140.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>140</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2226,20 +2082,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>140</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2266,20 +2121,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>140</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2306,20 +2160,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>140</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2346,20 +2199,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>140</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2386,20 +2238,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>140</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2424,22 +2275,23 @@
         <v>88805.77589999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>139.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>140</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2466,20 +2318,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>140</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2506,20 +2357,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>140</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2546,20 +2396,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>140</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2586,20 +2435,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>140</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2626,20 +2474,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>140</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2666,20 +2513,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>140</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2706,20 +2552,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>140</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2746,20 +2591,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>140</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2786,20 +2630,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>140</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2826,20 +2669,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>140</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2866,20 +2708,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>140</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2906,20 +2747,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>140</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2946,20 +2786,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>140</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2986,20 +2825,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>140</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3026,20 +2864,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>140</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3066,20 +2903,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>140</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3106,20 +2942,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>140</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3146,20 +2981,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>140</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3186,20 +3020,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>140</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3226,20 +3059,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>140</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3266,20 +3098,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>140</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3306,20 +3137,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>140</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3346,20 +3176,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>140</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3386,20 +3215,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>140</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3426,20 +3254,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>140</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3466,20 +3293,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>140</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3506,20 +3332,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>140</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3546,20 +3371,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>140</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3586,20 +3410,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>140</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3626,20 +3449,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>140</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3666,20 +3488,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>140</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3706,20 +3527,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>140</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3746,20 +3566,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>140</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3786,20 +3605,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>140</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3826,20 +3644,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>140</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3866,20 +3683,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>140</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3906,20 +3722,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>140</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3946,20 +3761,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>140</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3986,20 +3800,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>140</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4026,20 +3839,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>140</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4066,20 +3878,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>140</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4106,20 +3917,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>140</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4146,20 +3956,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>140</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4186,20 +3995,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>140</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4226,20 +4034,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>140</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4266,20 +4073,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>140</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4306,20 +4112,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>140</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4346,20 +4151,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>140</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4386,20 +4190,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>140</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4426,20 +4229,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>140</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4466,20 +4268,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>140</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4506,20 +4307,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>140</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4546,20 +4346,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>140</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4586,20 +4385,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>140</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4626,20 +4424,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>140</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4666,20 +4463,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>140</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4706,20 +4502,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>140</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4746,20 +4541,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>140</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4786,20 +4580,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>140</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4826,20 +4619,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>140</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4866,20 +4658,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>140</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4906,20 +4697,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>140</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4946,20 +4736,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>140</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4986,20 +4775,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>140</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5026,20 +4814,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>140</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5066,20 +4853,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>140</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5106,20 +4892,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>140</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5146,20 +4931,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>140</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5186,20 +4970,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>140</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5226,20 +5009,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>140</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5264,22 +5046,23 @@
         <v>198756.5384</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>140</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.079285714285714</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>1.027146001467351</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5304,22 +5087,15 @@
         <v>198756.5384</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5344,22 +5120,15 @@
         <v>201258.0996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5384,22 +5153,15 @@
         <v>201258.0996</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5424,20 +5186,15 @@
         <v>201258.0996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L125" t="n">
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5462,18 +5219,15 @@
         <v>201193.0996</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5498,18 +5252,15 @@
         <v>201193.0996</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5534,18 +5285,15 @@
         <v>201443.0996</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5570,18 +5318,15 @@
         <v>200026.4277</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5608,16 +5353,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5642,18 +5384,15 @@
         <v>199733.9257</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5678,18 +5417,15 @@
         <v>195746.3342</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5716,16 +5452,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5752,16 +5485,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5788,16 +5518,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5824,16 +5551,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5860,16 +5584,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5894,18 +5615,15 @@
         <v>193931.8804999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5930,18 +5648,15 @@
         <v>193693.8881</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5966,18 +5681,15 @@
         <v>193193.8881</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6002,18 +5714,15 @@
         <v>192053.8180999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6038,18 +5747,15 @@
         <v>191203.8180999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6076,16 +5782,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6112,16 +5815,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6148,16 +5848,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6184,16 +5881,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6220,16 +5914,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6256,16 +5947,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6292,16 +5980,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6328,16 +6013,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6364,16 +6046,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6400,16 +6079,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6436,16 +6112,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6472,16 +6145,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6506,18 +6176,15 @@
         <v>203127.7194999999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6542,18 +6209,15 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6578,18 +6242,15 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6614,18 +6275,15 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6650,18 +6308,15 @@
         <v>205937.7194999999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6686,18 +6341,15 @@
         <v>205871.3795</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6724,16 +6376,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6760,16 +6409,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6796,16 +6442,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6832,16 +6475,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6868,16 +6508,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6904,16 +6541,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6940,16 +6574,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6974,18 +6605,15 @@
         <v>205636.0382</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7010,18 +6638,15 @@
         <v>205886.0382</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7046,18 +6671,15 @@
         <v>205871.248</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7082,18 +6704,15 @@
         <v>207381.248</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7118,18 +6737,15 @@
         <v>211213.078</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7154,18 +6770,15 @@
         <v>205543.3131999999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7190,18 +6803,15 @@
         <v>203532.7644</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7226,18 +6836,15 @@
         <v>205449.4362999999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7264,16 +6871,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7300,16 +6904,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7334,18 +6935,15 @@
         <v>203849.9183999999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7370,18 +6968,15 @@
         <v>203849.9183999999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7408,16 +7003,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7444,16 +7036,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7480,18 +7069,15 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>13248.925</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>13248.925</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>13248.925</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>12748.925</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>12748.925</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>12748.925</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>12748.925</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>12748.925</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>12748.925</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>29920.545</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>29920.545</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>140</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +878,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,15 +911,17 @@
         <v>29920.545</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>140</v>
       </c>
-      <c r="J14" t="n">
-        <v>140</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,17 +950,13 @@
         <v>29920.545</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>140</v>
-      </c>
-      <c r="J15" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -925,17 +987,13 @@
         <v>29920.545</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>140</v>
-      </c>
-      <c r="J16" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -966,17 +1024,13 @@
         <v>37753.545</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>140</v>
-      </c>
-      <c r="J17" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1007,14 +1061,10 @@
         <v>37457.446</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1051,9 +1101,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>140</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1090,9 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>140</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1129,9 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>140</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1168,9 +1212,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>140</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1207,9 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>140</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1246,9 +1286,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>140</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1285,9 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>140</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1324,9 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>140</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1363,9 +1397,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>140</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1402,9 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>140</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1438,14 +1468,10 @@
         <v>39966.55899999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>138</v>
-      </c>
-      <c r="J29" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1479,14 +1505,10 @@
         <v>39966.55899999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>138</v>
-      </c>
-      <c r="J30" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1520,14 +1542,10 @@
         <v>54871.35639999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>138</v>
-      </c>
-      <c r="J31" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1564,9 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>140</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,14 +1616,10 @@
         <v>54768.04739999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1644,9 +1656,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>140</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1683,9 +1693,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>140</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1719,14 +1727,10 @@
         <v>53232.39949999998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,14 +1764,12 @@
         <v>67307.17129999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>140</v>
       </c>
-      <c r="J37" t="n">
-        <v>140</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1801,14 +1803,12 @@
         <v>67264.69099999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>141.7</v>
       </c>
-      <c r="J38" t="n">
-        <v>140</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1842,12 +1842,12 @@
         <v>67646.3449</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>137</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1881,12 +1881,12 @@
         <v>67646.3449</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,12 +1920,12 @@
         <v>70512.82299999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,12 +1959,12 @@
         <v>70179.68389999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>143</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1998,14 +1998,10 @@
         <v>70505.44079999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2039,14 +2035,10 @@
         <v>91996.52199999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,9 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>140</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,9 +2112,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>140</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,9 +2149,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>140</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,9 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>140</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,9 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>140</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,14 +2257,10 @@
         <v>88805.77589999996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2319,9 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>140</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,9 +2334,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>140</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2397,9 +2371,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>140</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2436,9 +2408,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>140</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2475,9 +2445,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>140</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,9 +2482,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>140</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,9 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>140</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2592,9 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>140</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2631,9 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>140</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,9 +2630,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>140</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,9 +2667,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>140</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,9 +2704,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>140</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,9 +2741,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>140</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,9 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>140</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,9 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>140</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,9 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>140</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,9 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>140</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,9 +2926,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>140</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,9 +2963,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>140</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3060,9 +3000,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>140</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3099,9 +3037,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>140</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,9 +3074,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>140</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3177,9 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>140</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,9 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>140</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,9 +3185,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>140</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3294,9 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>140</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,9 +3259,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>140</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,9 +3296,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>140</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3411,9 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>140</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3450,9 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>140</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,9 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>140</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,9 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>140</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3567,9 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>140</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,9 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>140</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3645,9 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>140</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3684,9 +3592,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>140</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3723,9 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>140</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3762,9 +3666,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>140</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,9 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>140</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3840,9 +3740,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>140</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3879,9 +3777,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>140</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3918,9 +3814,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>140</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,9 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>140</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3996,9 +3888,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>140</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4035,9 +3925,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>140</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,9 +3962,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>140</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,9 +3999,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>140</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,9 +4036,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>140</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,9 +4073,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>140</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,9 +4110,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>140</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,9 +4147,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>140</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,9 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>140</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,9 +4221,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>140</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,9 +4258,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>140</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,9 +4295,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>140</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,9 +4332,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>140</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,9 +4369,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>140</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,9 +4406,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>140</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,9 +4443,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>140</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,9 +4480,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>140</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,9 +4517,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>140</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4698,9 +4554,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>140</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,9 +4591,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>140</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4776,9 +4628,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>140</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,9 +4665,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>140</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,9 +4702,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>140</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4893,9 +4739,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>140</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,9 +4776,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>140</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,9 +4813,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>140</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,9 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>140</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,23 +4884,19 @@
         <v>198756.5384</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>140</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.079285714285714</v>
-      </c>
-      <c r="M121" t="n">
-        <v>1.027146001467351</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5087,11 +4921,15 @@
         <v>198756.5384</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5120,11 +4958,15 @@
         <v>201258.0996</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5153,11 +4995,15 @@
         <v>201258.0996</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5186,11 +5032,15 @@
         <v>201258.0996</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +5069,15 @@
         <v>201193.0996</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +5106,15 @@
         <v>201193.0996</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5143,15 @@
         <v>201443.0996</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5180,15 @@
         <v>200026.4277</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5221,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5384,11 +5254,15 @@
         <v>199733.9257</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5417,11 +5291,15 @@
         <v>195746.3342</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5332,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5369,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +5406,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +5443,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5586,7 +5480,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5615,14 +5513,16 @@
         <v>193931.8804999999</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5648,7 +5548,7 @@
         <v>193693.8881</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5681,7 +5581,7 @@
         <v>193193.8881</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5714,7 +5614,7 @@
         <v>192053.8180999999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5747,7 +5647,7 @@
         <v>191203.8180999999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5780,7 +5680,7 @@
         <v>191147.9545999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5813,7 +5713,7 @@
         <v>191107.7328999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5846,7 +5746,7 @@
         <v>192151.7177</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5879,7 +5779,7 @@
         <v>199308.2277</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5912,7 +5812,7 @@
         <v>198739.9447</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5945,7 +5845,7 @@
         <v>199429.9447</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5978,7 +5878,7 @@
         <v>199416.4145</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6011,7 +5911,7 @@
         <v>199416.4145</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6044,7 +5944,7 @@
         <v>198082.1645</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6176,7 +6076,7 @@
         <v>203127.7194999999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6209,7 +6109,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6242,7 +6142,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6275,7 +6175,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6308,7 +6208,7 @@
         <v>205937.7194999999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6341,7 +6241,7 @@
         <v>205871.3795</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6605,7 +6505,7 @@
         <v>205636.0382</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6638,7 +6538,7 @@
         <v>205886.0382</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6671,7 +6571,7 @@
         <v>205871.248</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6704,7 +6604,7 @@
         <v>207381.248</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6737,7 +6637,7 @@
         <v>211213.078</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6770,7 +6670,7 @@
         <v>205543.3131999999</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6803,7 +6703,7 @@
         <v>203532.7644</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6836,7 +6736,7 @@
         <v>205449.4362999999</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6869,7 +6769,7 @@
         <v>202109.4399999999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6935,7 +6835,7 @@
         <v>203849.9183999999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6968,7 +6868,7 @@
         <v>203849.9183999999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7078,6 +6978,6 @@
       <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>13248.925</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -562,11 +562,9 @@
         <v>12748.925</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +599,9 @@
         <v>12748.925</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +636,9 @@
         <v>12748.925</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -718,11 +712,9 @@
         <v>12748.925</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +749,9 @@
         <v>12748.925</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>138.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -835,11 +825,9 @@
         <v>29920.545</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -911,11 +899,9 @@
         <v>29920.545</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1764,11 +1750,9 @@
         <v>67307.17129999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1803,11 +1787,9 @@
         <v>67264.69099999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>141.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1842,11 +1824,9 @@
         <v>67646.3449</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1881,11 +1861,9 @@
         <v>67646.3449</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>141.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1920,11 +1898,9 @@
         <v>70512.82299999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>141.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1959,11 +1935,9 @@
         <v>70179.68389999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -4292,18 +4266,16 @@
         <v>184220.7051</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4329,15 +4301,11 @@
         <v>184220.7051</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4366,15 +4334,11 @@
         <v>182723.6695</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4407,11 +4371,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4404,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4437,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4470,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4503,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4536,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4569,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4662,15 +4598,11 @@
         <v>177464.8816</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4699,15 +4631,11 @@
         <v>177464.8816</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4736,15 +4664,11 @@
         <v>177464.8816</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4773,15 +4697,11 @@
         <v>196627.5384</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4810,15 +4730,11 @@
         <v>196627.5384</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4847,15 +4763,11 @@
         <v>198756.5384</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4884,15 +4796,11 @@
         <v>198756.5384</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4921,15 +4829,11 @@
         <v>198756.5384</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4866,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4999,11 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5032,15 +4928,11 @@
         <v>201258.0996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5073,11 +4965,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5110,11 +4998,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5143,15 +5027,11 @@
         <v>201443.0996</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +5064,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +5097,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +5130,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5295,11 +5163,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5332,11 +5196,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +5229,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +5262,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +5295,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5480,11 +5328,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5513,16 +5357,14 @@
         <v>193931.8804999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5548,7 +5390,7 @@
         <v>193693.8881</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5581,7 +5423,7 @@
         <v>193193.8881</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5614,7 +5456,7 @@
         <v>192053.8180999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5647,7 +5489,7 @@
         <v>191203.8180999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5680,7 +5522,7 @@
         <v>191147.9545999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5746,7 +5588,7 @@
         <v>192151.7177</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5779,7 +5621,7 @@
         <v>199308.2277</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5812,7 +5654,7 @@
         <v>198739.9447</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5845,7 +5687,7 @@
         <v>199429.9447</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5878,7 +5720,7 @@
         <v>199416.4145</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5911,7 +5753,7 @@
         <v>199416.4145</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5944,7 +5786,7 @@
         <v>198082.1645</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6010,7 +5852,7 @@
         <v>201627.7194999999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6703,7 +6545,7 @@
         <v>203532.7644</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6769,7 +6611,7 @@
         <v>202109.4399999999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6978,6 +6820,6 @@
       <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>13248.925</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -562,9 +562,11 @@
         <v>12748.925</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -599,9 +601,11 @@
         <v>12748.925</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -636,9 +640,11 @@
         <v>12748.925</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -712,9 +718,11 @@
         <v>12748.925</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -749,9 +757,11 @@
         <v>12748.925</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>138.9</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -825,9 +835,11 @@
         <v>29920.545</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>140</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,9 +874,11 @@
         <v>29920.545</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>140</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -899,9 +913,11 @@
         <v>29920.545</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>140</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -936,9 +952,11 @@
         <v>29920.545</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>140</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -973,9 +991,11 @@
         <v>29920.545</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>140</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1010,9 +1030,11 @@
         <v>37753.545</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>140</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1047,9 +1069,11 @@
         <v>37457.446</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>143.7</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1121,9 +1145,11 @@
         <v>40821.446</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>143.7</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1195,9 +1221,11 @@
         <v>39443.2597</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>142</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1232,9 +1260,11 @@
         <v>39902.41929999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>140.6</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1269,9 +1299,11 @@
         <v>40711.41929999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>143.1</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1306,9 +1338,11 @@
         <v>39861.71799999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>143.2</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1343,9 +1377,11 @@
         <v>40061.71799999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>135.1</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -4266,16 +4302,18 @@
         <v>184220.7051</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4301,11 +4339,15 @@
         <v>184220.7051</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +4376,15 @@
         <v>182723.6695</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4371,7 +4417,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4404,7 +4454,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4437,7 +4491,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4470,7 +4528,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4503,7 +4565,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4536,7 +4602,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4569,7 +4639,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4598,11 +4672,15 @@
         <v>177464.8816</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4631,11 +4709,15 @@
         <v>177464.8816</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4664,11 +4746,15 @@
         <v>177464.8816</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4783,15 @@
         <v>196627.5384</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4820,15 @@
         <v>196627.5384</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4857,15 @@
         <v>198756.5384</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4894,15 @@
         <v>198756.5384</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4829,11 +4931,15 @@
         <v>198756.5384</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4866,7 +4972,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4899,7 +5009,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4932,10 +5046,12 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -4994,7 +5110,7 @@
         <v>201193.0996</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5060,7 +5176,7 @@
         <v>200026.4277</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5093,7 +5209,7 @@
         <v>199946.4277</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5126,7 +5242,7 @@
         <v>199733.9257</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5159,7 +5275,7 @@
         <v>195746.3342</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5192,7 +5308,7 @@
         <v>194726.3342</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5225,7 +5341,7 @@
         <v>194217.2272999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5258,7 +5374,7 @@
         <v>191311.4163</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5291,7 +5407,7 @@
         <v>194937.8804999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5357,7 +5473,7 @@
         <v>193931.8804999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5390,7 +5506,7 @@
         <v>193693.8881</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5423,7 +5539,7 @@
         <v>193193.8881</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5456,7 +5572,7 @@
         <v>192053.8180999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5489,7 +5605,7 @@
         <v>191203.8180999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5522,7 +5638,7 @@
         <v>191147.9545999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5852,7 +5968,7 @@
         <v>201627.7194999999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5951,7 +6067,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5984,7 +6100,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6017,7 +6133,7 @@
         <v>202127.7194999999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6050,7 +6166,7 @@
         <v>205937.7194999999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6083,7 +6199,7 @@
         <v>205871.3795</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6116,7 +6232,7 @@
         <v>205881.3795</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6149,7 +6265,7 @@
         <v>205881.2726999999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6182,7 +6298,7 @@
         <v>205535.0386999999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest ABT.xlsx
+++ b/BackTest/2020-01-16 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3903.7735</v>
       </c>
       <c r="G2" t="n">
-        <v>13248.925</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>1739</v>
       </c>
       <c r="G3" t="n">
-        <v>13248.925</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>139.9</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>515</v>
       </c>
       <c r="G4" t="n">
-        <v>13248.925</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>139.9</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>12748.925</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>139.9</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>12748.925</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>138.9</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +617,19 @@
         <v>750</v>
       </c>
       <c r="G7" t="n">
-        <v>12748.925</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +651,19 @@
         <v>750</v>
       </c>
       <c r="G8" t="n">
-        <v>12748.925</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +685,19 @@
         <v>250</v>
       </c>
       <c r="G9" t="n">
-        <v>12748.925</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +719,19 @@
         <v>9530.031999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>12748.925</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +753,19 @@
         <v>17171.62</v>
       </c>
       <c r="G11" t="n">
-        <v>29920.545</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +787,19 @@
         <v>638.958</v>
       </c>
       <c r="G12" t="n">
-        <v>29920.545</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>140</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +821,19 @@
         <v>566.107</v>
       </c>
       <c r="G13" t="n">
-        <v>29920.545</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>140</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +855,21 @@
         <v>174.498</v>
       </c>
       <c r="G14" t="n">
-        <v>29920.545</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
         <v>140</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +891,21 @@
         <v>125</v>
       </c>
       <c r="G15" t="n">
-        <v>29920.545</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
         <v>140</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +927,21 @@
         <v>2796</v>
       </c>
       <c r="G16" t="n">
-        <v>29920.545</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
         <v>140</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +963,19 @@
         <v>7833</v>
       </c>
       <c r="G17" t="n">
-        <v>37753.545</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>140</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +997,19 @@
         <v>296.099</v>
       </c>
       <c r="G18" t="n">
-        <v>37457.446</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,22 +1031,19 @@
         <v>614</v>
       </c>
       <c r="G19" t="n">
-        <v>38071.446</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,24 +1065,19 @@
         <v>2750</v>
       </c>
       <c r="G20" t="n">
-        <v>40821.446</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1181,22 +1099,19 @@
         <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>40321.446</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1218,24 +1133,19 @@
         <v>878.1863</v>
       </c>
       <c r="G22" t="n">
-        <v>39443.2597</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>142</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1257,24 +1167,21 @@
         <v>459.1596</v>
       </c>
       <c r="G23" t="n">
-        <v>39902.41929999999</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
         <v>140.6</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1296,24 +1203,19 @@
         <v>809</v>
       </c>
       <c r="G24" t="n">
-        <v>40711.41929999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1335,24 +1237,21 @@
         <v>849.7012999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>39861.71799999999</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
         <v>143.2</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1374,24 +1273,21 @@
         <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>40061.71799999999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
         <v>135.1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1413,22 +1309,19 @@
         <v>404.841</v>
       </c>
       <c r="G27" t="n">
-        <v>40466.55899999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1450,22 +1343,19 @@
         <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>39966.55899999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1487,22 +1377,19 @@
         <v>30.5253</v>
       </c>
       <c r="G29" t="n">
-        <v>39966.55899999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,22 +1411,21 @@
         <v>14.5985</v>
       </c>
       <c r="G30" t="n">
-        <v>39966.55899999999</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1561,22 +1447,19 @@
         <v>14904.7974</v>
       </c>
       <c r="G31" t="n">
-        <v>54871.35639999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1598,22 +1481,21 @@
         <v>600</v>
       </c>
       <c r="G32" t="n">
-        <v>55471.35639999999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1635,22 +1517,19 @@
         <v>703.309</v>
       </c>
       <c r="G33" t="n">
-        <v>54768.04739999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1672,22 +1551,19 @@
         <v>314.049</v>
       </c>
       <c r="G34" t="n">
-        <v>55082.09639999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1709,22 +1585,19 @@
         <v>7109.338</v>
       </c>
       <c r="G35" t="n">
-        <v>62191.43439999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1746,22 +1619,19 @@
         <v>8959.034900000001</v>
       </c>
       <c r="G36" t="n">
-        <v>53232.39949999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1783,22 +1653,19 @@
         <v>14074.7718</v>
       </c>
       <c r="G37" t="n">
-        <v>67307.17129999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1820,22 +1687,19 @@
         <v>42.4803</v>
       </c>
       <c r="G38" t="n">
-        <v>67264.69099999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1857,22 +1721,19 @@
         <v>381.6539</v>
       </c>
       <c r="G39" t="n">
-        <v>67646.3449</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1894,22 +1755,19 @@
         <v>11.1391</v>
       </c>
       <c r="G40" t="n">
-        <v>67646.3449</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1931,22 +1789,19 @@
         <v>2866.4781</v>
       </c>
       <c r="G41" t="n">
-        <v>70512.82299999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1968,22 +1823,19 @@
         <v>333.1391</v>
       </c>
       <c r="G42" t="n">
-        <v>70179.68389999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2005,22 +1857,19 @@
         <v>325.7569</v>
       </c>
       <c r="G43" t="n">
-        <v>70505.44079999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2042,22 +1891,19 @@
         <v>21491.0812</v>
       </c>
       <c r="G44" t="n">
-        <v>91996.52199999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2079,22 +1925,19 @@
         <v>38000.9492</v>
       </c>
       <c r="G45" t="n">
-        <v>53995.57279999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2116,22 +1959,19 @@
         <v>843.58</v>
       </c>
       <c r="G46" t="n">
-        <v>53151.99279999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2153,22 +1993,19 @@
         <v>121.776</v>
       </c>
       <c r="G47" t="n">
-        <v>53030.21679999998</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2190,22 +2027,19 @@
         <v>36325.554</v>
       </c>
       <c r="G48" t="n">
-        <v>89355.77079999997</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2227,22 +2061,19 @@
         <v>459.584</v>
       </c>
       <c r="G49" t="n">
-        <v>88896.18679999997</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2264,22 +2095,19 @@
         <v>90.4109</v>
       </c>
       <c r="G50" t="n">
-        <v>88805.77589999996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2301,22 +2129,19 @@
         <v>6152.4859</v>
       </c>
       <c r="G51" t="n">
-        <v>94958.26179999996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2338,22 +2163,19 @@
         <v>554.0168</v>
       </c>
       <c r="G52" t="n">
-        <v>94404.24499999997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2375,22 +2197,19 @@
         <v>22550.4375</v>
       </c>
       <c r="G53" t="n">
-        <v>116954.6825</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2412,22 +2231,19 @@
         <v>716.925</v>
       </c>
       <c r="G54" t="n">
-        <v>116237.7575</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2449,22 +2265,19 @@
         <v>23177.7824</v>
       </c>
       <c r="G55" t="n">
-        <v>139415.5399</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2486,22 +2299,19 @@
         <v>629</v>
       </c>
       <c r="G56" t="n">
-        <v>138786.5399</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2523,22 +2333,19 @@
         <v>538.242</v>
       </c>
       <c r="G57" t="n">
-        <v>139324.7819</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2560,22 +2367,19 @@
         <v>6155.4234</v>
       </c>
       <c r="G58" t="n">
-        <v>139324.7819</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2597,22 +2401,19 @@
         <v>2083.212</v>
       </c>
       <c r="G59" t="n">
-        <v>141407.9939</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2634,22 +2435,19 @@
         <v>9362.433999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>150770.4279</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2671,22 +2469,19 @@
         <v>250</v>
       </c>
       <c r="G61" t="n">
-        <v>150520.4279</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2708,22 +2503,19 @@
         <v>620.9281999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>149899.4997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2745,22 +2537,19 @@
         <v>10122.7757</v>
       </c>
       <c r="G63" t="n">
-        <v>160022.2754</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2782,22 +2571,19 @@
         <v>1750</v>
       </c>
       <c r="G64" t="n">
-        <v>158272.2754</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2819,22 +2605,19 @@
         <v>215</v>
       </c>
       <c r="G65" t="n">
-        <v>158487.2754</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2856,22 +2639,19 @@
         <v>261.1482</v>
       </c>
       <c r="G66" t="n">
-        <v>158226.1272</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2893,22 +2673,19 @@
         <v>6037.2534</v>
       </c>
       <c r="G67" t="n">
-        <v>164263.3806</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2930,22 +2707,19 @@
         <v>6586.384</v>
       </c>
       <c r="G68" t="n">
-        <v>164263.3806</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2967,22 +2741,19 @@
         <v>4459</v>
       </c>
       <c r="G69" t="n">
-        <v>168722.3806</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3004,22 +2775,19 @@
         <v>387.9651</v>
       </c>
       <c r="G70" t="n">
-        <v>168334.4155</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3041,22 +2809,19 @@
         <v>1138</v>
       </c>
       <c r="G71" t="n">
-        <v>169472.4155</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3078,22 +2843,19 @@
         <v>568.0684</v>
       </c>
       <c r="G72" t="n">
-        <v>168904.3471</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3115,22 +2877,19 @@
         <v>287.4627</v>
       </c>
       <c r="G73" t="n">
-        <v>169191.8098</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3152,22 +2911,19 @@
         <v>2161.01</v>
       </c>
       <c r="G74" t="n">
-        <v>171352.8198</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3189,22 +2945,19 @@
         <v>1592.73</v>
       </c>
       <c r="G75" t="n">
-        <v>171352.8198</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3226,22 +2979,19 @@
         <v>2326.57</v>
       </c>
       <c r="G76" t="n">
-        <v>169026.2498</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3263,22 +3013,19 @@
         <v>2250</v>
       </c>
       <c r="G77" t="n">
-        <v>171276.2498</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3300,22 +3047,19 @@
         <v>663.3952</v>
       </c>
       <c r="G78" t="n">
-        <v>170612.8546</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3337,22 +3081,19 @@
         <v>19719.7641</v>
       </c>
       <c r="G79" t="n">
-        <v>150893.0905</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3374,22 +3115,19 @@
         <v>791.7917</v>
       </c>
       <c r="G80" t="n">
-        <v>151684.8822</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3411,22 +3149,19 @@
         <v>646.0684</v>
       </c>
       <c r="G81" t="n">
-        <v>151038.8138</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3448,22 +3183,19 @@
         <v>189.3627</v>
       </c>
       <c r="G82" t="n">
-        <v>151038.8138</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3485,22 +3217,19 @@
         <v>856.6769</v>
       </c>
       <c r="G83" t="n">
-        <v>151895.4907</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3522,22 +3251,19 @@
         <v>1250</v>
       </c>
       <c r="G84" t="n">
-        <v>150645.4907</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3559,22 +3285,19 @@
         <v>928.9556</v>
       </c>
       <c r="G85" t="n">
-        <v>149716.5351</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3596,22 +3319,19 @@
         <v>2696.6505</v>
       </c>
       <c r="G86" t="n">
-        <v>152413.1856</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3633,22 +3353,19 @@
         <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>152413.1856</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3670,22 +3387,19 @@
         <v>1816.0803</v>
       </c>
       <c r="G88" t="n">
-        <v>150597.1053</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3707,22 +3421,19 @@
         <v>500</v>
       </c>
       <c r="G89" t="n">
-        <v>151097.1053</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3744,22 +3455,19 @@
         <v>8428.125</v>
       </c>
       <c r="G90" t="n">
-        <v>159525.2303</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3781,22 +3489,19 @@
         <v>13771.5814</v>
       </c>
       <c r="G91" t="n">
-        <v>173296.8117</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3818,22 +3523,19 @@
         <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>173296.8117</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3855,22 +3557,19 @@
         <v>11051.2282</v>
       </c>
       <c r="G93" t="n">
-        <v>173296.8117</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3892,22 +3591,19 @@
         <v>800.4399</v>
       </c>
       <c r="G94" t="n">
-        <v>173296.8117</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3929,22 +3625,19 @@
         <v>16705.8373</v>
       </c>
       <c r="G95" t="n">
-        <v>190002.649</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3966,22 +3659,19 @@
         <v>6571.1729</v>
       </c>
       <c r="G96" t="n">
-        <v>183431.4761</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4003,22 +3693,19 @@
         <v>549.3252</v>
       </c>
       <c r="G97" t="n">
-        <v>183980.8013</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,22 +3727,19 @@
         <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>184480.8013</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4077,22 +3761,19 @@
         <v>2745.452</v>
       </c>
       <c r="G99" t="n">
-        <v>181735.3493</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4114,22 +3795,19 @@
         <v>1412.3558</v>
       </c>
       <c r="G100" t="n">
-        <v>183147.7051</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4151,22 +3829,19 @@
         <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>183647.7051</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4188,22 +3863,19 @@
         <v>1306.6161</v>
       </c>
       <c r="G102" t="n">
-        <v>183647.7051</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4225,22 +3897,19 @@
         <v>573</v>
       </c>
       <c r="G103" t="n">
-        <v>184220.7051</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4262,22 +3931,19 @@
         <v>13474.8231</v>
       </c>
       <c r="G104" t="n">
-        <v>184220.7051</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4299,22 +3965,19 @@
         <v>672.0431</v>
       </c>
       <c r="G105" t="n">
-        <v>184220.7051</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4336,22 +3999,19 @@
         <v>475.537</v>
       </c>
       <c r="G106" t="n">
-        <v>184220.7051</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4373,22 +4033,19 @@
         <v>1497.0356</v>
       </c>
       <c r="G107" t="n">
-        <v>182723.6695</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4410,22 +4067,19 @@
         <v>68.7533</v>
       </c>
       <c r="G108" t="n">
-        <v>182792.4228</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4447,22 +4101,19 @@
         <v>181.212</v>
       </c>
       <c r="G109" t="n">
-        <v>182792.4228</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4484,22 +4135,19 @@
         <v>398.502</v>
       </c>
       <c r="G110" t="n">
-        <v>182792.4228</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4521,22 +4169,19 @@
         <v>210</v>
       </c>
       <c r="G111" t="n">
-        <v>182792.4228</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4558,22 +4203,19 @@
         <v>12300.165</v>
       </c>
       <c r="G112" t="n">
-        <v>182792.4228</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4595,22 +4237,19 @@
         <v>11137.208</v>
       </c>
       <c r="G113" t="n">
-        <v>171655.2148</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4632,22 +4271,19 @@
         <v>528.1299</v>
       </c>
       <c r="G114" t="n">
-        <v>172183.3447</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4669,22 +4305,19 @@
         <v>5281.5369</v>
       </c>
       <c r="G115" t="n">
-        <v>177464.8816</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4706,22 +4339,19 @@
         <v>664.127</v>
       </c>
       <c r="G116" t="n">
-        <v>177464.8816</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4743,22 +4373,19 @@
         <v>1087.5068</v>
       </c>
       <c r="G117" t="n">
-        <v>177464.8816</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4780,22 +4407,19 @@
         <v>19162.6568</v>
       </c>
       <c r="G118" t="n">
-        <v>196627.5384</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4817,22 +4441,19 @@
         <v>498.9789</v>
       </c>
       <c r="G119" t="n">
-        <v>196627.5384</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4854,22 +4475,19 @@
         <v>2129</v>
       </c>
       <c r="G120" t="n">
-        <v>198756.5384</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4891,22 +4509,19 @@
         <v>72.63549999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>198756.5384</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4928,22 +4543,19 @@
         <v>6859.8678</v>
       </c>
       <c r="G122" t="n">
-        <v>198756.5384</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4965,22 +4577,19 @@
         <v>2501.5612</v>
       </c>
       <c r="G123" t="n">
-        <v>201258.0996</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5002,22 +4611,19 @@
         <v>250</v>
       </c>
       <c r="G124" t="n">
-        <v>201258.0996</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5039,20 +4645,19 @@
         <v>2743.0748</v>
       </c>
       <c r="G125" t="n">
-        <v>201258.0996</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
       </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5074,18 +4679,19 @@
         <v>65</v>
       </c>
       <c r="G126" t="n">
-        <v>201193.0996</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5107,18 +4713,17 @@
         <v>631.7403</v>
       </c>
       <c r="G127" t="n">
-        <v>201193.0996</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5140,18 +4745,15 @@
         <v>250</v>
       </c>
       <c r="G128" t="n">
-        <v>201443.0996</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5173,18 +4775,15 @@
         <v>1416.6719</v>
       </c>
       <c r="G129" t="n">
-        <v>200026.4277</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5206,18 +4805,15 @@
         <v>80</v>
       </c>
       <c r="G130" t="n">
-        <v>199946.4277</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5239,18 +4835,15 @@
         <v>212.502</v>
       </c>
       <c r="G131" t="n">
-        <v>199733.9257</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5272,18 +4865,15 @@
         <v>3987.5915</v>
       </c>
       <c r="G132" t="n">
-        <v>195746.3342</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5305,18 +4895,15 @@
         <v>1020</v>
       </c>
       <c r="G133" t="n">
-        <v>194726.3342</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5338,18 +4925,15 @@
         <v>509.1069</v>
       </c>
       <c r="G134" t="n">
-        <v>194217.2272999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5371,18 +4955,15 @@
         <v>2905.811</v>
       </c>
       <c r="G135" t="n">
-        <v>191311.4163</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5404,18 +4985,15 @@
         <v>3626.4642</v>
       </c>
       <c r="G136" t="n">
-        <v>194937.8804999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5437,18 +5015,15 @@
         <v>750</v>
       </c>
       <c r="G137" t="n">
-        <v>194187.8804999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5470,18 +5045,15 @@
         <v>256</v>
       </c>
       <c r="G138" t="n">
-        <v>193931.8804999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5503,18 +5075,15 @@
         <v>237.9924</v>
       </c>
       <c r="G139" t="n">
-        <v>193693.8881</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5536,18 +5105,15 @@
         <v>500</v>
       </c>
       <c r="G140" t="n">
-        <v>193193.8881</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5569,18 +5135,15 @@
         <v>1140.07</v>
       </c>
       <c r="G141" t="n">
-        <v>192053.8180999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5602,18 +5165,15 @@
         <v>850</v>
       </c>
       <c r="G142" t="n">
-        <v>191203.8180999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5635,18 +5195,15 @@
         <v>55.8635</v>
       </c>
       <c r="G143" t="n">
-        <v>191147.9545999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5668,18 +5225,15 @@
         <v>40.2217</v>
       </c>
       <c r="G144" t="n">
-        <v>191107.7328999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5701,18 +5255,15 @@
         <v>1043.9848</v>
       </c>
       <c r="G145" t="n">
-        <v>192151.7177</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5734,18 +5285,15 @@
         <v>7156.51</v>
       </c>
       <c r="G146" t="n">
-        <v>199308.2277</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5767,18 +5315,15 @@
         <v>568.283</v>
       </c>
       <c r="G147" t="n">
-        <v>198739.9447</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5800,18 +5345,15 @@
         <v>690</v>
       </c>
       <c r="G148" t="n">
-        <v>199429.9447</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5833,18 +5375,15 @@
         <v>13.5302</v>
       </c>
       <c r="G149" t="n">
-        <v>199416.4145</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5866,18 +5405,15 @@
         <v>1320.7198</v>
       </c>
       <c r="G150" t="n">
-        <v>199416.4145</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5899,18 +5435,15 @@
         <v>1334.25</v>
       </c>
       <c r="G151" t="n">
-        <v>198082.1645</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5932,18 +5465,15 @@
         <v>3545.555</v>
       </c>
       <c r="G152" t="n">
-        <v>201627.7194999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5965,18 +5495,15 @@
         <v>291.832</v>
       </c>
       <c r="G153" t="n">
-        <v>201627.7194999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5998,18 +5525,15 @@
         <v>500</v>
       </c>
       <c r="G154" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6031,18 +5555,15 @@
         <v>1000</v>
       </c>
       <c r="G155" t="n">
-        <v>203127.7194999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6064,18 +5585,15 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6097,18 +5615,15 @@
         <v>250</v>
       </c>
       <c r="G157" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6130,18 +5645,15 @@
         <v>4569.5329</v>
       </c>
       <c r="G158" t="n">
-        <v>202127.7194999999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6163,18 +5675,15 @@
         <v>3810</v>
       </c>
       <c r="G159" t="n">
-        <v>205937.7194999999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6196,18 +5705,15 @@
         <v>66.34</v>
       </c>
       <c r="G160" t="n">
-        <v>205871.3795</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6229,18 +5735,15 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>205881.3795</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6262,18 +5765,15 @@
         <v>0.1068</v>
       </c>
       <c r="G162" t="n">
-        <v>205881.2726999999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6295,18 +5795,15 @@
         <v>346.234</v>
       </c>
       <c r="G163" t="n">
-        <v>205535.0386999999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6328,18 +5825,15 @@
         <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>206035.0386999999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6361,18 +5855,15 @@
         <v>96.23399999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>205938.8046999999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6394,18 +5885,15 @@
         <v>213.515</v>
       </c>
       <c r="G166" t="n">
-        <v>205725.2896999999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6427,18 +5915,15 @@
         <v>96.23399999999999</v>
       </c>
       <c r="G167" t="n">
-        <v>205629.0556999999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6460,18 +5945,15 @@
         <v>6.9825</v>
       </c>
       <c r="G168" t="n">
-        <v>205636.0382</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6493,18 +5975,15 @@
         <v>250</v>
       </c>
       <c r="G169" t="n">
-        <v>205886.0382</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6526,18 +6005,15 @@
         <v>14.7902</v>
       </c>
       <c r="G170" t="n">
-        <v>205871.248</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6559,18 +6035,15 @@
         <v>1510</v>
       </c>
       <c r="G171" t="n">
-        <v>207381.248</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6592,18 +6065,15 @@
         <v>3831.83</v>
       </c>
       <c r="G172" t="n">
-        <v>211213.078</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6625,18 +6095,15 @@
         <v>5669.7648</v>
       </c>
       <c r="G173" t="n">
-        <v>205543.3131999999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6658,18 +6125,15 @@
         <v>2010.5488</v>
       </c>
       <c r="G174" t="n">
-        <v>203532.7644</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6691,18 +6155,15 @@
         <v>1916.6719</v>
       </c>
       <c r="G175" t="n">
-        <v>205449.4362999999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6724,18 +6185,15 @@
         <v>3339.9963</v>
       </c>
       <c r="G176" t="n">
-        <v>202109.4399999999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6757,18 +6215,15 @@
         <v>1740.4784</v>
       </c>
       <c r="G177" t="n">
-        <v>203849.9183999999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6790,18 +6245,15 @@
         <v>378.212</v>
       </c>
       <c r="G178" t="n">
-        <v>203849.9183999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6823,18 +6275,15 @@
         <v>0.0004</v>
       </c>
       <c r="G179" t="n">
-        <v>203849.9183999999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6856,18 +6305,15 @@
         <v>421.12</v>
       </c>
       <c r="G180" t="n">
-        <v>204271.0383999999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6889,18 +6335,15 @@
         <v>3831.338</v>
       </c>
       <c r="G181" t="n">
-        <v>200439.7003999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6922,18 +6365,15 @@
         <v>909.181</v>
       </c>
       <c r="G182" t="n">
-        <v>200439.7003999999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
